--- a/Suivi contrôle qualité d'eau de dessalement QT.xlsx
+++ b/Suivi contrôle qualité d'eau de dessalement QT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Suivie QT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F77875-F475-4245-84CD-7334D8450529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="789" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eau brute Self cleaning" sheetId="5" state="hidden" r:id="rId1"/>
@@ -16,9 +22,9 @@
     <sheet name="FC" sheetId="12" r:id="rId7"/>
     <sheet name="RO" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="171">
   <si>
     <t>pH</t>
   </si>
@@ -605,12 +611,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,9 +1517,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1852,7 +1858,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2430,6 +2436,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -2468,7 +2484,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04AAF723-A2BE-419E-9F2E-E106DAEC9B73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AAF723-A2BE-419E-9F2E-E106DAEC9B73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2539,7 @@
         <xdr:cNvPr id="5" name="Connecteur droit 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE34ACF8-4F87-4687-82E8-5D08D86F8337}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE34ACF8-4F87-4687-82E8-5D08D86F8337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2594,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6DA41B0-4FF1-4CDC-98E0-28E5B128B365}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DA41B0-4FF1-4CDC-98E0-28E5B128B365}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2649,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B7B22A-2A6C-423C-9242-1F257DF65078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B7B22A-2A6C-423C-9242-1F257DF65078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2704,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C2571DF-7D23-487C-AE96-BF462BE3D1C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2571DF-7D23-487C-AE96-BF462BE3D1C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2818,7 +2834,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3012,21 +3028,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
@@ -3035,8 +3051,8 @@
     <col min="5" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:30" ht="24" customHeight="1" thickBot="1">
+    <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
@@ -3073,7 +3089,7 @@
       <c r="AC2" s="176"/>
       <c r="AD2" s="177"/>
     </row>
-    <row r="3" spans="2:30" ht="15" customHeight="1">
+    <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="179"/>
       <c r="C3" s="170"/>
       <c r="D3" s="171"/>
@@ -3120,7 +3136,7 @@
       <c r="AC3" s="183"/>
       <c r="AD3" s="184"/>
     </row>
-    <row r="4" spans="2:30" ht="15" customHeight="1">
+    <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="180"/>
       <c r="C4" s="173"/>
       <c r="D4" s="174"/>
@@ -3151,7 +3167,7 @@
       <c r="AC4" s="190"/>
       <c r="AD4" s="191"/>
     </row>
-    <row r="5" spans="2:30" ht="30" customHeight="1">
+    <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="198" t="s">
         <v>110</v>
       </c>
@@ -3240,7 +3256,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="15.75" thickBot="1">
+    <row r="6" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="199"/>
       <c r="C6" s="200"/>
       <c r="D6" s="201"/>
@@ -3271,7 +3287,7 @@
       <c r="AC6" s="197"/>
       <c r="AD6" s="182"/>
     </row>
-    <row r="7" spans="2:30">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
         <v>45490</v>
       </c>
@@ -3308,7 +3324,7 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="15"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>45491</v>
       </c>
@@ -3345,7 +3361,7 @@
       <c r="AC8" s="18"/>
       <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="2:30">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>45492</v>
       </c>
@@ -3382,7 +3398,7 @@
       <c r="AC9" s="18"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>45495</v>
       </c>
@@ -3421,7 +3437,7 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="15"/>
     </row>
-    <row r="11" spans="2:30">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>45497</v>
       </c>
@@ -3460,7 +3476,7 @@
       <c r="AC11" s="18"/>
       <c r="AD11" s="15"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>45498</v>
       </c>
@@ -3493,7 +3509,7 @@
       <c r="AC12" s="18"/>
       <c r="AD12" s="15"/>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>45502</v>
       </c>
@@ -3526,7 +3542,7 @@
       <c r="AC13" s="18"/>
       <c r="AD13" s="15"/>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>45504</v>
       </c>
@@ -3614,7 +3630,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="15" spans="2:30">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>45505</v>
       </c>
@@ -3708,7 +3724,7 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="16" spans="2:30">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>45506</v>
       </c>
@@ -3847,17 +3863,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:CT59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:CT61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="CN59" sqref="CN59"/>
+      <selection pane="bottomRight" activeCell="CT60" sqref="CT60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -3880,8 +3896,8 @@
     <col min="47" max="47" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:98" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:98" ht="32.25" customHeight="1" thickBot="1">
+    <row r="1" spans="2:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:98" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="224" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +4011,7 @@
       <c r="CS2" s="228"/>
       <c r="CT2" s="244"/>
     </row>
-    <row r="3" spans="2:98" ht="15" customHeight="1">
+    <row r="3" spans="2:98" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="178" t="s">
         <v>3</v>
       </c>
@@ -4128,7 +4144,7 @@
       <c r="CS3" s="225"/>
       <c r="CT3" s="235"/>
     </row>
-    <row r="4" spans="2:98" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:98" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="212"/>
       <c r="C4" s="219"/>
       <c r="D4" s="220"/>
@@ -4227,7 +4243,7 @@
       <c r="CS4" s="250"/>
       <c r="CT4" s="251"/>
     </row>
-    <row r="5" spans="2:98" ht="27.6" customHeight="1" thickBot="1">
+    <row r="5" spans="2:98" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="213" t="s">
         <v>4</v>
       </c>
@@ -4520,7 +4536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:98" ht="45.75" customHeight="1" thickBot="1">
+    <row r="6" spans="2:98" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="213"/>
       <c r="C6" s="223"/>
       <c r="D6" s="205"/>
@@ -4683,7 +4699,7 @@
       </c>
       <c r="CT6" s="206"/>
     </row>
-    <row r="7" spans="2:98" ht="15.75" customHeight="1">
+    <row r="7" spans="2:98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>45490</v>
       </c>
@@ -4962,7 +4978,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="8" spans="2:98">
+    <row r="8" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>45491</v>
       </c>
@@ -5255,7 +5271,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="2:98">
+    <row r="9" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>45492</v>
       </c>
@@ -5548,7 +5564,7 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="10" spans="2:98">
+    <row r="10" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>45493</v>
       </c>
@@ -5649,7 +5665,7 @@
       <c r="CS10" s="4"/>
       <c r="CT10" s="13"/>
     </row>
-    <row r="11" spans="2:98">
+    <row r="11" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>45494</v>
       </c>
@@ -5750,7 +5766,7 @@
       <c r="CS11" s="4"/>
       <c r="CT11" s="13"/>
     </row>
-    <row r="12" spans="2:98">
+    <row r="12" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>45495</v>
       </c>
@@ -6043,7 +6059,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="13" spans="2:98">
+    <row r="13" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>45496</v>
       </c>
@@ -6144,7 +6160,7 @@
       <c r="CS13" s="4"/>
       <c r="CT13" s="13"/>
     </row>
-    <row r="14" spans="2:98">
+    <row r="14" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>45497</v>
       </c>
@@ -6437,7 +6453,7 @@
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:98">
+    <row r="15" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>45498</v>
       </c>
@@ -6730,7 +6746,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="16" spans="2:98">
+    <row r="16" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>45499</v>
       </c>
@@ -6831,7 +6847,7 @@
       <c r="CS16" s="4"/>
       <c r="CT16" s="13"/>
     </row>
-    <row r="17" spans="2:98">
+    <row r="17" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>45500</v>
       </c>
@@ -6932,7 +6948,7 @@
       <c r="CS17" s="4"/>
       <c r="CT17" s="13"/>
     </row>
-    <row r="18" spans="2:98">
+    <row r="18" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>45501</v>
       </c>
@@ -7033,7 +7049,7 @@
       <c r="CS18" s="4"/>
       <c r="CT18" s="13"/>
     </row>
-    <row r="19" spans="2:98">
+    <row r="19" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>45502</v>
       </c>
@@ -7326,7 +7342,7 @@
         <v>1.6099999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:98">
+    <row r="20" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>45503</v>
       </c>
@@ -7427,7 +7443,7 @@
       <c r="CS20" s="4"/>
       <c r="CT20" s="13"/>
     </row>
-    <row r="21" spans="2:98">
+    <row r="21" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>45504</v>
       </c>
@@ -7720,7 +7736,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:98">
+    <row r="22" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B22" s="90">
         <v>45505</v>
       </c>
@@ -8008,7 +8024,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:98">
+    <row r="23" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>45506</v>
       </c>
@@ -8299,7 +8315,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:98">
+    <row r="24" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B24" s="90">
         <v>45507</v>
       </c>
@@ -8444,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:98">
+    <row r="25" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>45508</v>
       </c>
@@ -8589,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:98">
+    <row r="26" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B26" s="90">
         <v>45509</v>
       </c>
@@ -8734,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:98">
+    <row r="27" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B27" s="90">
         <v>45510</v>
       </c>
@@ -9025,7 +9041,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="28" spans="2:98">
+    <row r="28" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B28" s="90">
         <v>45511</v>
       </c>
@@ -9310,7 +9326,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="2:98">
+    <row r="29" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B29" s="90">
         <v>45512</v>
       </c>
@@ -9595,7 +9611,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="2:98">
+    <row r="30" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B30" s="90">
         <v>45513</v>
       </c>
@@ -9894,7 +9910,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:98">
+    <row r="31" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B31" s="90">
         <v>45514</v>
       </c>
@@ -9995,7 +10011,7 @@
       <c r="CS31" s="62"/>
       <c r="CT31" s="71"/>
     </row>
-    <row r="32" spans="2:98">
+    <row r="32" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B32" s="90">
         <v>45515</v>
       </c>
@@ -10096,7 +10112,7 @@
       <c r="CS32" s="62"/>
       <c r="CT32" s="71"/>
     </row>
-    <row r="33" spans="2:98" ht="15.75" thickBot="1">
+    <row r="33" spans="2:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>45516</v>
       </c>
@@ -10397,7 +10413,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="34" spans="2:98">
+    <row r="34" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B34" s="90">
         <v>45517</v>
       </c>
@@ -10698,7 +10714,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="35" spans="2:98">
+    <row r="35" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>45518</v>
       </c>
@@ -10826,7 +10842,7 @@
       <c r="CS35" s="62"/>
       <c r="CT35" s="62"/>
     </row>
-    <row r="36" spans="2:98">
+    <row r="36" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B36" s="90">
         <v>45519</v>
       </c>
@@ -11125,7 +11141,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:98">
+    <row r="37" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>45520</v>
       </c>
@@ -11424,7 +11440,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="38" spans="2:98">
+    <row r="38" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B38" s="90">
         <v>45521</v>
       </c>
@@ -11525,7 +11541,7 @@
       <c r="CS38" s="18"/>
       <c r="CT38" s="18"/>
     </row>
-    <row r="39" spans="2:98">
+    <row r="39" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>45522</v>
       </c>
@@ -11626,7 +11642,7 @@
       <c r="CS39" s="18"/>
       <c r="CT39" s="18"/>
     </row>
-    <row r="40" spans="2:98">
+    <row r="40" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B40" s="90">
         <v>45523</v>
       </c>
@@ -11927,7 +11943,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="41" spans="2:98">
+    <row r="41" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>45524</v>
       </c>
@@ -12028,7 +12044,7 @@
       <c r="CS41" s="62"/>
       <c r="CT41" s="62"/>
     </row>
-    <row r="42" spans="2:98">
+    <row r="42" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B42" s="90">
         <v>45525</v>
       </c>
@@ -12131,7 +12147,7 @@
       <c r="CS42" s="62"/>
       <c r="CT42" s="62"/>
     </row>
-    <row r="43" spans="2:98">
+    <row r="43" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>45526</v>
       </c>
@@ -12373,7 +12389,7 @@
         <v>0.7</v>
       </c>
       <c r="CB43" s="18">
-        <f t="shared" ref="CB43:CB58" si="28">BZ43-CA43</f>
+        <f t="shared" ref="CB43:CB61" si="28">BZ43-CA43</f>
         <v>1.2</v>
       </c>
       <c r="CC43" s="18">
@@ -12432,7 +12448,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="44" spans="2:98">
+    <row r="44" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B44" s="90">
         <v>45527</v>
       </c>
@@ -12733,7 +12749,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="45" spans="2:98">
+    <row r="45" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>45528</v>
       </c>
@@ -12834,7 +12850,7 @@
       <c r="CS45" s="18"/>
       <c r="CT45" s="18"/>
     </row>
-    <row r="46" spans="2:98">
+    <row r="46" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B46" s="90">
         <v>45529</v>
       </c>
@@ -12935,7 +12951,7 @@
       <c r="CS46" s="18"/>
       <c r="CT46" s="18"/>
     </row>
-    <row r="47" spans="2:98">
+    <row r="47" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>45530</v>
       </c>
@@ -13236,7 +13252,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="48" spans="2:98">
+    <row r="48" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B48" s="90">
         <v>45531</v>
       </c>
@@ -13537,7 +13553,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="49" spans="2:98">
+    <row r="49" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B49" s="56">
         <v>45532</v>
       </c>
@@ -13838,7 +13854,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="50" spans="2:98">
+    <row r="50" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B50" s="56">
         <v>45533</v>
       </c>
@@ -14139,7 +14155,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="51" spans="2:98">
+    <row r="51" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B51" s="56">
         <v>45534</v>
       </c>
@@ -14440,7 +14456,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="52" spans="2:98">
+    <row r="52" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B52" s="56">
         <v>45535</v>
       </c>
@@ -14541,7 +14557,7 @@
       <c r="CS52" s="18"/>
       <c r="CT52" s="18"/>
     </row>
-    <row r="53" spans="2:98">
+    <row r="53" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B53" s="56">
         <v>45536</v>
       </c>
@@ -14642,7 +14658,7 @@
       <c r="CS53" s="18"/>
       <c r="CT53" s="18"/>
     </row>
-    <row r="54" spans="2:98">
+    <row r="54" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B54" s="56">
         <v>45537</v>
       </c>
@@ -14662,7 +14678,7 @@
         <v>0.6</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" ref="H54:H58" si="35">F54-G54</f>
+        <f t="shared" ref="H54:H61" si="35">F54-G54</f>
         <v>1.2999999999999998</v>
       </c>
       <c r="I54" s="18">
@@ -14699,7 +14715,7 @@
         <v>0.5</v>
       </c>
       <c r="T54" s="18">
-        <f t="shared" ref="T54:T58" si="36">R54-S54</f>
+        <f t="shared" ref="T54:T61" si="36">R54-S54</f>
         <v>1.4</v>
       </c>
       <c r="U54" s="18">
@@ -14736,7 +14752,7 @@
         <v>0.5</v>
       </c>
       <c r="AF54" s="4">
-        <f t="shared" ref="AF54:AF58" si="37">AD54-AE54</f>
+        <f t="shared" ref="AF54:AF61" si="37">AD54-AE54</f>
         <v>1.5</v>
       </c>
       <c r="AG54" s="18">
@@ -14773,7 +14789,7 @@
         <v>0.5</v>
       </c>
       <c r="AR54" s="4">
-        <f t="shared" ref="AR54:AR58" si="38">AP54-AQ54</f>
+        <f t="shared" ref="AR54:AR61" si="38">AP54-AQ54</f>
         <v>1.5</v>
       </c>
       <c r="AS54" s="18">
@@ -14943,7 +14959,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="55" spans="2:98">
+    <row r="55" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B55" s="56">
         <v>45538</v>
       </c>
@@ -15244,7 +15260,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="56" spans="2:98">
+    <row r="56" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B56" s="56">
         <v>45539</v>
       </c>
@@ -15545,7 +15561,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="57" spans="2:98">
+    <row r="57" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B57" s="56">
         <v>45540</v>
       </c>
@@ -15846,7 +15862,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="58" spans="2:98">
+    <row r="58" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B58" s="56">
         <v>45541</v>
       </c>
@@ -16147,7 +16163,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="2:98">
+    <row r="59" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B59" s="56">
         <v>45542</v>
       </c>
@@ -16247,6 +16263,408 @@
       <c r="CR59" s="18"/>
       <c r="CS59" s="18"/>
       <c r="CT59" s="18"/>
+    </row>
+    <row r="60" spans="2:98" x14ac:dyDescent="0.25">
+      <c r="B60" s="56">
+        <v>45543</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
+      <c r="AA60" s="18"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="18"/>
+      <c r="AD60" s="18"/>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="18"/>
+      <c r="AI60" s="18"/>
+      <c r="AJ60" s="18"/>
+      <c r="AK60" s="18"/>
+      <c r="AL60" s="18"/>
+      <c r="AM60" s="18"/>
+      <c r="AN60" s="18"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="18"/>
+      <c r="AQ60" s="18"/>
+      <c r="AR60" s="18"/>
+      <c r="AS60" s="18"/>
+      <c r="AT60" s="18"/>
+      <c r="AU60" s="18"/>
+      <c r="AV60" s="18"/>
+      <c r="AW60" s="18"/>
+      <c r="AX60" s="18"/>
+      <c r="AY60" s="18"/>
+      <c r="AZ60" s="18"/>
+      <c r="BA60" s="18"/>
+      <c r="BB60" s="18"/>
+      <c r="BC60" s="18"/>
+      <c r="BD60" s="18"/>
+      <c r="BE60" s="18"/>
+      <c r="BF60" s="18"/>
+      <c r="BG60" s="18"/>
+      <c r="BH60" s="18"/>
+      <c r="BI60" s="18"/>
+      <c r="BJ60" s="18"/>
+      <c r="BK60" s="18"/>
+      <c r="BL60" s="18"/>
+      <c r="BM60" s="18"/>
+      <c r="BN60" s="18"/>
+      <c r="BO60" s="18"/>
+      <c r="BP60" s="18"/>
+      <c r="BQ60" s="18"/>
+      <c r="BR60" s="18"/>
+      <c r="BS60" s="18"/>
+      <c r="BT60" s="18"/>
+      <c r="BU60" s="18"/>
+      <c r="BV60" s="18"/>
+      <c r="BW60" s="18"/>
+      <c r="BX60" s="18"/>
+      <c r="BY60" s="18"/>
+      <c r="BZ60" s="18"/>
+      <c r="CA60" s="18"/>
+      <c r="CB60" s="18"/>
+      <c r="CC60" s="18"/>
+      <c r="CD60" s="18"/>
+      <c r="CE60" s="18"/>
+      <c r="CF60" s="18"/>
+      <c r="CG60" s="18"/>
+      <c r="CH60" s="18"/>
+      <c r="CI60" s="18"/>
+      <c r="CJ60" s="18"/>
+      <c r="CK60" s="18"/>
+      <c r="CL60" s="18"/>
+      <c r="CM60" s="18"/>
+      <c r="CN60" s="18"/>
+      <c r="CO60" s="18"/>
+      <c r="CP60" s="18"/>
+      <c r="CQ60" s="18"/>
+      <c r="CR60" s="18"/>
+      <c r="CS60" s="18"/>
+      <c r="CT60" s="18"/>
+    </row>
+    <row r="61" spans="2:98" x14ac:dyDescent="0.25">
+      <c r="B61" s="56">
+        <v>45544</v>
+      </c>
+      <c r="C61" s="18">
+        <v>5.32</v>
+      </c>
+      <c r="D61" s="18">
+        <v>294</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1550574</v>
+      </c>
+      <c r="F61" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="G61" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="H61" s="18">
+        <f t="shared" si="35"/>
+        <v>1.2</v>
+      </c>
+      <c r="I61" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="J61" s="18">
+        <v>228</v>
+      </c>
+      <c r="K61" s="18">
+        <v>1684314</v>
+      </c>
+      <c r="L61" s="18">
+        <v>1.47</v>
+      </c>
+      <c r="M61" s="18">
+        <v>0.38</v>
+      </c>
+      <c r="N61" s="18">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="O61" s="18">
+        <v>0</v>
+      </c>
+      <c r="P61" s="18">
+        <v>284</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>1371464</v>
+      </c>
+      <c r="R61" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="S61" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="T61" s="18">
+        <f t="shared" si="36"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="U61" s="18">
+        <v>0</v>
+      </c>
+      <c r="V61" s="18">
+        <v>237.36</v>
+      </c>
+      <c r="W61" s="18">
+        <v>1436276</v>
+      </c>
+      <c r="X61" s="18">
+        <v>1.47</v>
+      </c>
+      <c r="Y61" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="Z61" s="18">
+        <v>1.02</v>
+      </c>
+      <c r="AA61" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="AB61" s="18">
+        <v>195</v>
+      </c>
+      <c r="AC61" s="18">
+        <v>1368158</v>
+      </c>
+      <c r="AD61" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE61" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AF61" s="18">
+        <f t="shared" si="37"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="AG61" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="AH61" s="18">
+        <v>152.9</v>
+      </c>
+      <c r="AI61" s="18">
+        <v>1208281</v>
+      </c>
+      <c r="AJ61" s="18">
+        <v>1.59</v>
+      </c>
+      <c r="AK61" s="18">
+        <v>0.41</v>
+      </c>
+      <c r="AL61" s="18">
+        <v>1.18</v>
+      </c>
+      <c r="AM61" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AN61" s="18">
+        <v>256</v>
+      </c>
+      <c r="AO61" s="18">
+        <v>1320997</v>
+      </c>
+      <c r="AP61" s="18">
+        <v>2</v>
+      </c>
+      <c r="AQ61" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="AR61" s="18">
+        <f t="shared" si="38"/>
+        <v>1.4</v>
+      </c>
+      <c r="AS61" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="AT61" s="18">
+        <v>215.57</v>
+      </c>
+      <c r="AU61" s="18">
+        <v>1295103</v>
+      </c>
+      <c r="AV61" s="18">
+        <v>1.56</v>
+      </c>
+      <c r="AW61" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="AX61" s="18">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AY61" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="AZ61" s="18">
+        <v>261</v>
+      </c>
+      <c r="BA61" s="18">
+        <v>269071</v>
+      </c>
+      <c r="BB61" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="BC61" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="BD61" s="18">
+        <f t="shared" ref="BD61" si="41">BB61-BC61</f>
+        <v>0.8</v>
+      </c>
+      <c r="BE61" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BF61" s="18">
+        <v>267.7</v>
+      </c>
+      <c r="BG61" s="18">
+        <v>1025826</v>
+      </c>
+      <c r="BH61" s="18">
+        <v>1.46</v>
+      </c>
+      <c r="BI61" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="BJ61" s="18">
+        <v>0.99</v>
+      </c>
+      <c r="BK61" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="BL61" s="18">
+        <v>215</v>
+      </c>
+      <c r="BM61" s="18">
+        <v>227008</v>
+      </c>
+      <c r="BN61" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="BO61" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="BP61" s="18">
+        <f t="shared" ref="BP61" si="42">BN61-BO61</f>
+        <v>1</v>
+      </c>
+      <c r="BQ61" s="18">
+        <v>2.67</v>
+      </c>
+      <c r="BR61" s="18">
+        <v>209.6</v>
+      </c>
+      <c r="BS61" s="18">
+        <v>1329681</v>
+      </c>
+      <c r="BT61" s="18">
+        <v>1.53</v>
+      </c>
+      <c r="BU61" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="BV61" s="18">
+        <v>1.07</v>
+      </c>
+      <c r="BW61" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="BX61" s="18">
+        <v>315</v>
+      </c>
+      <c r="BY61" s="18">
+        <v>1231378</v>
+      </c>
+      <c r="BZ61" s="18">
+        <v>2</v>
+      </c>
+      <c r="CA61" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="CB61" s="18">
+        <f t="shared" si="28"/>
+        <v>1.3</v>
+      </c>
+      <c r="CC61" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="CD61" s="18">
+        <v>263.3</v>
+      </c>
+      <c r="CE61" s="18">
+        <v>1200917</v>
+      </c>
+      <c r="CF61" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="CG61" s="18">
+        <v>0.41</v>
+      </c>
+      <c r="CH61" s="18">
+        <v>1.08</v>
+      </c>
+      <c r="CI61" s="18">
+        <v>1.97</v>
+      </c>
+      <c r="CJ61" s="18">
+        <v>185</v>
+      </c>
+      <c r="CK61" s="18">
+        <v>917224</v>
+      </c>
+      <c r="CL61" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="CM61" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="CN61" s="18">
+        <f t="shared" ref="CN61" si="43">CL61-CM61</f>
+        <v>1.6</v>
+      </c>
+      <c r="CO61" s="18">
+        <v>1.79</v>
+      </c>
+      <c r="CP61" s="18">
+        <v>148.80000000000001</v>
+      </c>
+      <c r="CQ61" s="18">
+        <v>947557.5</v>
+      </c>
+      <c r="CR61" s="18">
+        <v>1.65</v>
+      </c>
+      <c r="CS61" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="CT61" s="18">
+        <v>1.34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -16348,17 +16766,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
@@ -16372,8 +16790,8 @@
     <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:15" ht="16.5" customHeight="1">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="258" t="s">
         <v>66</v>
       </c>
@@ -16395,7 +16813,7 @@
       <c r="N4" s="261"/>
       <c r="O4" s="262"/>
     </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1">
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="259"/>
       <c r="C5" s="263"/>
       <c r="D5" s="264"/>
@@ -16411,7 +16829,7 @@
       <c r="N5" s="264"/>
       <c r="O5" s="265"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
+    <row r="6" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="259"/>
       <c r="C6" s="266"/>
       <c r="D6" s="267"/>
@@ -16427,7 +16845,7 @@
       <c r="N6" s="267"/>
       <c r="O6" s="268"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="255" t="s">
         <v>41</v>
       </c>
@@ -16471,7 +16889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="26.25" thickBot="1">
+    <row r="8" spans="2:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="256"/>
       <c r="C8" s="128" t="s">
         <v>7</v>
@@ -16495,7 +16913,7 @@
       <c r="N8" s="205"/>
       <c r="O8" s="215"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="102">
         <v>45490</v>
       </c>
@@ -16539,7 +16957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="103">
         <v>45491</v>
       </c>
@@ -16584,7 +17002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="103">
         <v>45492</v>
       </c>
@@ -16629,7 +17047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="103">
         <v>45493</v>
       </c>
@@ -16647,7 +17065,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="103">
         <v>45494</v>
       </c>
@@ -16665,7 +17083,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="103">
         <v>45495</v>
       </c>
@@ -16711,7 +17129,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="103">
         <v>45496</v>
       </c>
@@ -16729,7 +17147,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="103">
         <v>45497</v>
       </c>
@@ -16775,7 +17193,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="103">
         <v>45498</v>
       </c>
@@ -16821,7 +17239,7 @@
         <v>153.4</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="103">
         <v>45499</v>
       </c>
@@ -16839,7 +17257,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="103">
         <v>45500</v>
       </c>
@@ -16857,7 +17275,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="103">
         <v>45501</v>
       </c>
@@ -16875,7 +17293,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="103">
         <v>45502</v>
       </c>
@@ -16921,7 +17339,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="103">
         <v>45503</v>
       </c>
@@ -16939,7 +17357,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="103">
         <v>45504</v>
       </c>
@@ -16985,7 +17403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="103">
         <v>45505</v>
       </c>
@@ -17031,7 +17449,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="103">
         <v>45506</v>
       </c>
@@ -17077,7 +17495,7 @@
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="103">
         <v>45507</v>
       </c>
@@ -17101,7 +17519,7 @@
       <c r="N26" s="62"/>
       <c r="O26" s="71"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="103">
         <v>45508</v>
       </c>
@@ -17125,7 +17543,7 @@
       <c r="N27" s="62"/>
       <c r="O27" s="71"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="103">
         <v>45509</v>
       </c>
@@ -17149,7 +17567,7 @@
       <c r="N28" s="62"/>
       <c r="O28" s="71"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="103">
         <v>45510</v>
       </c>
@@ -17194,7 +17612,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="103">
         <v>45511</v>
       </c>
@@ -17239,7 +17657,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="103">
         <v>45512</v>
       </c>
@@ -17284,7 +17702,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="103">
         <v>45513</v>
       </c>
@@ -17329,7 +17747,7 @@
         <v>133.5</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="103">
         <v>45514</v>
       </c>
@@ -17347,7 +17765,7 @@
       <c r="N33" s="62"/>
       <c r="O33" s="71"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="103">
         <v>45515</v>
       </c>
@@ -17365,7 +17783,7 @@
       <c r="N34" s="62"/>
       <c r="O34" s="71"/>
     </row>
-    <row r="35" spans="2:15" ht="15.75" thickBot="1">
+    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="104">
         <v>45516</v>
       </c>
@@ -17410,7 +17828,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="103">
         <v>45517</v>
       </c>
@@ -17455,7 +17873,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1">
+    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="104">
         <v>45518</v>
       </c>
@@ -17473,7 +17891,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="15"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="103">
         <v>45519</v>
       </c>
@@ -17518,7 +17936,7 @@
         <v>132.69999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="15.75" thickBot="1">
+    <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="104">
         <v>45520</v>
       </c>
@@ -17563,7 +17981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="103">
         <v>45521</v>
       </c>
@@ -17581,7 +17999,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1">
+    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="104">
         <v>45522</v>
       </c>
@@ -17599,7 +18017,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="15"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="103">
         <v>45523</v>
       </c>
@@ -17645,7 +18063,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="15.75" thickBot="1">
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="104">
         <v>45524</v>
       </c>
@@ -17663,7 +18081,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="15"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="103">
         <v>45525</v>
       </c>
@@ -17681,7 +18099,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="15"/>
     </row>
-    <row r="45" spans="2:15" ht="15.75" thickBot="1">
+    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="104">
         <v>45526</v>
       </c>
@@ -17726,7 +18144,7 @@
         <v>131.69999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="103">
         <v>45527</v>
       </c>
@@ -17771,7 +18189,7 @@
         <v>136.4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="15.75" thickBot="1">
+    <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="104">
         <v>45528</v>
       </c>
@@ -17789,7 +18207,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="103">
         <v>45529</v>
       </c>
@@ -17807,7 +18225,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="2:15" ht="15.75" thickBot="1">
+    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="104">
         <v>45530</v>
       </c>
@@ -17852,7 +18270,7 @@
         <v>116.2</v>
       </c>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="103">
         <v>45531</v>
       </c>
@@ -17896,7 +18314,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="56">
         <v>45532</v>
       </c>
@@ -17941,7 +18359,7 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="56">
         <v>45533</v>
       </c>
@@ -17986,7 +18404,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="56">
         <v>45534</v>
       </c>
@@ -18031,7 +18449,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="56">
         <v>45535</v>
       </c>
@@ -18049,7 +18467,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="56">
         <v>45536</v>
       </c>
@@ -18067,7 +18485,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="56">
         <v>45537</v>
       </c>
@@ -18112,7 +18530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="56">
         <v>45538</v>
       </c>
@@ -18157,7 +18575,7 @@
         <v>138.30000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="56">
         <v>45539</v>
       </c>
@@ -18202,7 +18620,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="56">
         <v>45540</v>
       </c>
@@ -18247,7 +18665,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="56">
         <v>45541</v>
       </c>
@@ -18292,23 +18710,85 @@
         <v>143.80000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="56">
         <v>45542</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
+      <c r="C61" s="316"/>
+      <c r="D61" s="316"/>
+      <c r="E61" s="316"/>
+      <c r="F61" s="316"/>
+      <c r="G61" s="316"/>
+      <c r="H61" s="316"/>
+      <c r="I61" s="316"/>
+      <c r="J61" s="316"/>
+      <c r="K61" s="316"/>
+      <c r="L61" s="316"/>
+      <c r="M61" s="316"/>
+      <c r="N61" s="316"/>
+      <c r="O61" s="316"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="56">
+        <v>45543</v>
+      </c>
+      <c r="C62" s="316"/>
+      <c r="D62" s="316"/>
+      <c r="E62" s="316"/>
+      <c r="F62" s="316"/>
+      <c r="G62" s="316"/>
+      <c r="H62" s="316"/>
+      <c r="I62" s="316"/>
+      <c r="J62" s="316"/>
+      <c r="K62" s="316"/>
+      <c r="L62" s="316"/>
+      <c r="M62" s="316"/>
+      <c r="N62" s="316"/>
+      <c r="O62" s="316"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="56">
+        <v>45544</v>
+      </c>
+      <c r="C63" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="D63" s="18">
+        <v>3.6</v>
+      </c>
+      <c r="E63" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="F63" s="18">
+        <v>7.94</v>
+      </c>
+      <c r="G63" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H63" s="18">
+        <v>138</v>
+      </c>
+      <c r="I63" s="18">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J63" s="18">
+        <v>4.18</v>
+      </c>
+      <c r="K63" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="L63" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="M63" s="18">
+        <v>8.02</v>
+      </c>
+      <c r="N63" s="18">
+        <v>41.2</v>
+      </c>
+      <c r="O63" s="18">
+        <v>133.1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -18332,17 +18812,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:BN59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:BN61"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="AP35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BE66" sqref="BE66"/>
+      <selection pane="bottomRight" activeCell="BM62" sqref="BM62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
@@ -18350,8 +18830,8 @@
     <col min="66" max="66" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:66" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:66" ht="15.75" thickBot="1">
+    <row r="1" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="298" t="s">
         <v>27</v>
       </c>
@@ -18433,7 +18913,7 @@
       <c r="BM2" s="286"/>
       <c r="BN2" s="297"/>
     </row>
-    <row r="3" spans="2:66">
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B3" s="178" t="s">
         <v>3</v>
       </c>
@@ -18550,7 +19030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:66" ht="15.75" thickBot="1">
+    <row r="4" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="212"/>
       <c r="C4" s="300"/>
       <c r="D4" s="287"/>
@@ -18617,7 +19097,7 @@
       <c r="BM4" s="283"/>
       <c r="BN4" s="285"/>
     </row>
-    <row r="5" spans="2:66">
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B5" s="213" t="s">
         <v>4</v>
       </c>
@@ -18798,7 +19278,7 @@
       </c>
       <c r="BN5" s="285"/>
     </row>
-    <row r="6" spans="2:66" ht="15.75" thickBot="1">
+    <row r="6" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="213"/>
       <c r="C6" s="291"/>
       <c r="D6" s="270"/>
@@ -18865,7 +19345,7 @@
       <c r="BM6" s="201"/>
       <c r="BN6" s="285"/>
     </row>
-    <row r="7" spans="2:66" ht="45">
+    <row r="7" spans="2:66" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="102">
         <v>45490</v>
       </c>
@@ -18990,7 +19470,7 @@
       <c r="BM7" s="18"/>
       <c r="BN7" s="15"/>
     </row>
-    <row r="8" spans="2:66">
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B8" s="103">
         <v>45491</v>
       </c>
@@ -19153,7 +19633,7 @@
       </c>
       <c r="BN8" s="15"/>
     </row>
-    <row r="9" spans="2:66" ht="15.75" thickBot="1">
+    <row r="9" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="104">
         <v>45492</v>
       </c>
@@ -19318,7 +19798,7 @@
       </c>
       <c r="BN9" s="15"/>
     </row>
-    <row r="10" spans="2:66" ht="15.75" thickBot="1">
+    <row r="10" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="104">
         <v>45493</v>
       </c>
@@ -19387,7 +19867,7 @@
       <c r="BM10" s="18"/>
       <c r="BN10" s="15"/>
     </row>
-    <row r="11" spans="2:66" ht="15.75" thickBot="1">
+    <row r="11" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="104">
         <v>45494</v>
       </c>
@@ -19456,7 +19936,7 @@
       <c r="BM11" s="18"/>
       <c r="BN11" s="15"/>
     </row>
-    <row r="12" spans="2:66">
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="106">
         <v>45495</v>
       </c>
@@ -19621,7 +20101,7 @@
       </c>
       <c r="BN12" s="15"/>
     </row>
-    <row r="13" spans="2:66">
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="106">
         <v>45496</v>
       </c>
@@ -19690,7 +20170,7 @@
       <c r="BM13" s="18"/>
       <c r="BN13" s="15"/>
     </row>
-    <row r="14" spans="2:66">
+    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B14" s="103">
         <v>45497</v>
       </c>
@@ -19855,7 +20335,7 @@
       </c>
       <c r="BN14" s="15"/>
     </row>
-    <row r="15" spans="2:66">
+    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B15" s="103">
         <v>45498</v>
       </c>
@@ -20036,7 +20516,7 @@
       </c>
       <c r="BN15" s="15"/>
     </row>
-    <row r="16" spans="2:66">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="103">
         <v>45499</v>
       </c>
@@ -20105,7 +20585,7 @@
       <c r="BM16" s="18"/>
       <c r="BN16" s="15"/>
     </row>
-    <row r="17" spans="2:66">
+    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B17" s="103">
         <v>45500</v>
       </c>
@@ -20174,7 +20654,7 @@
       <c r="BM17" s="18"/>
       <c r="BN17" s="15"/>
     </row>
-    <row r="18" spans="2:66">
+    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B18" s="103">
         <v>45501</v>
       </c>
@@ -20243,7 +20723,7 @@
       <c r="BM18" s="18"/>
       <c r="BN18" s="15"/>
     </row>
-    <row r="19" spans="2:66">
+    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B19" s="103">
         <v>45502</v>
       </c>
@@ -20424,7 +20904,7 @@
       </c>
       <c r="BN19" s="15"/>
     </row>
-    <row r="20" spans="2:66">
+    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B20" s="103">
         <v>45503</v>
       </c>
@@ -20493,7 +20973,7 @@
       <c r="BM20" s="91"/>
       <c r="BN20" s="99"/>
     </row>
-    <row r="21" spans="2:66" ht="15.75" thickBot="1">
+    <row r="21" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="104">
         <v>45504</v>
       </c>
@@ -20668,7 +21148,7 @@
       </c>
       <c r="BN21" s="16"/>
     </row>
-    <row r="22" spans="2:66">
+    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B22" s="44">
         <v>45505</v>
       </c>
@@ -20849,7 +21329,7 @@
       </c>
       <c r="BN22" s="108"/>
     </row>
-    <row r="23" spans="2:66">
+    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>45506</v>
       </c>
@@ -21032,7 +21512,7 @@
       </c>
       <c r="BN23" s="62"/>
     </row>
-    <row r="24" spans="2:66">
+    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>45507</v>
       </c>
@@ -21101,7 +21581,7 @@
       <c r="BM24" s="62"/>
       <c r="BN24" s="62"/>
     </row>
-    <row r="25" spans="2:66">
+    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>45508</v>
       </c>
@@ -21170,7 +21650,7 @@
       <c r="BM25" s="62"/>
       <c r="BN25" s="62"/>
     </row>
-    <row r="26" spans="2:66">
+    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>45509</v>
       </c>
@@ -21239,7 +21719,7 @@
       <c r="BM26" s="62"/>
       <c r="BN26" s="62"/>
     </row>
-    <row r="27" spans="2:66">
+    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B27" s="56">
         <v>45510</v>
       </c>
@@ -21422,7 +21902,7 @@
       </c>
       <c r="BN27" s="18"/>
     </row>
-    <row r="28" spans="2:66">
+    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>45511</v>
       </c>
@@ -21605,7 +22085,7 @@
       </c>
       <c r="BN28" s="18"/>
     </row>
-    <row r="29" spans="2:66">
+    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B29" s="56">
         <v>45512</v>
       </c>
@@ -21788,7 +22268,7 @@
       </c>
       <c r="BN29" s="18"/>
     </row>
-    <row r="30" spans="2:66">
+    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>45513</v>
       </c>
@@ -21969,7 +22449,7 @@
       </c>
       <c r="BN30" s="62"/>
     </row>
-    <row r="31" spans="2:66">
+    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>45514</v>
       </c>
@@ -22054,7 +22534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:66">
+    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>45515</v>
       </c>
@@ -22139,7 +22619,7 @@
       <c r="BM32" s="62"/>
       <c r="BN32" s="62"/>
     </row>
-    <row r="33" spans="2:66">
+    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>45516</v>
       </c>
@@ -22322,7 +22802,7 @@
       </c>
       <c r="BN33" s="18"/>
     </row>
-    <row r="34" spans="2:66">
+    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>45517</v>
       </c>
@@ -22503,7 +22983,7 @@
       </c>
       <c r="BN34" s="18"/>
     </row>
-    <row r="35" spans="2:66">
+    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>45518</v>
       </c>
@@ -22572,7 +23052,7 @@
       <c r="BM35" s="18"/>
       <c r="BN35" s="18"/>
     </row>
-    <row r="36" spans="2:66">
+    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>45519</v>
       </c>
@@ -22755,7 +23235,7 @@
       </c>
       <c r="BN36" s="18"/>
     </row>
-    <row r="37" spans="2:66">
+    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>45520</v>
       </c>
@@ -22936,7 +23416,7 @@
       </c>
       <c r="BN37" s="18"/>
     </row>
-    <row r="38" spans="2:66">
+    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>45521</v>
       </c>
@@ -23005,7 +23485,7 @@
       <c r="BM38" s="18"/>
       <c r="BN38" s="18"/>
     </row>
-    <row r="39" spans="2:66">
+    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>45522</v>
       </c>
@@ -23074,7 +23554,7 @@
       <c r="BM39" s="18"/>
       <c r="BN39" s="18"/>
     </row>
-    <row r="40" spans="2:66">
+    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>45523</v>
       </c>
@@ -23255,7 +23735,7 @@
       </c>
       <c r="BN40" s="18"/>
     </row>
-    <row r="41" spans="2:66">
+    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>45524</v>
       </c>
@@ -23324,7 +23804,7 @@
       <c r="BM41" s="62"/>
       <c r="BN41" s="62"/>
     </row>
-    <row r="42" spans="2:66">
+    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>45525</v>
       </c>
@@ -23393,7 +23873,7 @@
       <c r="BM42" s="18"/>
       <c r="BN42" s="18"/>
     </row>
-    <row r="43" spans="2:66">
+    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>45526</v>
       </c>
@@ -23574,7 +24054,7 @@
       </c>
       <c r="BN43" s="18"/>
     </row>
-    <row r="44" spans="2:66">
+    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>45527</v>
       </c>
@@ -23757,7 +24237,7 @@
       </c>
       <c r="BN44" s="18"/>
     </row>
-    <row r="45" spans="2:66">
+    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>45528</v>
       </c>
@@ -23826,7 +24306,7 @@
       <c r="BM45" s="18"/>
       <c r="BN45" s="18"/>
     </row>
-    <row r="46" spans="2:66">
+    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>45529</v>
       </c>
@@ -23895,7 +24375,7 @@
       <c r="BM46" s="18"/>
       <c r="BN46" s="18"/>
     </row>
-    <row r="47" spans="2:66">
+    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>45530</v>
       </c>
@@ -24076,7 +24556,7 @@
       </c>
       <c r="BN47" s="18"/>
     </row>
-    <row r="48" spans="2:66">
+    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>45531</v>
       </c>
@@ -24251,7 +24731,7 @@
       </c>
       <c r="BN48" s="18"/>
     </row>
-    <row r="49" spans="2:66">
+    <row r="49" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>45532</v>
       </c>
@@ -24421,7 +24901,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="2:66">
+    <row r="50" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>45533</v>
       </c>
@@ -24598,7 +25078,7 @@
       </c>
       <c r="BN50" s="18"/>
     </row>
-    <row r="51" spans="2:66">
+    <row r="51" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>45534</v>
       </c>
@@ -24777,7 +25257,7 @@
       </c>
       <c r="BN51" s="18"/>
     </row>
-    <row r="52" spans="2:66">
+    <row r="52" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>45535</v>
       </c>
@@ -24862,7 +25342,7 @@
       <c r="BM52" s="18"/>
       <c r="BN52" s="18"/>
     </row>
-    <row r="53" spans="2:66">
+    <row r="53" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>45536</v>
       </c>
@@ -24947,7 +25427,7 @@
       <c r="BM53" s="18"/>
       <c r="BN53" s="18"/>
     </row>
-    <row r="54" spans="2:66">
+    <row r="54" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>45537</v>
       </c>
@@ -25126,7 +25606,7 @@
       </c>
       <c r="BN54" s="18"/>
     </row>
-    <row r="55" spans="2:66" ht="23.25">
+    <row r="55" spans="2:66" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>45538</v>
       </c>
@@ -25311,7 +25791,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:66" ht="22.5">
+    <row r="56" spans="2:66" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>45539</v>
       </c>
@@ -25490,7 +25970,7 @@
       </c>
       <c r="BN56" s="18"/>
     </row>
-    <row r="57" spans="2:66" ht="22.5">
+    <row r="57" spans="2:66" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>45540</v>
       </c>
@@ -25669,7 +26149,7 @@
       </c>
       <c r="BN57" s="18"/>
     </row>
-    <row r="58" spans="2:66">
+    <row r="58" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>45541</v>
       </c>
@@ -25846,7 +26326,7 @@
       </c>
       <c r="BN58" s="18"/>
     </row>
-    <row r="59" spans="2:66">
+    <row r="59" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>45542</v>
       </c>
@@ -25914,6 +26394,252 @@
       <c r="BL59" s="18"/>
       <c r="BM59" s="18"/>
       <c r="BN59" s="18"/>
+    </row>
+    <row r="60" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B60" s="14">
+        <v>45543</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
+      <c r="AA60" s="18"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="18"/>
+      <c r="AD60" s="18"/>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="18"/>
+      <c r="AI60" s="18"/>
+      <c r="AJ60" s="18"/>
+      <c r="AK60" s="18"/>
+      <c r="AL60" s="18"/>
+      <c r="AM60" s="18"/>
+      <c r="AN60" s="18"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="18"/>
+      <c r="AQ60" s="18"/>
+      <c r="AR60" s="18"/>
+      <c r="AS60" s="18"/>
+      <c r="AT60" s="18"/>
+      <c r="AU60" s="18"/>
+      <c r="AV60" s="18"/>
+      <c r="AW60" s="18"/>
+      <c r="AX60" s="18"/>
+      <c r="AY60" s="18"/>
+      <c r="AZ60" s="18"/>
+      <c r="BA60" s="18"/>
+      <c r="BB60" s="18"/>
+      <c r="BC60" s="18"/>
+      <c r="BD60" s="18"/>
+      <c r="BE60" s="18"/>
+      <c r="BF60" s="18"/>
+      <c r="BG60" s="18"/>
+      <c r="BH60" s="18"/>
+      <c r="BI60" s="18"/>
+      <c r="BJ60" s="18"/>
+      <c r="BK60" s="18"/>
+      <c r="BL60" s="18"/>
+      <c r="BM60" s="18"/>
+      <c r="BN60" s="18"/>
+    </row>
+    <row r="61" spans="2:66" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
+        <v>45544</v>
+      </c>
+      <c r="C61" s="18">
+        <v>6.81</v>
+      </c>
+      <c r="D61" s="18">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="E61" s="18">
+        <v>80.540000000000006</v>
+      </c>
+      <c r="F61" s="18">
+        <v>548125</v>
+      </c>
+      <c r="G61" s="18">
+        <v>2.79</v>
+      </c>
+      <c r="H61" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="I61" s="18">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18">
+        <v>6.9</v>
+      </c>
+      <c r="L61" s="18">
+        <v>229.7</v>
+      </c>
+      <c r="M61" s="18">
+        <v>94.28</v>
+      </c>
+      <c r="N61" s="18">
+        <v>555630</v>
+      </c>
+      <c r="O61" s="18">
+        <v>2.65</v>
+      </c>
+      <c r="P61" s="18">
+        <v>6.57</v>
+      </c>
+      <c r="Q61" s="18">
+        <v>221.47</v>
+      </c>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18">
+        <v>6.83</v>
+      </c>
+      <c r="T61" s="18">
+        <v>259.5</v>
+      </c>
+      <c r="U61" s="18">
+        <v>88.22</v>
+      </c>
+      <c r="V61" s="18">
+        <v>575023</v>
+      </c>
+      <c r="W61" s="18">
+        <v>2.63</v>
+      </c>
+      <c r="X61" s="18">
+        <v>6.29</v>
+      </c>
+      <c r="Y61" s="18">
+        <v>230.5</v>
+      </c>
+      <c r="Z61" s="18"/>
+      <c r="AA61" s="18">
+        <v>6.53</v>
+      </c>
+      <c r="AB61" s="18">
+        <v>125.7</v>
+      </c>
+      <c r="AC61" s="18">
+        <v>92.02</v>
+      </c>
+      <c r="AD61" s="18">
+        <v>529106</v>
+      </c>
+      <c r="AE61" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="AF61" s="18">
+        <v>6.21</v>
+      </c>
+      <c r="AG61" s="18">
+        <v>214</v>
+      </c>
+      <c r="AH61" s="18"/>
+      <c r="AI61" s="18">
+        <v>6.42</v>
+      </c>
+      <c r="AJ61" s="18">
+        <v>308</v>
+      </c>
+      <c r="AK61" s="18">
+        <v>87.1</v>
+      </c>
+      <c r="AL61" s="18">
+        <v>543826</v>
+      </c>
+      <c r="AM61" s="18">
+        <v>2.67</v>
+      </c>
+      <c r="AN61" s="18">
+        <v>6.57</v>
+      </c>
+      <c r="AO61" s="18">
+        <v>300.79000000000002</v>
+      </c>
+      <c r="AP61" s="18"/>
+      <c r="AQ61" s="18">
+        <v>6.65</v>
+      </c>
+      <c r="AR61" s="18">
+        <v>293</v>
+      </c>
+      <c r="AS61" s="18">
+        <v>86.31</v>
+      </c>
+      <c r="AT61" s="18">
+        <v>624776</v>
+      </c>
+      <c r="AU61" s="18"/>
+      <c r="AV61" s="18">
+        <v>6.59</v>
+      </c>
+      <c r="AW61" s="18">
+        <v>257.2</v>
+      </c>
+      <c r="AX61" s="18"/>
+      <c r="AY61" s="18">
+        <v>6.59</v>
+      </c>
+      <c r="AZ61" s="18">
+        <v>248.7</v>
+      </c>
+      <c r="BA61" s="18">
+        <v>83.06</v>
+      </c>
+      <c r="BB61" s="18">
+        <v>560257</v>
+      </c>
+      <c r="BC61" s="18"/>
+      <c r="BD61" s="18">
+        <v>6.57</v>
+      </c>
+      <c r="BE61" s="18">
+        <v>177.9</v>
+      </c>
+      <c r="BF61" s="18"/>
+      <c r="BG61" s="18">
+        <v>6.39</v>
+      </c>
+      <c r="BH61" s="18">
+        <v>311</v>
+      </c>
+      <c r="BI61" s="18">
+        <v>84</v>
+      </c>
+      <c r="BJ61" s="18">
+        <v>547261</v>
+      </c>
+      <c r="BK61" s="18">
+        <v>2.39</v>
+      </c>
+      <c r="BL61" s="18">
+        <v>6.34</v>
+      </c>
+      <c r="BM61" s="18">
+        <v>231.07</v>
+      </c>
+      <c r="BN61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -26015,24 +26741,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AE59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:AE61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="N31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AD66" sqref="AD66"/>
+      <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -26054,9 +26780,9 @@
     <col min="31" max="31" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="14.25" customHeight="1"/>
-    <row r="2" spans="2:31" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:31" ht="15.75" customHeight="1">
+    <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="178" t="s">
         <v>3</v>
       </c>
@@ -26100,7 +26826,7 @@
       </c>
       <c r="AE3" s="218"/>
     </row>
-    <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="212"/>
       <c r="C4" s="232"/>
       <c r="D4" s="233"/>
@@ -26132,7 +26858,7 @@
       <c r="AD4" s="240"/>
       <c r="AE4" s="221"/>
     </row>
-    <row r="5" spans="2:31">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="53" t="s">
         <v>76</v>
       </c>
@@ -26196,7 +26922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="15.75" thickBot="1">
+    <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="54"/>
       <c r="C6" s="66" t="s">
         <v>69</v>
@@ -26266,7 +26992,7 @@
       <c r="AD6" s="305"/>
       <c r="AE6" s="304"/>
     </row>
-    <row r="7" spans="2:31">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="27">
         <v>45490</v>
       </c>
@@ -26346,7 +27072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="25.5">
+    <row r="8" spans="2:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B8" s="28">
         <v>45491</v>
       </c>
@@ -26430,7 +27156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:31">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>45492</v>
       </c>
@@ -26514,7 +27240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:31">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>45493</v>
       </c>
@@ -26548,7 +27274,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="63"/>
     </row>
-    <row r="11" spans="2:31">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="28">
         <v>45494</v>
       </c>
@@ -26582,7 +27308,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="63"/>
     </row>
-    <row r="12" spans="2:31">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>45495</v>
       </c>
@@ -26666,7 +27392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:31">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="28">
         <v>45496</v>
       </c>
@@ -26700,7 +27426,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="63"/>
     </row>
-    <row r="14" spans="2:31">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
         <v>45497</v>
       </c>
@@ -26788,7 +27514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:31">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
         <v>45498</v>
       </c>
@@ -26876,7 +27602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:31">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
         <v>45499</v>
       </c>
@@ -26910,7 +27636,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="63"/>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="28">
         <v>45500</v>
       </c>
@@ -26944,7 +27670,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="63"/>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="28">
         <v>45501</v>
       </c>
@@ -26978,7 +27704,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="63"/>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>45502</v>
       </c>
@@ -27066,7 +27792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:31">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="28">
         <v>45503</v>
       </c>
@@ -27100,7 +27826,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="63"/>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="28">
         <v>45504</v>
       </c>
@@ -27188,7 +27914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:31">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
         <v>45505</v>
       </c>
@@ -27276,7 +28002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:31">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="28">
         <v>45506</v>
       </c>
@@ -27364,7 +28090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:31">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <v>45507</v>
       </c>
@@ -27406,7 +28132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
         <v>45508</v>
       </c>
@@ -27448,7 +28174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:31">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="28">
         <v>45509</v>
       </c>
@@ -27504,7 +28230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:31">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="28">
         <v>45510</v>
       </c>
@@ -27596,7 +28322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:31">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="28">
         <v>45511</v>
       </c>
@@ -27688,7 +28414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:31">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="56">
         <v>45512</v>
       </c>
@@ -27780,7 +28506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:31">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="56">
         <v>45513</v>
       </c>
@@ -27872,7 +28598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" s="56">
         <v>45514</v>
       </c>
@@ -27906,7 +28632,7 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="62"/>
     </row>
-    <row r="32" spans="2:31">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="56">
         <v>45515</v>
       </c>
@@ -27940,7 +28666,7 @@
       <c r="AD32" s="62"/>
       <c r="AE32" s="62"/>
     </row>
-    <row r="33" spans="2:31">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="56">
         <v>45516</v>
       </c>
@@ -28030,7 +28756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:31">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="56">
         <v>45517</v>
       </c>
@@ -28122,7 +28848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:31">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" s="56">
         <v>45518</v>
       </c>
@@ -28156,7 +28882,7 @@
       <c r="AD35" s="18"/>
       <c r="AE35" s="18"/>
     </row>
-    <row r="36" spans="2:31">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="56">
         <v>45519</v>
       </c>
@@ -28248,7 +28974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:31">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="56">
         <v>45520</v>
       </c>
@@ -28336,7 +29062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:31">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="56">
         <v>45521</v>
       </c>
@@ -28370,7 +29096,7 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="62"/>
     </row>
-    <row r="39" spans="2:31">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" s="56">
         <v>45522</v>
       </c>
@@ -28404,7 +29130,7 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="62"/>
     </row>
-    <row r="40" spans="2:31">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="56">
         <v>45523</v>
       </c>
@@ -28496,7 +29222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:31">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" s="56">
         <v>45524</v>
       </c>
@@ -28530,7 +29256,7 @@
       <c r="AD41" s="18"/>
       <c r="AE41" s="18"/>
     </row>
-    <row r="42" spans="2:31">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="56">
         <v>45525</v>
       </c>
@@ -28564,7 +29290,7 @@
       <c r="AD42" s="18"/>
       <c r="AE42" s="18"/>
     </row>
-    <row r="43" spans="2:31">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" s="56">
         <v>45526</v>
       </c>
@@ -28656,7 +29382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:31">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" s="56">
         <v>45527</v>
       </c>
@@ -28748,7 +29474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:31">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="56">
         <v>45528</v>
       </c>
@@ -28782,7 +29508,7 @@
       <c r="AD45" s="4"/>
       <c r="AE45" s="63"/>
     </row>
-    <row r="46" spans="2:31">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="56">
         <v>45529</v>
       </c>
@@ -28816,7 +29542,7 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="63"/>
     </row>
-    <row r="47" spans="2:31">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="56">
         <v>45530</v>
       </c>
@@ -28908,7 +29634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:31">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" s="56">
         <v>45531</v>
       </c>
@@ -29000,7 +29726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:31">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="56">
         <v>45532</v>
       </c>
@@ -29092,7 +29818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:31">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="56">
         <v>45533</v>
       </c>
@@ -29184,7 +29910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:31">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="56">
         <v>45534</v>
       </c>
@@ -29276,7 +30002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:31">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" s="56">
         <v>45535</v>
       </c>
@@ -29310,7 +30036,7 @@
       <c r="AD52" s="18"/>
       <c r="AE52" s="18"/>
     </row>
-    <row r="53" spans="2:31">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" s="56">
         <v>45536</v>
       </c>
@@ -29344,7 +30070,7 @@
       <c r="AD53" s="18"/>
       <c r="AE53" s="18"/>
     </row>
-    <row r="54" spans="2:31">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" s="56">
         <v>45537</v>
       </c>
@@ -29436,7 +30162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:31">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" s="56">
         <v>45538</v>
       </c>
@@ -29528,7 +30254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:31">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" s="56">
         <v>45539</v>
       </c>
@@ -29620,7 +30346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:31">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" s="56">
         <v>45540</v>
       </c>
@@ -29712,7 +30438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:31">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="56">
         <v>45541</v>
       </c>
@@ -29804,39 +30530,165 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:31">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="56">
         <v>45542</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="18"/>
+      <c r="C59" s="316"/>
+      <c r="D59" s="316"/>
+      <c r="E59" s="316"/>
+      <c r="F59" s="316"/>
+      <c r="G59" s="316"/>
+      <c r="H59" s="316"/>
+      <c r="I59" s="316"/>
+      <c r="J59" s="316"/>
+      <c r="K59" s="317"/>
+      <c r="L59" s="316"/>
+      <c r="M59" s="316"/>
+      <c r="N59" s="316"/>
+      <c r="O59" s="318"/>
+      <c r="P59" s="316"/>
+      <c r="Q59" s="316"/>
+      <c r="R59" s="316"/>
+      <c r="S59" s="316"/>
+      <c r="T59" s="316"/>
+      <c r="U59" s="316"/>
+      <c r="V59" s="317"/>
+      <c r="W59" s="316"/>
+      <c r="X59" s="316"/>
+      <c r="Y59" s="316"/>
+      <c r="Z59" s="319"/>
+      <c r="AA59" s="316"/>
+      <c r="AB59" s="316"/>
+      <c r="AC59" s="320"/>
+      <c r="AD59" s="321"/>
+      <c r="AE59" s="319"/>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B60" s="56">
+        <v>45543</v>
+      </c>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="316"/>
+      <c r="I60" s="316"/>
+      <c r="J60" s="316"/>
+      <c r="K60" s="316"/>
+      <c r="L60" s="316"/>
+      <c r="M60" s="316"/>
+      <c r="N60" s="316"/>
+      <c r="O60" s="316"/>
+      <c r="P60" s="316"/>
+      <c r="Q60" s="316"/>
+      <c r="R60" s="316"/>
+      <c r="S60" s="316"/>
+      <c r="T60" s="316"/>
+      <c r="U60" s="316"/>
+      <c r="V60" s="316"/>
+      <c r="W60" s="316"/>
+      <c r="X60" s="316"/>
+      <c r="Y60" s="316"/>
+      <c r="Z60" s="316"/>
+      <c r="AA60" s="316"/>
+      <c r="AB60" s="316"/>
+      <c r="AC60" s="316"/>
+      <c r="AD60" s="316"/>
+      <c r="AE60" s="316"/>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B61" s="56">
+        <v>45544</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="18">
+        <v>31</v>
+      </c>
+      <c r="K61" s="96">
+        <v>0.251</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N61" s="18">
+        <v>69</v>
+      </c>
+      <c r="O61" s="95">
+        <v>1.06</v>
+      </c>
+      <c r="P61" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="R61" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="S61" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="T61" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="U61" s="18">
+        <v>62</v>
+      </c>
+      <c r="V61" s="96">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="W61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="X61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z61" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB61" s="18">
+        <v>61</v>
+      </c>
+      <c r="AC61" s="159">
+        <v>1.016</v>
+      </c>
+      <c r="AD61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE61" s="63" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -29870,20 +30722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A51:R53"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="157" t="s">
         <v>161</v>
       </c>
@@ -29939,7 +30791,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="155">
         <v>45490</v>
       </c>
@@ -30012,7 +30864,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="155">
         <v>45491</v>
       </c>
@@ -30085,7 +30937,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="155">
         <v>45492</v>
       </c>
@@ -30158,7 +31010,7 @@
         <v>1682.1200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="155">
         <v>45493</v>
       </c>
@@ -30231,7 +31083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="155">
         <v>45494</v>
       </c>
@@ -30304,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="155">
         <v>45495</v>
       </c>
@@ -30377,7 +31229,7 @@
         <v>1698.98</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="155">
         <v>45496</v>
       </c>
@@ -30450,7 +31302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="155">
         <v>45497</v>
       </c>
@@ -30523,7 +31375,7 @@
         <v>12.479999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="155">
         <v>45498</v>
       </c>
@@ -30596,7 +31448,7 @@
         <v>845.46</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="155">
         <v>45499</v>
       </c>
@@ -30669,7 +31521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="155">
         <v>45500</v>
       </c>
@@ -30742,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="155">
         <v>45501</v>
       </c>
@@ -30815,7 +31667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="155">
         <v>45502</v>
       </c>
@@ -30888,7 +31740,7 @@
         <v>1570.1200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="155">
         <v>45503</v>
       </c>
@@ -30961,7 +31813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="155">
         <v>45504</v>
       </c>
@@ -31034,7 +31886,7 @@
         <v>1315.23</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="155">
         <v>45505</v>
       </c>
@@ -31107,7 +31959,7 @@
         <v>1308.26</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="155">
         <v>45506</v>
       </c>
@@ -31180,7 +32032,7 @@
         <v>2342.5299999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="155">
         <v>45507</v>
       </c>
@@ -31253,7 +32105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="155">
         <v>45508</v>
       </c>
@@ -31326,7 +32178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="155">
         <v>45509</v>
       </c>
@@ -31399,7 +32251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="155">
         <v>45510</v>
       </c>
@@ -31472,7 +32324,7 @@
         <v>2280.41</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="155">
         <v>45511</v>
       </c>
@@ -31545,7 +32397,7 @@
         <v>2272.2799999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="155">
         <v>45512</v>
       </c>
@@ -31618,7 +32470,7 @@
         <v>2221.4499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="155">
         <v>45513</v>
       </c>
@@ -31691,7 +32543,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="155">
         <v>45514</v>
       </c>
@@ -31764,7 +32616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="155">
         <v>45515</v>
       </c>
@@ -31837,7 +32689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="155">
         <v>45516</v>
       </c>
@@ -31910,7 +32762,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="155">
         <v>45517</v>
       </c>
@@ -31983,7 +32835,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="155">
         <v>45518</v>
       </c>
@@ -32056,7 +32908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="155">
         <v>45519</v>
       </c>
@@ -32129,7 +32981,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="155">
         <v>45520</v>
       </c>
@@ -32202,7 +33054,7 @@
         <v>1549.3</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="155">
         <v>45521</v>
       </c>
@@ -32275,7 +33127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="155">
         <v>45522</v>
       </c>
@@ -32348,7 +33200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="155">
         <v>45523</v>
       </c>
@@ -32421,7 +33273,7 @@
         <v>2026.7300000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="155">
         <v>45524</v>
       </c>
@@ -32494,7 +33346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="155">
         <v>45525</v>
       </c>
@@ -32567,7 +33419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="155">
         <v>45526</v>
       </c>
@@ -32640,7 +33492,7 @@
         <v>2349.94</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="155">
         <v>45527</v>
       </c>
@@ -32713,7 +33565,7 @@
         <v>2092.9300000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="155">
         <v>45528</v>
       </c>
@@ -32786,7 +33638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="155">
         <v>45529</v>
       </c>
@@ -32859,7 +33711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="155">
         <v>45530</v>
       </c>
@@ -32932,7 +33784,7 @@
         <v>2078.17</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="155">
         <v>45531</v>
       </c>
@@ -33005,7 +33857,7 @@
         <v>1782.1000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="155">
         <v>45532</v>
       </c>
@@ -33078,7 +33930,7 @@
         <v>1883.1499999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="155">
         <v>45533</v>
       </c>
@@ -33151,7 +34003,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="155">
         <v>45534</v>
       </c>
@@ -33224,7 +34076,7 @@
         <v>1890.97</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="155">
         <v>45535</v>
       </c>
@@ -33297,7 +34149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="155">
         <v>45536</v>
       </c>
@@ -33370,7 +34222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="155">
         <v>45537</v>
       </c>
@@ -33443,7 +34295,7 @@
         <v>1841.83</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="155">
         <v>45538</v>
       </c>
@@ -33516,7 +34368,7 @@
         <v>1959.4199999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="155">
         <v>45539</v>
       </c>
@@ -33589,7 +34441,7 @@
         <v>1776.77</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="155">
         <v>45540</v>
       </c>
@@ -33658,81 +34510,8 @@
         <v>1.56</v>
       </c>
       <c r="R52" s="156">
-        <f t="shared" ref="R52:R53" si="4">SUM(B52,D52,F52,H52,J52,L52,N52,P52)</f>
+        <f t="shared" ref="R52" si="4">SUM(B52,D52,F52,H52,J52,L52,N52,P52)</f>
         <v>1783.93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="155">
-        <v>45541</v>
-      </c>
-      <c r="B53" s="156">
-        <f>'ULTRA FILTRATION'!J58</f>
-        <v>236</v>
-      </c>
-      <c r="C53">
-        <f>'ULTRA FILTRATION'!N58</f>
-        <v>1.1600000000000001</v>
-      </c>
-      <c r="D53" s="156">
-        <f>'ULTRA FILTRATION'!V58</f>
-        <v>227</v>
-      </c>
-      <c r="E53">
-        <f>'ULTRA FILTRATION'!Z58</f>
-        <v>1.18</v>
-      </c>
-      <c r="F53" s="156">
-        <f>'ULTRA FILTRATION'!AH58</f>
-        <v>159</v>
-      </c>
-      <c r="G53">
-        <f>'ULTRA FILTRATION'!AL58</f>
-        <v>1.3</v>
-      </c>
-      <c r="H53" s="156">
-        <f>'ULTRA FILTRATION'!AT58</f>
-        <v>203.8</v>
-      </c>
-      <c r="I53">
-        <f>'ULTRA FILTRATION'!AX58</f>
-        <v>1.26</v>
-      </c>
-      <c r="J53" s="156">
-        <f>'ULTRA FILTRATION'!BF58</f>
-        <v>267.89999999999998</v>
-      </c>
-      <c r="K53">
-        <f>'ULTRA FILTRATION'!BJ58</f>
-        <v>1.03</v>
-      </c>
-      <c r="L53" s="156">
-        <f>'ULTRA FILTRATION'!BR58</f>
-        <v>212.5</v>
-      </c>
-      <c r="M53">
-        <f>'ULTRA FILTRATION'!BV58</f>
-        <v>1.17</v>
-      </c>
-      <c r="N53" s="156">
-        <f>'ULTRA FILTRATION'!CD58</f>
-        <v>263.7</v>
-      </c>
-      <c r="O53">
-        <f>'ULTRA FILTRATION'!CH58</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P53" s="156">
-        <f>'ULTRA FILTRATION'!CP58</f>
-        <v>162.9</v>
-      </c>
-      <c r="Q53">
-        <f>'ULTRA FILTRATION'!CT58</f>
-        <v>1.5</v>
-      </c>
-      <c r="R53" s="156">
-        <f t="shared" si="4"/>
-        <v>1732.8</v>
       </c>
     </row>
   </sheetData>
@@ -33741,16 +34520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B53"/>
+      <selection activeCell="A51" sqref="A51:B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="157" t="s">
         <v>161</v>
       </c>
@@ -33758,7 +34537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="155">
         <v>45490</v>
       </c>
@@ -33767,7 +34546,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="155">
         <v>45491</v>
       </c>
@@ -33776,7 +34555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="155">
         <v>45492</v>
       </c>
@@ -33785,7 +34564,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="155">
         <v>45493</v>
       </c>
@@ -33794,7 +34573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="155">
         <v>45494</v>
       </c>
@@ -33803,7 +34582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="155">
         <v>45495</v>
       </c>
@@ -33812,7 +34591,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="155">
         <v>45496</v>
       </c>
@@ -33821,7 +34600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="155">
         <v>45497</v>
       </c>
@@ -33830,7 +34609,7 @@
         <v>0.71999999999999975</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="155">
         <v>45498</v>
       </c>
@@ -33839,7 +34618,7 @@
         <v>0.71000000000000041</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="155">
         <v>45499</v>
       </c>
@@ -33848,7 +34627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="155">
         <v>45500</v>
       </c>
@@ -33857,7 +34636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="155">
         <v>45501</v>
       </c>
@@ -33866,7 +34645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="155">
         <v>45502</v>
       </c>
@@ -33875,7 +34654,7 @@
         <v>0.76000000000000023</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="155">
         <v>45503</v>
       </c>
@@ -33884,7 +34663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="155">
         <v>45504</v>
       </c>
@@ -33893,7 +34672,7 @@
         <v>0.69999999999999973</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="155">
         <v>45505</v>
       </c>
@@ -33902,7 +34681,7 @@
         <v>0.87000000000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="155">
         <v>45506</v>
       </c>
@@ -33911,7 +34690,7 @@
         <v>0.75999999999999979</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="155">
         <v>45507</v>
       </c>
@@ -33920,7 +34699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="155">
         <v>45508</v>
       </c>
@@ -33929,7 +34708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="155">
         <v>45509</v>
       </c>
@@ -33938,7 +34717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="155">
         <v>45510</v>
       </c>
@@ -33947,7 +34726,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="155">
         <v>45511</v>
       </c>
@@ -33956,7 +34735,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="155">
         <v>45512</v>
       </c>
@@ -33965,7 +34744,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="155">
         <v>45513</v>
       </c>
@@ -33974,7 +34753,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="155">
         <v>45514</v>
       </c>
@@ -33983,7 +34762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="155">
         <v>45515</v>
       </c>
@@ -33992,7 +34771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="155">
         <v>45516</v>
       </c>
@@ -34001,7 +34780,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="155">
         <v>45517</v>
       </c>
@@ -34010,7 +34789,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="155">
         <v>45518</v>
       </c>
@@ -34019,7 +34798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="155">
         <v>45519</v>
       </c>
@@ -34028,7 +34807,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="155">
         <v>45520</v>
       </c>
@@ -34037,7 +34816,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="155">
         <v>45521</v>
       </c>
@@ -34046,7 +34825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="155">
         <v>45522</v>
       </c>
@@ -34055,7 +34834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="155">
         <v>45523</v>
       </c>
@@ -34064,7 +34843,7 @@
         <v>0.71000000000000041</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="155">
         <v>45524</v>
       </c>
@@ -34073,7 +34852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="155">
         <v>45525</v>
       </c>
@@ -34082,7 +34861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="155">
         <v>45526</v>
       </c>
@@ -34091,7 +34870,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="155">
         <v>45527</v>
       </c>
@@ -34100,7 +34879,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="155">
         <v>45528</v>
       </c>
@@ -34109,7 +34888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="155">
         <v>45529</v>
       </c>
@@ -34118,7 +34897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="155">
         <v>45530</v>
       </c>
@@ -34127,7 +34906,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="155">
         <v>45531</v>
       </c>
@@ -34136,7 +34915,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="155">
         <v>45532</v>
       </c>
@@ -34145,7 +34924,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="155">
         <v>45533</v>
       </c>
@@ -34154,7 +34933,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="155">
         <v>45534</v>
       </c>
@@ -34163,7 +34942,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="155">
         <v>45535</v>
       </c>
@@ -34172,7 +34951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="155">
         <v>45536</v>
       </c>
@@ -34181,7 +34960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="155">
         <v>45537</v>
       </c>
@@ -34190,7 +34969,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="155">
         <v>45538</v>
       </c>
@@ -34199,7 +34978,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="155">
         <v>45539</v>
       </c>
@@ -34208,22 +34987,13 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="155">
         <v>45540</v>
       </c>
       <c r="B52">
         <f>'Filtre à cartouche'!L59</f>
         <v>0.74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="155">
-        <v>45541</v>
-      </c>
-      <c r="B53">
-        <f>'Filtre à cartouche'!L60</f>
-        <v>0.96</v>
       </c>
     </row>
   </sheetData>
@@ -34232,16 +35002,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:R53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="157" t="s">
         <v>161</v>
       </c>
@@ -34297,7 +35067,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="155">
         <v>45490</v>
       </c>
@@ -34370,7 +35140,7 @@
         <v>773.86</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="155">
         <v>45491</v>
       </c>
@@ -34443,7 +35213,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="155">
         <v>45492</v>
       </c>
@@ -34516,7 +35286,7 @@
         <v>766.76</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="155">
         <v>45493</v>
       </c>
@@ -34589,7 +35359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="155">
         <v>45494</v>
       </c>
@@ -34662,7 +35432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="155">
         <v>45495</v>
       </c>
@@ -34735,7 +35505,7 @@
         <v>636.48</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="155">
         <v>45496</v>
       </c>
@@ -34808,7 +35578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="155">
         <v>45497</v>
       </c>
@@ -34881,7 +35651,7 @@
         <v>737.06999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="155">
         <v>45498</v>
       </c>
@@ -34954,7 +35724,7 @@
         <v>726.31</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="155">
         <v>45499</v>
       </c>
@@ -35027,7 +35797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="155">
         <v>45500</v>
       </c>
@@ -35100,7 +35870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="155">
         <v>45501</v>
       </c>
@@ -35173,7 +35943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="155">
         <v>45502</v>
       </c>
@@ -35246,7 +36016,7 @@
         <v>697.9</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="155">
         <v>45503</v>
       </c>
@@ -35319,7 +36089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="155">
         <v>45504</v>
       </c>
@@ -35392,7 +36162,7 @@
         <v>543.6</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="155">
         <v>45505</v>
       </c>
@@ -35465,7 +36235,7 @@
         <v>721.62999999999988</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="155">
         <v>45506</v>
       </c>
@@ -35538,7 +36308,7 @@
         <v>707.99</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="155">
         <v>45507</v>
       </c>
@@ -35611,7 +36381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="155">
         <v>45508</v>
       </c>
@@ -35684,7 +36454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="155">
         <v>45509</v>
       </c>
@@ -35757,7 +36527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="155">
         <v>45510</v>
       </c>
@@ -35830,7 +36600,7 @@
         <v>602.81999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="155">
         <v>45511</v>
       </c>
@@ -35903,7 +36673,7 @@
         <v>612.51</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="155">
         <v>45512</v>
       </c>
@@ -35976,7 +36746,7 @@
         <v>626.88</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="155">
         <v>45513</v>
       </c>
@@ -36049,7 +36819,7 @@
         <v>643.05999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="155">
         <v>45514</v>
       </c>
@@ -36122,7 +36892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="155">
         <v>45515</v>
       </c>
@@ -36195,7 +36965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="155">
         <v>45516</v>
       </c>
@@ -36268,7 +37038,7 @@
         <v>684.7</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="155">
         <v>45517</v>
       </c>
@@ -36341,7 +37111,7 @@
         <v>779.35</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="155">
         <v>45518</v>
       </c>
@@ -36414,7 +37184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="155">
         <v>45519</v>
       </c>
@@ -36487,7 +37257,7 @@
         <v>767.67</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="155">
         <v>45520</v>
       </c>
@@ -36560,7 +37330,7 @@
         <v>755.14999999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="155">
         <v>45521</v>
       </c>
@@ -36633,7 +37403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="155">
         <v>45522</v>
       </c>
@@ -36706,7 +37476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="155">
         <v>45523</v>
       </c>
@@ -36779,7 +37549,7 @@
         <v>644.79</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="155">
         <v>45524</v>
       </c>
@@ -36852,7 +37622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="155">
         <v>45525</v>
       </c>
@@ -36925,7 +37695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="155">
         <v>45526</v>
       </c>
@@ -36998,7 +37768,7 @@
         <v>636.4799999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="155">
         <v>45527</v>
       </c>
@@ -37071,7 +37841,7 @@
         <v>655.45</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="155">
         <v>45528</v>
       </c>
@@ -37144,7 +37914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="155">
         <v>45529</v>
       </c>
@@ -37217,7 +37987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="155">
         <v>45530</v>
       </c>
@@ -37290,7 +38060,7 @@
         <v>659.66000000000008</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="155">
         <v>45531</v>
       </c>
@@ -37363,7 +38133,7 @@
         <v>630.83000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="155">
         <v>45532</v>
       </c>
@@ -37436,7 +38206,7 @@
         <v>646.9799999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="155">
         <v>45533</v>
       </c>
@@ -37509,7 +38279,7 @@
         <v>614.21</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="155">
         <v>45534</v>
       </c>
@@ -37582,7 +38352,7 @@
         <v>708.77</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="155">
         <v>45535</v>
       </c>
@@ -37655,7 +38425,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="155">
         <v>45536</v>
       </c>
@@ -37728,7 +38498,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="155">
         <v>45537</v>
       </c>
@@ -37801,7 +38571,7 @@
         <v>715.61000000000013</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="155">
         <v>45538</v>
       </c>
@@ -37874,7 +38644,7 @@
         <v>616.09</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="155">
         <v>45539</v>
       </c>
@@ -37947,7 +38717,7 @@
         <v>699.36999999999989</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="155">
         <v>45540</v>
       </c>
@@ -38018,79 +38788,6 @@
       <c r="R52" s="156">
         <f t="shared" ref="R52" si="4">SUM(B52,D52,F52,H52,J52,L52,N52,P52)</f>
         <v>696.63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="155">
-        <v>45541</v>
-      </c>
-      <c r="B53" s="156">
-        <f>'TRAIN RO'!E58</f>
-        <v>84.3</v>
-      </c>
-      <c r="C53" s="156">
-        <f>'TRAIN RO'!G58</f>
-        <v>2.95</v>
-      </c>
-      <c r="D53">
-        <f>'TRAIN RO'!M58</f>
-        <v>83.69</v>
-      </c>
-      <c r="E53">
-        <f>'TRAIN RO'!O58</f>
-        <v>2.44</v>
-      </c>
-      <c r="F53">
-        <f>'TRAIN RO'!U58</f>
-        <v>83.52</v>
-      </c>
-      <c r="G53">
-        <f>'TRAIN RO'!W58</f>
-        <v>2.64</v>
-      </c>
-      <c r="H53">
-        <f>'TRAIN RO'!AC58</f>
-        <v>86.5</v>
-      </c>
-      <c r="I53">
-        <f>'TRAIN RO'!AE58</f>
-        <v>2.57</v>
-      </c>
-      <c r="J53">
-        <f>'TRAIN RO'!AK58</f>
-        <v>85.22</v>
-      </c>
-      <c r="K53">
-        <f>'TRAIN RO'!AM58</f>
-        <v>2.69</v>
-      </c>
-      <c r="L53">
-        <f>'TRAIN RO'!AS58</f>
-        <v>81.77</v>
-      </c>
-      <c r="M53">
-        <f>'TRAIN RO'!AU58</f>
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <f>'TRAIN RO'!BA58</f>
-        <v>80.989999999999995</v>
-      </c>
-      <c r="O53">
-        <f>'TRAIN RO'!BC58</f>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f>'TRAIN RO'!BI58</f>
-        <v>78.38</v>
-      </c>
-      <c r="Q53">
-        <f>'TRAIN RO'!BK58</f>
-        <v>2.83</v>
-      </c>
-      <c r="R53" s="156">
-        <f t="shared" ref="R53" si="5">SUM(B53,D53,F53,H53,J53,L53,N53,P53)</f>
-        <v>664.37</v>
       </c>
     </row>
   </sheetData>

--- a/Suivi contrôle qualité d'eau de dessalement QT.xlsx
+++ b/Suivi contrôle qualité d'eau de dessalement QT.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Suivie QT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F77875-F475-4245-84CD-7334D8450529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="789" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="789" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Eau brute Self cleaning" sheetId="5" state="hidden" r:id="rId1"/>
@@ -22,9 +16,9 @@
     <sheet name="FC" sheetId="12" r:id="rId7"/>
     <sheet name="RO" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -611,12 +605,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,7 +1511,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1858,7 +1852,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1989,6 +1983,76 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2031,83 +2095,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2124,17 +2128,50 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,26 +2191,29 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2193,9 +2233,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2205,50 +2242,17 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2295,37 +2299,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2346,49 +2338,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2400,10 +2353,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,16 +2439,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2484,7 +2478,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AAF723-A2BE-419E-9F2E-E106DAEC9B73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04AAF723-A2BE-419E-9F2E-E106DAEC9B73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2533,7 @@
         <xdr:cNvPr id="5" name="Connecteur droit 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE34ACF8-4F87-4687-82E8-5D08D86F8337}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE34ACF8-4F87-4687-82E8-5D08D86F8337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2588,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DA41B0-4FF1-4CDC-98E0-28E5B128B365}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6DA41B0-4FF1-4CDC-98E0-28E5B128B365}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2643,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B7B22A-2A6C-423C-9242-1F257DF65078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78B7B22A-2A6C-423C-9242-1F257DF65078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2698,7 @@
         <xdr:cNvPr id="2" name="Connecteur droit 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2571DF-7D23-487C-AE96-BF462BE3D1C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C2571DF-7D23-487C-AE96-BF462BE3D1C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,7 +2776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2834,7 +2828,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3028,21 +3022,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AD16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
@@ -3051,243 +3045,243 @@
     <col min="5" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="178" t="s">
+    <row r="1" spans="2:30" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:30" ht="24" customHeight="1" thickBot="1">
+      <c r="B2" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="176" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="176"/>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="176"/>
-      <c r="AD2" s="177"/>
-    </row>
-    <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="179"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="183" t="s">
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
+    </row>
+    <row r="3" spans="2:30" ht="15" customHeight="1">
+      <c r="B3" s="205"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="184" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="183"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="187" t="s">
+      <c r="H3" s="184"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="183" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="183"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="187" t="s">
+      <c r="K3" s="184"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="183"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="187" t="s">
+      <c r="N3" s="184"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="187" t="s">
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="T3" s="183"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="187" t="s">
+      <c r="T3" s="184"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="183"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="187" t="s">
+      <c r="W3" s="184"/>
+      <c r="X3" s="185"/>
+      <c r="Y3" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="187" t="s">
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="184"/>
-    </row>
-    <row r="4" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="180"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="185"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="188"/>
-      <c r="W4" s="185"/>
-      <c r="X4" s="186"/>
-      <c r="Y4" s="188"/>
-      <c r="Z4" s="185"/>
-      <c r="AA4" s="186"/>
-      <c r="AB4" s="189"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="191"/>
-    </row>
-    <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="198" t="s">
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="185"/>
+    </row>
+    <row r="4" spans="2:30" ht="15" customHeight="1">
+      <c r="B4" s="206"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="209"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="209"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="187"/>
+      <c r="AD4" s="188"/>
+    </row>
+    <row r="5" spans="2:30" ht="30" customHeight="1">
+      <c r="B5" s="175" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="200" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="201" t="s">
+      <c r="C5" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="201" t="s">
+      <c r="F5" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="202" t="s">
+      <c r="G5" s="179" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="194" t="s">
+      <c r="H5" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="192" t="s">
+      <c r="J5" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="194" t="s">
+      <c r="K5" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="192" t="s">
+      <c r="M5" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="194" t="s">
+      <c r="N5" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="O5" s="181" t="s">
+      <c r="O5" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="192" t="s">
+      <c r="P5" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="194" t="s">
+      <c r="Q5" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="181" t="s">
+      <c r="R5" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="194" t="s">
+      <c r="T5" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="U5" s="181" t="s">
+      <c r="U5" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="V5" s="192" t="s">
+      <c r="V5" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="194" t="s">
+      <c r="W5" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="X5" s="181" t="s">
+      <c r="X5" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="192" t="s">
+      <c r="Y5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="Z5" s="194" t="s">
+      <c r="Z5" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="AA5" s="181" t="s">
+      <c r="AA5" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="AB5" s="192" t="s">
+      <c r="AB5" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="AC5" s="196" t="s">
+      <c r="AC5" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="AD5" s="181" t="s">
+      <c r="AD5" s="189" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="199"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="195"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="195"/>
-      <c r="AA6" s="182"/>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="182"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="15.75" thickBot="1">
+      <c r="B6" s="176"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="190"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="190"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="174"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="190"/>
+      <c r="AB6" s="182"/>
+      <c r="AC6" s="192"/>
+      <c r="AD6" s="190"/>
+    </row>
+    <row r="7" spans="2:30">
       <c r="B7" s="23">
         <v>45490</v>
       </c>
@@ -3324,7 +3318,7 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="15"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30">
       <c r="B8" s="10">
         <v>45491</v>
       </c>
@@ -3361,7 +3355,7 @@
       <c r="AC8" s="18"/>
       <c r="AD8" s="15"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30">
       <c r="B9" s="10">
         <v>45492</v>
       </c>
@@ -3398,7 +3392,7 @@
       <c r="AC9" s="18"/>
       <c r="AD9" s="15"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30">
       <c r="B10" s="10">
         <v>45495</v>
       </c>
@@ -3437,7 +3431,7 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="15"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30">
       <c r="B11" s="10">
         <v>45497</v>
       </c>
@@ -3476,7 +3470,7 @@
       <c r="AC11" s="18"/>
       <c r="AD11" s="15"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30">
       <c r="B12" s="10">
         <v>45498</v>
       </c>
@@ -3509,7 +3503,7 @@
       <c r="AC12" s="18"/>
       <c r="AD12" s="15"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30">
       <c r="B13" s="10">
         <v>45502</v>
       </c>
@@ -3542,7 +3536,7 @@
       <c r="AC13" s="18"/>
       <c r="AD13" s="15"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30">
       <c r="B14" s="10">
         <v>45504</v>
       </c>
@@ -3630,7 +3624,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30">
       <c r="B15" s="10">
         <v>45505</v>
       </c>
@@ -3724,7 +3718,7 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30">
       <c r="B16" s="10">
         <v>45506</v>
       </c>
@@ -3815,30 +3809,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="C2:F4"/>
     <mergeCell ref="G2:AD2"/>
     <mergeCell ref="B2:B4"/>
@@ -3855,6 +3825,30 @@
     <mergeCell ref="V3:X4"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y3:AA4"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3863,17 +3857,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CT61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="CH52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="CT60" sqref="CT60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
@@ -3896,364 +3890,364 @@
     <col min="47" max="47" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:98" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="224" t="s">
+    <row r="1" spans="2:98" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:98" ht="32.25" customHeight="1" thickBot="1">
+      <c r="C2" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="225"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="226" t="s">
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="228"/>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="224" t="s">
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="219"/>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="225"/>
-      <c r="AC2" s="225"/>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="225"/>
-      <c r="AG2" s="225"/>
-      <c r="AH2" s="225"/>
-      <c r="AI2" s="225"/>
-      <c r="AJ2" s="225"/>
-      <c r="AK2" s="225"/>
-      <c r="AL2" s="225"/>
-      <c r="AM2" s="243" t="s">
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="220"/>
+      <c r="AJ2" s="220"/>
+      <c r="AK2" s="220"/>
+      <c r="AL2" s="220"/>
+      <c r="AM2" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="228"/>
-      <c r="AO2" s="228"/>
-      <c r="AP2" s="228"/>
-      <c r="AQ2" s="228"/>
-      <c r="AR2" s="228"/>
-      <c r="AS2" s="228"/>
-      <c r="AT2" s="228"/>
-      <c r="AU2" s="228"/>
-      <c r="AV2" s="228"/>
-      <c r="AW2" s="228"/>
-      <c r="AX2" s="228"/>
-      <c r="AY2" s="252" t="s">
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="219"/>
+      <c r="AR2" s="219"/>
+      <c r="AS2" s="219"/>
+      <c r="AT2" s="219"/>
+      <c r="AU2" s="219"/>
+      <c r="AV2" s="219"/>
+      <c r="AW2" s="219"/>
+      <c r="AX2" s="219"/>
+      <c r="AY2" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" s="253"/>
-      <c r="BA2" s="253"/>
-      <c r="BB2" s="253"/>
-      <c r="BC2" s="253"/>
-      <c r="BD2" s="253"/>
-      <c r="BE2" s="253"/>
-      <c r="BF2" s="253"/>
-      <c r="BG2" s="253"/>
-      <c r="BH2" s="253"/>
-      <c r="BI2" s="253"/>
-      <c r="BJ2" s="253"/>
-      <c r="BK2" s="243" t="s">
+      <c r="AZ2" s="212"/>
+      <c r="BA2" s="212"/>
+      <c r="BB2" s="212"/>
+      <c r="BC2" s="212"/>
+      <c r="BD2" s="212"/>
+      <c r="BE2" s="212"/>
+      <c r="BF2" s="212"/>
+      <c r="BG2" s="212"/>
+      <c r="BH2" s="212"/>
+      <c r="BI2" s="212"/>
+      <c r="BJ2" s="212"/>
+      <c r="BK2" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="BL2" s="228"/>
-      <c r="BM2" s="228"/>
-      <c r="BN2" s="228"/>
-      <c r="BO2" s="228"/>
-      <c r="BP2" s="228"/>
-      <c r="BQ2" s="228"/>
-      <c r="BR2" s="228"/>
-      <c r="BS2" s="228"/>
-      <c r="BT2" s="228"/>
-      <c r="BU2" s="228"/>
-      <c r="BV2" s="228"/>
-      <c r="BW2" s="252" t="s">
+      <c r="BL2" s="219"/>
+      <c r="BM2" s="219"/>
+      <c r="BN2" s="219"/>
+      <c r="BO2" s="219"/>
+      <c r="BP2" s="219"/>
+      <c r="BQ2" s="219"/>
+      <c r="BR2" s="219"/>
+      <c r="BS2" s="219"/>
+      <c r="BT2" s="219"/>
+      <c r="BU2" s="219"/>
+      <c r="BV2" s="219"/>
+      <c r="BW2" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="BX2" s="253"/>
-      <c r="BY2" s="253"/>
-      <c r="BZ2" s="253"/>
-      <c r="CA2" s="253"/>
-      <c r="CB2" s="253"/>
-      <c r="CC2" s="253"/>
-      <c r="CD2" s="253"/>
-      <c r="CE2" s="253"/>
-      <c r="CF2" s="253"/>
-      <c r="CG2" s="253"/>
-      <c r="CH2" s="253"/>
-      <c r="CI2" s="243" t="s">
+      <c r="BX2" s="212"/>
+      <c r="BY2" s="212"/>
+      <c r="BZ2" s="212"/>
+      <c r="CA2" s="212"/>
+      <c r="CB2" s="212"/>
+      <c r="CC2" s="212"/>
+      <c r="CD2" s="212"/>
+      <c r="CE2" s="212"/>
+      <c r="CF2" s="212"/>
+      <c r="CG2" s="212"/>
+      <c r="CH2" s="212"/>
+      <c r="CI2" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="228"/>
-      <c r="CK2" s="228"/>
-      <c r="CL2" s="228"/>
-      <c r="CM2" s="228"/>
-      <c r="CN2" s="228"/>
-      <c r="CO2" s="228"/>
-      <c r="CP2" s="228"/>
-      <c r="CQ2" s="228"/>
-      <c r="CR2" s="228"/>
-      <c r="CS2" s="228"/>
-      <c r="CT2" s="244"/>
-    </row>
-    <row r="3" spans="2:98" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="178" t="s">
+      <c r="CJ2" s="219"/>
+      <c r="CK2" s="219"/>
+      <c r="CL2" s="219"/>
+      <c r="CM2" s="219"/>
+      <c r="CN2" s="219"/>
+      <c r="CO2" s="219"/>
+      <c r="CP2" s="219"/>
+      <c r="CQ2" s="219"/>
+      <c r="CR2" s="219"/>
+      <c r="CS2" s="219"/>
+      <c r="CT2" s="232"/>
+    </row>
+    <row r="3" spans="2:98" ht="15" customHeight="1">
+      <c r="B3" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="218"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="235"/>
       <c r="I3" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="229" t="s">
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230"/>
-      <c r="R3" s="230"/>
-      <c r="S3" s="230"/>
-      <c r="T3" s="231"/>
-      <c r="U3" s="224" t="s">
+      <c r="P3" s="248"/>
+      <c r="Q3" s="248"/>
+      <c r="R3" s="248"/>
+      <c r="S3" s="248"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="230" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="235"/>
-      <c r="AA3" s="216" t="s">
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="217"/>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="217"/>
-      <c r="AF3" s="218"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="234"/>
+      <c r="AE3" s="234"/>
+      <c r="AF3" s="235"/>
       <c r="AG3" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="AH3" s="217"/>
-      <c r="AI3" s="217"/>
-      <c r="AJ3" s="217"/>
-      <c r="AK3" s="217"/>
-      <c r="AL3" s="218"/>
-      <c r="AM3" s="225" t="s">
+      <c r="AH3" s="234"/>
+      <c r="AI3" s="234"/>
+      <c r="AJ3" s="234"/>
+      <c r="AK3" s="234"/>
+      <c r="AL3" s="235"/>
+      <c r="AM3" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="AN3" s="225"/>
-      <c r="AO3" s="225"/>
-      <c r="AP3" s="225"/>
-      <c r="AQ3" s="225"/>
-      <c r="AR3" s="235"/>
-      <c r="AS3" s="225" t="s">
+      <c r="AN3" s="220"/>
+      <c r="AO3" s="220"/>
+      <c r="AP3" s="220"/>
+      <c r="AQ3" s="220"/>
+      <c r="AR3" s="221"/>
+      <c r="AS3" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="AT3" s="225"/>
-      <c r="AU3" s="225"/>
-      <c r="AV3" s="225"/>
-      <c r="AW3" s="225"/>
-      <c r="AX3" s="225"/>
-      <c r="AY3" s="226" t="s">
+      <c r="AT3" s="220"/>
+      <c r="AU3" s="220"/>
+      <c r="AV3" s="220"/>
+      <c r="AW3" s="220"/>
+      <c r="AX3" s="220"/>
+      <c r="AY3" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="AZ3" s="227"/>
-      <c r="BA3" s="227"/>
-      <c r="BB3" s="227"/>
-      <c r="BC3" s="227"/>
-      <c r="BD3" s="245"/>
-      <c r="BE3" s="227" t="s">
+      <c r="AZ3" s="225"/>
+      <c r="BA3" s="225"/>
+      <c r="BB3" s="225"/>
+      <c r="BC3" s="225"/>
+      <c r="BD3" s="226"/>
+      <c r="BE3" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="BF3" s="227"/>
-      <c r="BG3" s="227"/>
-      <c r="BH3" s="227"/>
-      <c r="BI3" s="227"/>
-      <c r="BJ3" s="227"/>
-      <c r="BK3" s="224" t="s">
+      <c r="BF3" s="225"/>
+      <c r="BG3" s="225"/>
+      <c r="BH3" s="225"/>
+      <c r="BI3" s="225"/>
+      <c r="BJ3" s="225"/>
+      <c r="BK3" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="BL3" s="225"/>
-      <c r="BM3" s="225"/>
-      <c r="BN3" s="225"/>
-      <c r="BO3" s="225"/>
-      <c r="BP3" s="235"/>
-      <c r="BQ3" s="225" t="s">
+      <c r="BL3" s="220"/>
+      <c r="BM3" s="220"/>
+      <c r="BN3" s="220"/>
+      <c r="BO3" s="220"/>
+      <c r="BP3" s="221"/>
+      <c r="BQ3" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="BR3" s="225"/>
-      <c r="BS3" s="225"/>
-      <c r="BT3" s="225"/>
-      <c r="BU3" s="225"/>
-      <c r="BV3" s="225"/>
-      <c r="BW3" s="226" t="s">
+      <c r="BR3" s="220"/>
+      <c r="BS3" s="220"/>
+      <c r="BT3" s="220"/>
+      <c r="BU3" s="220"/>
+      <c r="BV3" s="220"/>
+      <c r="BW3" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="BX3" s="227"/>
-      <c r="BY3" s="227"/>
-      <c r="BZ3" s="227"/>
-      <c r="CA3" s="227"/>
-      <c r="CB3" s="245"/>
-      <c r="CC3" s="227" t="s">
+      <c r="BX3" s="225"/>
+      <c r="BY3" s="225"/>
+      <c r="BZ3" s="225"/>
+      <c r="CA3" s="225"/>
+      <c r="CB3" s="226"/>
+      <c r="CC3" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="CD3" s="227"/>
-      <c r="CE3" s="227"/>
-      <c r="CF3" s="227"/>
-      <c r="CG3" s="227"/>
-      <c r="CH3" s="227"/>
-      <c r="CI3" s="224" t="s">
+      <c r="CD3" s="225"/>
+      <c r="CE3" s="225"/>
+      <c r="CF3" s="225"/>
+      <c r="CG3" s="225"/>
+      <c r="CH3" s="225"/>
+      <c r="CI3" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="CJ3" s="225"/>
-      <c r="CK3" s="225"/>
-      <c r="CL3" s="225"/>
-      <c r="CM3" s="225"/>
-      <c r="CN3" s="235"/>
-      <c r="CO3" s="225" t="s">
+      <c r="CJ3" s="220"/>
+      <c r="CK3" s="220"/>
+      <c r="CL3" s="220"/>
+      <c r="CM3" s="220"/>
+      <c r="CN3" s="221"/>
+      <c r="CO3" s="220" t="s">
         <v>68</v>
       </c>
-      <c r="CP3" s="225"/>
-      <c r="CQ3" s="225"/>
-      <c r="CR3" s="225"/>
-      <c r="CS3" s="225"/>
-      <c r="CT3" s="235"/>
-    </row>
-    <row r="4" spans="2:98" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="212"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="CP3" s="220"/>
+      <c r="CQ3" s="220"/>
+      <c r="CR3" s="220"/>
+      <c r="CS3" s="220"/>
+      <c r="CT3" s="221"/>
+    </row>
+    <row r="4" spans="2:98" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="258"/>
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="238"/>
       <c r="I4" s="240"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="221"/>
-      <c r="O4" s="232"/>
-      <c r="P4" s="233"/>
-      <c r="Q4" s="233"/>
-      <c r="R4" s="233"/>
-      <c r="S4" s="233"/>
-      <c r="T4" s="234"/>
-      <c r="U4" s="236"/>
-      <c r="V4" s="237"/>
-      <c r="W4" s="237"/>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="237"/>
-      <c r="Z4" s="238"/>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="220"/>
-      <c r="AC4" s="220"/>
-      <c r="AD4" s="220"/>
-      <c r="AE4" s="220"/>
-      <c r="AF4" s="221"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="238"/>
+      <c r="O4" s="250"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
+      <c r="T4" s="252"/>
+      <c r="U4" s="253"/>
+      <c r="V4" s="254"/>
+      <c r="W4" s="254"/>
+      <c r="X4" s="254"/>
+      <c r="Y4" s="254"/>
+      <c r="Z4" s="255"/>
+      <c r="AA4" s="236"/>
+      <c r="AB4" s="237"/>
+      <c r="AC4" s="237"/>
+      <c r="AD4" s="237"/>
+      <c r="AE4" s="237"/>
+      <c r="AF4" s="238"/>
       <c r="AG4" s="240"/>
-      <c r="AH4" s="220"/>
-      <c r="AI4" s="220"/>
-      <c r="AJ4" s="220"/>
-      <c r="AK4" s="220"/>
-      <c r="AL4" s="221"/>
-      <c r="AM4" s="250"/>
-      <c r="AN4" s="250"/>
-      <c r="AO4" s="250"/>
-      <c r="AP4" s="250"/>
-      <c r="AQ4" s="250"/>
-      <c r="AR4" s="251"/>
-      <c r="AS4" s="250"/>
-      <c r="AT4" s="250"/>
-      <c r="AU4" s="250"/>
-      <c r="AV4" s="250"/>
-      <c r="AW4" s="250"/>
-      <c r="AX4" s="250"/>
-      <c r="AY4" s="246"/>
-      <c r="AZ4" s="247"/>
-      <c r="BA4" s="247"/>
-      <c r="BB4" s="247"/>
-      <c r="BC4" s="247"/>
-      <c r="BD4" s="248"/>
-      <c r="BE4" s="247"/>
-      <c r="BF4" s="247"/>
-      <c r="BG4" s="247"/>
-      <c r="BH4" s="247"/>
-      <c r="BI4" s="247"/>
-      <c r="BJ4" s="247"/>
-      <c r="BK4" s="249"/>
-      <c r="BL4" s="250"/>
-      <c r="BM4" s="250"/>
-      <c r="BN4" s="250"/>
-      <c r="BO4" s="250"/>
-      <c r="BP4" s="251"/>
-      <c r="BQ4" s="250"/>
-      <c r="BR4" s="250"/>
-      <c r="BS4" s="250"/>
-      <c r="BT4" s="250"/>
-      <c r="BU4" s="250"/>
-      <c r="BV4" s="250"/>
-      <c r="BW4" s="246"/>
-      <c r="BX4" s="247"/>
-      <c r="BY4" s="247"/>
-      <c r="BZ4" s="247"/>
-      <c r="CA4" s="247"/>
-      <c r="CB4" s="248"/>
-      <c r="CC4" s="247"/>
-      <c r="CD4" s="247"/>
-      <c r="CE4" s="247"/>
-      <c r="CF4" s="247"/>
-      <c r="CG4" s="247"/>
-      <c r="CH4" s="247"/>
-      <c r="CI4" s="249"/>
-      <c r="CJ4" s="250"/>
-      <c r="CK4" s="250"/>
-      <c r="CL4" s="250"/>
-      <c r="CM4" s="250"/>
-      <c r="CN4" s="251"/>
-      <c r="CO4" s="250"/>
-      <c r="CP4" s="250"/>
-      <c r="CQ4" s="250"/>
-      <c r="CR4" s="250"/>
-      <c r="CS4" s="250"/>
-      <c r="CT4" s="251"/>
-    </row>
-    <row r="5" spans="2:98" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="213" t="s">
+      <c r="AH4" s="237"/>
+      <c r="AI4" s="237"/>
+      <c r="AJ4" s="237"/>
+      <c r="AK4" s="237"/>
+      <c r="AL4" s="238"/>
+      <c r="AM4" s="222"/>
+      <c r="AN4" s="222"/>
+      <c r="AO4" s="222"/>
+      <c r="AP4" s="222"/>
+      <c r="AQ4" s="222"/>
+      <c r="AR4" s="223"/>
+      <c r="AS4" s="222"/>
+      <c r="AT4" s="222"/>
+      <c r="AU4" s="222"/>
+      <c r="AV4" s="222"/>
+      <c r="AW4" s="222"/>
+      <c r="AX4" s="222"/>
+      <c r="AY4" s="227"/>
+      <c r="AZ4" s="228"/>
+      <c r="BA4" s="228"/>
+      <c r="BB4" s="228"/>
+      <c r="BC4" s="228"/>
+      <c r="BD4" s="229"/>
+      <c r="BE4" s="228"/>
+      <c r="BF4" s="228"/>
+      <c r="BG4" s="228"/>
+      <c r="BH4" s="228"/>
+      <c r="BI4" s="228"/>
+      <c r="BJ4" s="228"/>
+      <c r="BK4" s="231"/>
+      <c r="BL4" s="222"/>
+      <c r="BM4" s="222"/>
+      <c r="BN4" s="222"/>
+      <c r="BO4" s="222"/>
+      <c r="BP4" s="223"/>
+      <c r="BQ4" s="222"/>
+      <c r="BR4" s="222"/>
+      <c r="BS4" s="222"/>
+      <c r="BT4" s="222"/>
+      <c r="BU4" s="222"/>
+      <c r="BV4" s="222"/>
+      <c r="BW4" s="227"/>
+      <c r="BX4" s="228"/>
+      <c r="BY4" s="228"/>
+      <c r="BZ4" s="228"/>
+      <c r="CA4" s="228"/>
+      <c r="CB4" s="229"/>
+      <c r="CC4" s="228"/>
+      <c r="CD4" s="228"/>
+      <c r="CE4" s="228"/>
+      <c r="CF4" s="228"/>
+      <c r="CG4" s="228"/>
+      <c r="CH4" s="228"/>
+      <c r="CI4" s="231"/>
+      <c r="CJ4" s="222"/>
+      <c r="CK4" s="222"/>
+      <c r="CL4" s="222"/>
+      <c r="CM4" s="222"/>
+      <c r="CN4" s="223"/>
+      <c r="CO4" s="222"/>
+      <c r="CP4" s="222"/>
+      <c r="CQ4" s="222"/>
+      <c r="CR4" s="222"/>
+      <c r="CS4" s="222"/>
+      <c r="CT4" s="223"/>
+    </row>
+    <row r="5" spans="2:98" ht="27.6" customHeight="1" thickBot="1">
+      <c r="B5" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="222" t="s">
+      <c r="C5" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="204" t="s">
+      <c r="E5" s="241" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="45" t="s">
@@ -4262,16 +4256,16 @@
       <c r="G5" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="214" t="s">
+      <c r="H5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="241" t="s">
+      <c r="I5" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="204" t="s">
+      <c r="J5" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="204" t="s">
+      <c r="K5" s="241" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="45" t="s">
@@ -4280,16 +4274,16 @@
       <c r="M5" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="214" t="s">
+      <c r="N5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="222" t="s">
+      <c r="O5" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="204" t="s">
+      <c r="P5" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="204" t="s">
+      <c r="Q5" s="241" t="s">
         <v>40</v>
       </c>
       <c r="R5" s="45" t="s">
@@ -4298,16 +4292,16 @@
       <c r="S5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="214" t="s">
+      <c r="T5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="222" t="s">
+      <c r="U5" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="204" t="s">
+      <c r="V5" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="204" t="s">
+      <c r="W5" s="241" t="s">
         <v>40</v>
       </c>
       <c r="X5" s="45" t="s">
@@ -4316,16 +4310,16 @@
       <c r="Y5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="Z5" s="214" t="s">
+      <c r="Z5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="222" t="s">
+      <c r="AA5" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="204" t="s">
+      <c r="AB5" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="204" t="s">
+      <c r="AC5" s="241" t="s">
         <v>40</v>
       </c>
       <c r="AD5" s="45" t="s">
@@ -4334,16 +4328,16 @@
       <c r="AE5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="214" t="s">
+      <c r="AF5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="AG5" s="241" t="s">
+      <c r="AG5" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="204" t="s">
+      <c r="AH5" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="204" t="s">
+      <c r="AI5" s="241" t="s">
         <v>40</v>
       </c>
       <c r="AJ5" s="45" t="s">
@@ -4352,16 +4346,16 @@
       <c r="AK5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="AL5" s="214" t="s">
+      <c r="AL5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="AM5" s="207" t="s">
+      <c r="AM5" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="206" t="s">
+      <c r="AN5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="AO5" s="206" t="s">
+      <c r="AO5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="AP5" s="5" t="s">
@@ -4370,16 +4364,16 @@
       <c r="AQ5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AR5" s="209" t="s">
+      <c r="AR5" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="AS5" s="207" t="s">
+      <c r="AS5" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="AT5" s="206" t="s">
+      <c r="AT5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="AU5" s="206" t="s">
+      <c r="AU5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="AV5" s="5" t="s">
@@ -4388,16 +4382,16 @@
       <c r="AW5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AX5" s="210" t="s">
+      <c r="AX5" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="AY5" s="209" t="s">
+      <c r="AY5" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="206" t="s">
+      <c r="AZ5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="BA5" s="206" t="s">
+      <c r="BA5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="BB5" s="5" t="s">
@@ -4406,16 +4400,16 @@
       <c r="BC5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BD5" s="209" t="s">
+      <c r="BD5" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="BE5" s="207" t="s">
+      <c r="BE5" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="BF5" s="206" t="s">
+      <c r="BF5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="BG5" s="206" t="s">
+      <c r="BG5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="BH5" s="5" t="s">
@@ -4424,16 +4418,16 @@
       <c r="BI5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BJ5" s="210" t="s">
+      <c r="BJ5" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="BK5" s="209" t="s">
+      <c r="BK5" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="BL5" s="206" t="s">
+      <c r="BL5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="BM5" s="206" t="s">
+      <c r="BM5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="BN5" s="5" t="s">
@@ -4442,16 +4436,16 @@
       <c r="BO5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BP5" s="209" t="s">
+      <c r="BP5" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="BQ5" s="207" t="s">
+      <c r="BQ5" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="BR5" s="206" t="s">
+      <c r="BR5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="BS5" s="206" t="s">
+      <c r="BS5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="BT5" s="5" t="s">
@@ -4460,16 +4454,16 @@
       <c r="BU5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BV5" s="210" t="s">
+      <c r="BV5" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="BW5" s="209" t="s">
+      <c r="BW5" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="BX5" s="206" t="s">
+      <c r="BX5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="BY5" s="206" t="s">
+      <c r="BY5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="BZ5" s="5" t="s">
@@ -4478,16 +4472,16 @@
       <c r="CA5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="CB5" s="209" t="s">
+      <c r="CB5" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="CC5" s="207" t="s">
+      <c r="CC5" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="CD5" s="206" t="s">
+      <c r="CD5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="CE5" s="206" t="s">
+      <c r="CE5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="CF5" s="5" t="s">
@@ -4496,16 +4490,16 @@
       <c r="CG5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="CH5" s="210" t="s">
+      <c r="CH5" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="CI5" s="209" t="s">
+      <c r="CI5" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="CJ5" s="206" t="s">
+      <c r="CJ5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="CK5" s="206" t="s">
+      <c r="CK5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="CL5" s="5" t="s">
@@ -4514,16 +4508,16 @@
       <c r="CM5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="CN5" s="209" t="s">
+      <c r="CN5" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="CO5" s="207" t="s">
+      <c r="CO5" s="213" t="s">
         <v>12</v>
       </c>
-      <c r="CP5" s="206" t="s">
+      <c r="CP5" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="CQ5" s="206" t="s">
+      <c r="CQ5" s="210" t="s">
         <v>40</v>
       </c>
       <c r="CR5" s="5" t="s">
@@ -4532,174 +4526,174 @@
       <c r="CS5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="CT5" s="209" t="s">
+      <c r="CT5" s="215" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:98" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="213"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
+    <row r="6" spans="2:98" ht="45.75" customHeight="1" thickBot="1">
+      <c r="B6" s="259"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
       <c r="F6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="215"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="205"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
       <c r="L6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="215"/>
-      <c r="O6" s="223"/>
-      <c r="P6" s="205"/>
-      <c r="Q6" s="205"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="257"/>
+      <c r="P6" s="242"/>
+      <c r="Q6" s="242"/>
       <c r="R6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="S6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="215"/>
-      <c r="U6" s="223"/>
-      <c r="V6" s="205"/>
-      <c r="W6" s="205"/>
+      <c r="T6" s="246"/>
+      <c r="U6" s="257"/>
+      <c r="V6" s="242"/>
+      <c r="W6" s="242"/>
       <c r="X6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="Y6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="215"/>
-      <c r="AA6" s="223"/>
-      <c r="AB6" s="205"/>
-      <c r="AC6" s="205"/>
+      <c r="Z6" s="246"/>
+      <c r="AA6" s="257"/>
+      <c r="AB6" s="242"/>
+      <c r="AC6" s="242"/>
       <c r="AD6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="AE6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AF6" s="215"/>
-      <c r="AG6" s="242"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
+      <c r="AF6" s="246"/>
+      <c r="AG6" s="244"/>
+      <c r="AH6" s="242"/>
+      <c r="AI6" s="242"/>
       <c r="AJ6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="AK6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AL6" s="215"/>
-      <c r="AM6" s="208"/>
-      <c r="AN6" s="206"/>
-      <c r="AO6" s="206"/>
+      <c r="AL6" s="246"/>
+      <c r="AM6" s="214"/>
+      <c r="AN6" s="210"/>
+      <c r="AO6" s="210"/>
       <c r="AP6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AQ6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AR6" s="206"/>
-      <c r="AS6" s="208"/>
-      <c r="AT6" s="206"/>
-      <c r="AU6" s="206"/>
+      <c r="AR6" s="210"/>
+      <c r="AS6" s="214"/>
+      <c r="AT6" s="210"/>
+      <c r="AU6" s="210"/>
       <c r="AV6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AW6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AX6" s="211"/>
-      <c r="AY6" s="206"/>
-      <c r="AZ6" s="206"/>
-      <c r="BA6" s="206"/>
+      <c r="AX6" s="217"/>
+      <c r="AY6" s="210"/>
+      <c r="AZ6" s="210"/>
+      <c r="BA6" s="210"/>
       <c r="BB6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BC6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BD6" s="206"/>
-      <c r="BE6" s="208"/>
-      <c r="BF6" s="206"/>
-      <c r="BG6" s="206"/>
+      <c r="BD6" s="210"/>
+      <c r="BE6" s="214"/>
+      <c r="BF6" s="210"/>
+      <c r="BG6" s="210"/>
       <c r="BH6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BI6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BJ6" s="211"/>
-      <c r="BK6" s="206"/>
-      <c r="BL6" s="206"/>
-      <c r="BM6" s="206"/>
+      <c r="BJ6" s="217"/>
+      <c r="BK6" s="210"/>
+      <c r="BL6" s="210"/>
+      <c r="BM6" s="210"/>
       <c r="BN6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BO6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BP6" s="206"/>
-      <c r="BQ6" s="208"/>
-      <c r="BR6" s="206"/>
-      <c r="BS6" s="206"/>
+      <c r="BP6" s="210"/>
+      <c r="BQ6" s="214"/>
+      <c r="BR6" s="210"/>
+      <c r="BS6" s="210"/>
       <c r="BT6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BU6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BV6" s="211"/>
-      <c r="BW6" s="206"/>
-      <c r="BX6" s="206"/>
-      <c r="BY6" s="206"/>
+      <c r="BV6" s="217"/>
+      <c r="BW6" s="210"/>
+      <c r="BX6" s="210"/>
+      <c r="BY6" s="210"/>
       <c r="BZ6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="CA6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB6" s="206"/>
-      <c r="CC6" s="208"/>
-      <c r="CD6" s="206"/>
-      <c r="CE6" s="206"/>
+      <c r="CB6" s="210"/>
+      <c r="CC6" s="214"/>
+      <c r="CD6" s="210"/>
+      <c r="CE6" s="210"/>
       <c r="CF6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="CG6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CH6" s="211"/>
-      <c r="CI6" s="206"/>
-      <c r="CJ6" s="206"/>
-      <c r="CK6" s="206"/>
+      <c r="CH6" s="217"/>
+      <c r="CI6" s="210"/>
+      <c r="CJ6" s="210"/>
+      <c r="CK6" s="210"/>
       <c r="CL6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="CM6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN6" s="206"/>
-      <c r="CO6" s="208"/>
-      <c r="CP6" s="206"/>
-      <c r="CQ6" s="206"/>
+      <c r="CN6" s="210"/>
+      <c r="CO6" s="214"/>
+      <c r="CP6" s="210"/>
+      <c r="CQ6" s="210"/>
       <c r="CR6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="CS6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CT6" s="206"/>
-    </row>
-    <row r="7" spans="2:98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CT6" s="210"/>
+    </row>
+    <row r="7" spans="2:98" ht="15.75" customHeight="1">
       <c r="B7" s="14">
         <v>45490</v>
       </c>
@@ -4978,7 +4972,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="8" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:98">
       <c r="B8" s="14">
         <v>45491</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:98">
       <c r="B9" s="14">
         <v>45492</v>
       </c>
@@ -5564,7 +5558,7 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="10" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:98">
       <c r="B10" s="14">
         <v>45493</v>
       </c>
@@ -5665,7 +5659,7 @@
       <c r="CS10" s="4"/>
       <c r="CT10" s="13"/>
     </row>
-    <row r="11" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:98">
       <c r="B11" s="14">
         <v>45494</v>
       </c>
@@ -5766,7 +5760,7 @@
       <c r="CS11" s="4"/>
       <c r="CT11" s="13"/>
     </row>
-    <row r="12" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:98">
       <c r="B12" s="14">
         <v>45495</v>
       </c>
@@ -6059,7 +6053,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="13" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:98">
       <c r="B13" s="14">
         <v>45496</v>
       </c>
@@ -6160,7 +6154,7 @@
       <c r="CS13" s="4"/>
       <c r="CT13" s="13"/>
     </row>
-    <row r="14" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:98">
       <c r="B14" s="14">
         <v>45497</v>
       </c>
@@ -6453,7 +6447,7 @@
         <v>0.41000000000000003</v>
       </c>
     </row>
-    <row r="15" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:98">
       <c r="B15" s="14">
         <v>45498</v>
       </c>
@@ -6746,7 +6740,7 @@
         <v>0.55999999999999994</v>
       </c>
     </row>
-    <row r="16" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:98">
       <c r="B16" s="14">
         <v>45499</v>
       </c>
@@ -6847,7 +6841,7 @@
       <c r="CS16" s="4"/>
       <c r="CT16" s="13"/>
     </row>
-    <row r="17" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:98">
       <c r="B17" s="14">
         <v>45500</v>
       </c>
@@ -6948,7 +6942,7 @@
       <c r="CS17" s="4"/>
       <c r="CT17" s="13"/>
     </row>
-    <row r="18" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:98">
       <c r="B18" s="14">
         <v>45501</v>
       </c>
@@ -7049,7 +7043,7 @@
       <c r="CS18" s="4"/>
       <c r="CT18" s="13"/>
     </row>
-    <row r="19" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:98">
       <c r="B19" s="14">
         <v>45502</v>
       </c>
@@ -7342,7 +7336,7 @@
         <v>1.6099999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:98">
       <c r="B20" s="14">
         <v>45503</v>
       </c>
@@ -7443,7 +7437,7 @@
       <c r="CS20" s="4"/>
       <c r="CT20" s="13"/>
     </row>
-    <row r="21" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:98">
       <c r="B21" s="14">
         <v>45504</v>
       </c>
@@ -7736,7 +7730,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:98">
       <c r="B22" s="90">
         <v>45505</v>
       </c>
@@ -8024,7 +8018,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:98">
       <c r="B23" s="14">
         <v>45506</v>
       </c>
@@ -8315,7 +8309,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:98">
       <c r="B24" s="90">
         <v>45507</v>
       </c>
@@ -8460,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:98">
       <c r="B25" s="14">
         <v>45508</v>
       </c>
@@ -8605,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:98">
       <c r="B26" s="90">
         <v>45509</v>
       </c>
@@ -8750,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:98">
       <c r="B27" s="90">
         <v>45510</v>
       </c>
@@ -9041,7 +9035,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="28" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:98">
       <c r="B28" s="90">
         <v>45511</v>
       </c>
@@ -9326,7 +9320,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:98">
       <c r="B29" s="90">
         <v>45512</v>
       </c>
@@ -9611,7 +9605,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:98">
       <c r="B30" s="90">
         <v>45513</v>
       </c>
@@ -9910,7 +9904,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:98">
       <c r="B31" s="90">
         <v>45514</v>
       </c>
@@ -10011,7 +10005,7 @@
       <c r="CS31" s="62"/>
       <c r="CT31" s="71"/>
     </row>
-    <row r="32" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:98">
       <c r="B32" s="90">
         <v>45515</v>
       </c>
@@ -10112,7 +10106,7 @@
       <c r="CS32" s="62"/>
       <c r="CT32" s="71"/>
     </row>
-    <row r="33" spans="2:98" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:98" ht="15.75" thickBot="1">
       <c r="B33" s="14">
         <v>45516</v>
       </c>
@@ -10413,7 +10407,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="34" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:98">
       <c r="B34" s="90">
         <v>45517</v>
       </c>
@@ -10714,7 +10708,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="35" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:98">
       <c r="B35" s="14">
         <v>45518</v>
       </c>
@@ -10842,7 +10836,7 @@
       <c r="CS35" s="62"/>
       <c r="CT35" s="62"/>
     </row>
-    <row r="36" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:98">
       <c r="B36" s="90">
         <v>45519</v>
       </c>
@@ -11141,7 +11135,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:98">
       <c r="B37" s="14">
         <v>45520</v>
       </c>
@@ -11440,7 +11434,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="38" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:98">
       <c r="B38" s="90">
         <v>45521</v>
       </c>
@@ -11541,7 +11535,7 @@
       <c r="CS38" s="18"/>
       <c r="CT38" s="18"/>
     </row>
-    <row r="39" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:98">
       <c r="B39" s="14">
         <v>45522</v>
       </c>
@@ -11642,7 +11636,7 @@
       <c r="CS39" s="18"/>
       <c r="CT39" s="18"/>
     </row>
-    <row r="40" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:98">
       <c r="B40" s="90">
         <v>45523</v>
       </c>
@@ -11943,7 +11937,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="41" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:98">
       <c r="B41" s="14">
         <v>45524</v>
       </c>
@@ -12044,7 +12038,7 @@
       <c r="CS41" s="62"/>
       <c r="CT41" s="62"/>
     </row>
-    <row r="42" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:98">
       <c r="B42" s="90">
         <v>45525</v>
       </c>
@@ -12147,7 +12141,7 @@
       <c r="CS42" s="62"/>
       <c r="CT42" s="62"/>
     </row>
-    <row r="43" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:98">
       <c r="B43" s="14">
         <v>45526</v>
       </c>
@@ -12448,7 +12442,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="44" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:98">
       <c r="B44" s="90">
         <v>45527</v>
       </c>
@@ -12749,7 +12743,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="45" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:98">
       <c r="B45" s="14">
         <v>45528</v>
       </c>
@@ -12850,7 +12844,7 @@
       <c r="CS45" s="18"/>
       <c r="CT45" s="18"/>
     </row>
-    <row r="46" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:98">
       <c r="B46" s="90">
         <v>45529</v>
       </c>
@@ -12951,7 +12945,7 @@
       <c r="CS46" s="18"/>
       <c r="CT46" s="18"/>
     </row>
-    <row r="47" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:98">
       <c r="B47" s="14">
         <v>45530</v>
       </c>
@@ -13252,7 +13246,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="48" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:98">
       <c r="B48" s="90">
         <v>45531</v>
       </c>
@@ -13553,7 +13547,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="49" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:98">
       <c r="B49" s="56">
         <v>45532</v>
       </c>
@@ -13854,7 +13848,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="50" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:98">
       <c r="B50" s="56">
         <v>45533</v>
       </c>
@@ -14155,7 +14149,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="51" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:98">
       <c r="B51" s="56">
         <v>45534</v>
       </c>
@@ -14456,7 +14450,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="52" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:98">
       <c r="B52" s="56">
         <v>45535</v>
       </c>
@@ -14557,7 +14551,7 @@
       <c r="CS52" s="18"/>
       <c r="CT52" s="18"/>
     </row>
-    <row r="53" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:98">
       <c r="B53" s="56">
         <v>45536</v>
       </c>
@@ -14658,7 +14652,7 @@
       <c r="CS53" s="18"/>
       <c r="CT53" s="18"/>
     </row>
-    <row r="54" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:98">
       <c r="B54" s="56">
         <v>45537</v>
       </c>
@@ -14959,7 +14953,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="55" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:98">
       <c r="B55" s="56">
         <v>45538</v>
       </c>
@@ -15260,7 +15254,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="56" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:98">
       <c r="B56" s="56">
         <v>45539</v>
       </c>
@@ -15561,7 +15555,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="57" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:98">
       <c r="B57" s="56">
         <v>45540</v>
       </c>
@@ -15862,7 +15856,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="58" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:98">
       <c r="B58" s="56">
         <v>45541</v>
       </c>
@@ -16163,7 +16157,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="59" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:98">
       <c r="B59" s="56">
         <v>45542</v>
       </c>
@@ -16264,7 +16258,7 @@
       <c r="CS59" s="18"/>
       <c r="CT59" s="18"/>
     </row>
-    <row r="60" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:98">
       <c r="B60" s="56">
         <v>45543</v>
       </c>
@@ -16365,7 +16359,7 @@
       <c r="CS60" s="18"/>
       <c r="CT60" s="18"/>
     </row>
-    <row r="61" spans="2:98" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:98">
       <c r="B61" s="56">
         <v>45544</v>
       </c>
@@ -16668,48 +16662,38 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BS5:BS6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BR5:BR6"/>
-    <mergeCell ref="BW2:CH2"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BX5:BX6"/>
-    <mergeCell ref="CB5:CB6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="AM3:AR4"/>
-    <mergeCell ref="AS3:AX4"/>
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="BK2:BV2"/>
-    <mergeCell ref="AY3:BD4"/>
-    <mergeCell ref="BE3:BJ4"/>
-    <mergeCell ref="BK3:BP4"/>
-    <mergeCell ref="BQ3:BV4"/>
-    <mergeCell ref="CI2:CT2"/>
-    <mergeCell ref="BW3:CB4"/>
-    <mergeCell ref="CC3:CH4"/>
-    <mergeCell ref="CI3:CN4"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CP5:CP6"/>
-    <mergeCell ref="CO3:CT4"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="CO5:CO6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CC5:CC6"/>
-    <mergeCell ref="CQ5:CQ6"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AA3:AF4"/>
-    <mergeCell ref="AG3:AL4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="C3:H4"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="O2:Z2"/>
     <mergeCell ref="O3:T4"/>
@@ -16726,38 +16710,48 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="CT5:CT6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="C3:H4"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AA3:AF4"/>
+    <mergeCell ref="AG3:AL4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="CI2:CT2"/>
+    <mergeCell ref="BW3:CB4"/>
+    <mergeCell ref="CC3:CH4"/>
+    <mergeCell ref="CI3:CN4"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CP5:CP6"/>
+    <mergeCell ref="CO3:CT4"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CN5:CN6"/>
+    <mergeCell ref="CO5:CO6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CC5:CC6"/>
+    <mergeCell ref="CQ5:CQ6"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="AM3:AR4"/>
+    <mergeCell ref="AS3:AX4"/>
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="BK2:BV2"/>
+    <mergeCell ref="AY3:BD4"/>
+    <mergeCell ref="BE3:BJ4"/>
+    <mergeCell ref="BK3:BP4"/>
+    <mergeCell ref="BQ3:BV4"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BS5:BS6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BR5:BR6"/>
+    <mergeCell ref="BW2:CH2"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BX5:BX6"/>
+    <mergeCell ref="CB5:CB6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="BV5:BV6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -16766,17 +16760,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:O63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
@@ -16790,63 +16784,63 @@
     <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="258" t="s">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B4" s="264" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="260" t="s">
+      <c r="C4" s="266" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="262"/>
-      <c r="J4" s="260" t="s">
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="266" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="261"/>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
-      <c r="N4" s="261"/>
-      <c r="O4" s="262"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="259"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="264"/>
-      <c r="L5" s="264"/>
-      <c r="M5" s="264"/>
-      <c r="N5" s="264"/>
-      <c r="O5" s="265"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="259"/>
-      <c r="C6" s="266"/>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="267"/>
-      <c r="L6" s="267"/>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="268"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="255" t="s">
+      <c r="K4" s="267"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="267"/>
+      <c r="O4" s="268"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1">
+      <c r="B5" s="265"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="271"/>
+      <c r="J5" s="269"/>
+      <c r="K5" s="270"/>
+      <c r="L5" s="270"/>
+      <c r="M5" s="270"/>
+      <c r="N5" s="270"/>
+      <c r="O5" s="271"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="265"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="274"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="273"/>
+      <c r="O6" s="274"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="261" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="123" t="s">
@@ -16855,19 +16849,19 @@
       <c r="D7" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="257" t="s">
+      <c r="E7" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="257" t="s">
+      <c r="F7" s="263" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="257" t="s">
+      <c r="G7" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="257" t="s">
+      <c r="H7" s="263" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="254" t="s">
+      <c r="I7" s="260" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="123" t="s">
@@ -16876,44 +16870,44 @@
       <c r="K7" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="257" t="s">
+      <c r="L7" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="257" t="s">
+      <c r="M7" s="263" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="257" t="s">
+      <c r="N7" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="254" t="s">
+      <c r="O7" s="260" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="256"/>
+    <row r="8" spans="2:15" ht="26.25" thickBot="1">
+      <c r="B8" s="262"/>
       <c r="C8" s="128" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="215"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="246"/>
       <c r="J8" s="128" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="205"/>
-      <c r="O8" s="215"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L8" s="242"/>
+      <c r="M8" s="242"/>
+      <c r="N8" s="242"/>
+      <c r="O8" s="246"/>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="102">
         <v>45490</v>
       </c>
@@ -16957,7 +16951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="103">
         <v>45491</v>
       </c>
@@ -17002,7 +16996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="103">
         <v>45492</v>
       </c>
@@ -17047,7 +17041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="103">
         <v>45493</v>
       </c>
@@ -17065,7 +17059,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="103">
         <v>45494</v>
       </c>
@@ -17083,7 +17077,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="103">
         <v>45495</v>
       </c>
@@ -17129,7 +17123,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="103">
         <v>45496</v>
       </c>
@@ -17147,7 +17141,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="103">
         <v>45497</v>
       </c>
@@ -17193,7 +17187,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="103">
         <v>45498</v>
       </c>
@@ -17239,7 +17233,7 @@
         <v>153.4</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="103">
         <v>45499</v>
       </c>
@@ -17257,7 +17251,7 @@
       <c r="N18" s="18"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="103">
         <v>45500</v>
       </c>
@@ -17275,7 +17269,7 @@
       <c r="N19" s="18"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="103">
         <v>45501</v>
       </c>
@@ -17293,7 +17287,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="103">
         <v>45502</v>
       </c>
@@ -17339,7 +17333,7 @@
         <v>143.5</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="103">
         <v>45503</v>
       </c>
@@ -17357,7 +17351,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="15"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="103">
         <v>45504</v>
       </c>
@@ -17403,7 +17397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="103">
         <v>45505</v>
       </c>
@@ -17449,7 +17443,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="103">
         <v>45506</v>
       </c>
@@ -17495,7 +17489,7 @@
         <v>153.30000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="103">
         <v>45507</v>
       </c>
@@ -17519,7 +17513,7 @@
       <c r="N26" s="62"/>
       <c r="O26" s="71"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="103">
         <v>45508</v>
       </c>
@@ -17543,7 +17537,7 @@
       <c r="N27" s="62"/>
       <c r="O27" s="71"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="103">
         <v>45509</v>
       </c>
@@ -17567,7 +17561,7 @@
       <c r="N28" s="62"/>
       <c r="O28" s="71"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="B29" s="103">
         <v>45510</v>
       </c>
@@ -17612,7 +17606,7 @@
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="B30" s="103">
         <v>45511</v>
       </c>
@@ -17657,7 +17651,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="B31" s="103">
         <v>45512</v>
       </c>
@@ -17702,7 +17696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="B32" s="103">
         <v>45513</v>
       </c>
@@ -17747,7 +17741,7 @@
         <v>133.5</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15">
       <c r="B33" s="103">
         <v>45514</v>
       </c>
@@ -17765,7 +17759,7 @@
       <c r="N33" s="62"/>
       <c r="O33" s="71"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15">
       <c r="B34" s="103">
         <v>45515</v>
       </c>
@@ -17783,7 +17777,7 @@
       <c r="N34" s="62"/>
       <c r="O34" s="71"/>
     </row>
-    <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="15.75" thickBot="1">
       <c r="B35" s="104">
         <v>45516</v>
       </c>
@@ -17828,7 +17822,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15">
       <c r="B36" s="103">
         <v>45517</v>
       </c>
@@ -17873,7 +17867,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" ht="15.75" thickBot="1">
       <c r="B37" s="104">
         <v>45518</v>
       </c>
@@ -17891,7 +17885,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="15"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15">
       <c r="B38" s="103">
         <v>45519</v>
       </c>
@@ -17936,7 +17930,7 @@
         <v>132.69999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" ht="15.75" thickBot="1">
       <c r="B39" s="104">
         <v>45520</v>
       </c>
@@ -17981,7 +17975,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15">
       <c r="B40" s="103">
         <v>45521</v>
       </c>
@@ -17999,7 +17993,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" ht="15.75" thickBot="1">
       <c r="B41" s="104">
         <v>45522</v>
       </c>
@@ -18017,7 +18011,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="15"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15">
       <c r="B42" s="103">
         <v>45523</v>
       </c>
@@ -18063,7 +18057,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" ht="15.75" thickBot="1">
       <c r="B43" s="104">
         <v>45524</v>
       </c>
@@ -18081,7 +18075,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="15"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15">
       <c r="B44" s="103">
         <v>45525</v>
       </c>
@@ -18099,7 +18093,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="15"/>
     </row>
-    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" ht="15.75" thickBot="1">
       <c r="B45" s="104">
         <v>45526</v>
       </c>
@@ -18144,7 +18138,7 @@
         <v>131.69999999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15">
       <c r="B46" s="103">
         <v>45527</v>
       </c>
@@ -18189,7 +18183,7 @@
         <v>136.4</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" ht="15.75" thickBot="1">
       <c r="B47" s="104">
         <v>45528</v>
       </c>
@@ -18207,7 +18201,7 @@
       <c r="N47" s="18"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15">
       <c r="B48" s="103">
         <v>45529</v>
       </c>
@@ -18225,7 +18219,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" ht="15.75" thickBot="1">
       <c r="B49" s="104">
         <v>45530</v>
       </c>
@@ -18270,7 +18264,7 @@
         <v>116.2</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15">
       <c r="B50" s="103">
         <v>45531</v>
       </c>
@@ -18314,7 +18308,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15">
       <c r="B51" s="56">
         <v>45532</v>
       </c>
@@ -18359,7 +18353,7 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15">
       <c r="B52" s="56">
         <v>45533</v>
       </c>
@@ -18404,7 +18398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15">
       <c r="B53" s="56">
         <v>45534</v>
       </c>
@@ -18449,7 +18443,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15">
       <c r="B54" s="56">
         <v>45535</v>
       </c>
@@ -18467,7 +18461,7 @@
       <c r="N54" s="18"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15">
       <c r="B55" s="56">
         <v>45536</v>
       </c>
@@ -18485,7 +18479,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15">
       <c r="B56" s="56">
         <v>45537</v>
       </c>
@@ -18530,7 +18524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15">
       <c r="B57" s="56">
         <v>45538</v>
       </c>
@@ -18575,7 +18569,7 @@
         <v>138.30000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15">
       <c r="B58" s="56">
         <v>45539</v>
       </c>
@@ -18620,7 +18614,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15">
       <c r="B59" s="56">
         <v>45540</v>
       </c>
@@ -18665,7 +18659,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15">
       <c r="B60" s="56">
         <v>45541</v>
       </c>
@@ -18710,43 +18704,43 @@
         <v>143.80000000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15">
       <c r="B61" s="56">
         <v>45542</v>
       </c>
-      <c r="C61" s="316"/>
-      <c r="D61" s="316"/>
-      <c r="E61" s="316"/>
-      <c r="F61" s="316"/>
-      <c r="G61" s="316"/>
-      <c r="H61" s="316"/>
-      <c r="I61" s="316"/>
-      <c r="J61" s="316"/>
-      <c r="K61" s="316"/>
-      <c r="L61" s="316"/>
-      <c r="M61" s="316"/>
-      <c r="N61" s="316"/>
-      <c r="O61" s="316"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C61" s="167"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
+      <c r="M61" s="167"/>
+      <c r="N61" s="167"/>
+      <c r="O61" s="167"/>
+    </row>
+    <row r="62" spans="2:15">
       <c r="B62" s="56">
         <v>45543</v>
       </c>
-      <c r="C62" s="316"/>
-      <c r="D62" s="316"/>
-      <c r="E62" s="316"/>
-      <c r="F62" s="316"/>
-      <c r="G62" s="316"/>
-      <c r="H62" s="316"/>
-      <c r="I62" s="316"/>
-      <c r="J62" s="316"/>
-      <c r="K62" s="316"/>
-      <c r="L62" s="316"/>
-      <c r="M62" s="316"/>
-      <c r="N62" s="316"/>
-      <c r="O62" s="316"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="167"/>
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
+      <c r="J62" s="167"/>
+      <c r="K62" s="167"/>
+      <c r="L62" s="167"/>
+      <c r="M62" s="167"/>
+      <c r="N62" s="167"/>
+      <c r="O62" s="167"/>
+    </row>
+    <row r="63" spans="2:15">
       <c r="B63" s="56">
         <v>45544</v>
       </c>
@@ -18812,17 +18806,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:BN61"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="BM62" sqref="BM62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
@@ -18830,522 +18824,522 @@
     <col min="66" max="66" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="298" t="s">
+    <row r="1" spans="2:66" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:66" ht="15.75" thickBot="1">
+      <c r="C2" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="296" t="s">
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="275" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="297"/>
-      <c r="S2" s="296" t="s">
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="276"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="275" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="286"/>
-      <c r="Z2" s="297"/>
-      <c r="AA2" s="298" t="s">
+      <c r="T2" s="276"/>
+      <c r="U2" s="276"/>
+      <c r="V2" s="276"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="276"/>
+      <c r="Y2" s="276"/>
+      <c r="Z2" s="277"/>
+      <c r="AA2" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="299"/>
-      <c r="AC2" s="299"/>
-      <c r="AD2" s="299"/>
-      <c r="AE2" s="299"/>
-      <c r="AF2" s="286"/>
-      <c r="AG2" s="286"/>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="298" t="s">
+      <c r="AB2" s="279"/>
+      <c r="AC2" s="279"/>
+      <c r="AD2" s="279"/>
+      <c r="AE2" s="279"/>
+      <c r="AF2" s="276"/>
+      <c r="AG2" s="276"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="299"/>
-      <c r="AK2" s="299"/>
-      <c r="AL2" s="299"/>
-      <c r="AM2" s="299"/>
-      <c r="AN2" s="286"/>
-      <c r="AO2" s="286"/>
-      <c r="AP2" s="297"/>
-      <c r="AQ2" s="298" t="s">
+      <c r="AJ2" s="279"/>
+      <c r="AK2" s="279"/>
+      <c r="AL2" s="279"/>
+      <c r="AM2" s="279"/>
+      <c r="AN2" s="276"/>
+      <c r="AO2" s="276"/>
+      <c r="AP2" s="277"/>
+      <c r="AQ2" s="278" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="299"/>
-      <c r="AS2" s="299"/>
-      <c r="AT2" s="299"/>
-      <c r="AU2" s="299"/>
-      <c r="AV2" s="286"/>
-      <c r="AW2" s="286"/>
-      <c r="AX2" s="297"/>
-      <c r="AY2" s="296" t="s">
+      <c r="AR2" s="279"/>
+      <c r="AS2" s="279"/>
+      <c r="AT2" s="279"/>
+      <c r="AU2" s="279"/>
+      <c r="AV2" s="276"/>
+      <c r="AW2" s="276"/>
+      <c r="AX2" s="277"/>
+      <c r="AY2" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="AZ2" s="286"/>
-      <c r="BA2" s="286"/>
-      <c r="BB2" s="286"/>
-      <c r="BC2" s="286"/>
-      <c r="BD2" s="286"/>
-      <c r="BE2" s="286"/>
-      <c r="BF2" s="297"/>
-      <c r="BG2" s="298" t="s">
+      <c r="AZ2" s="276"/>
+      <c r="BA2" s="276"/>
+      <c r="BB2" s="276"/>
+      <c r="BC2" s="276"/>
+      <c r="BD2" s="276"/>
+      <c r="BE2" s="276"/>
+      <c r="BF2" s="277"/>
+      <c r="BG2" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="BH2" s="299"/>
-      <c r="BI2" s="299"/>
-      <c r="BJ2" s="299"/>
-      <c r="BK2" s="299"/>
-      <c r="BL2" s="286"/>
-      <c r="BM2" s="286"/>
-      <c r="BN2" s="297"/>
-    </row>
-    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B3" s="178" t="s">
+      <c r="BH2" s="279"/>
+      <c r="BI2" s="279"/>
+      <c r="BJ2" s="279"/>
+      <c r="BK2" s="279"/>
+      <c r="BL2" s="276"/>
+      <c r="BM2" s="276"/>
+      <c r="BN2" s="277"/>
+    </row>
+    <row r="3" spans="2:66">
+      <c r="B3" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="296" t="s">
+      <c r="C3" s="275" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="280" t="s">
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="281"/>
-      <c r="J3" s="284" t="s">
+      <c r="I3" s="283"/>
+      <c r="J3" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="292" t="s">
+      <c r="K3" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="293"/>
-      <c r="P3" s="280" t="s">
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="281"/>
-      <c r="R3" s="284" t="s">
+      <c r="Q3" s="283"/>
+      <c r="R3" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="292" t="s">
+      <c r="S3" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="293"/>
-      <c r="X3" s="280" t="s">
+      <c r="T3" s="283"/>
+      <c r="U3" s="283"/>
+      <c r="V3" s="283"/>
+      <c r="W3" s="289"/>
+      <c r="X3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="284" t="s">
+      <c r="Y3" s="283"/>
+      <c r="Z3" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="286" t="s">
+      <c r="AA3" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="286"/>
-      <c r="AC3" s="286"/>
-      <c r="AD3" s="286"/>
-      <c r="AE3" s="286"/>
-      <c r="AF3" s="280" t="s">
+      <c r="AB3" s="276"/>
+      <c r="AC3" s="276"/>
+      <c r="AD3" s="276"/>
+      <c r="AE3" s="276"/>
+      <c r="AF3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="281"/>
-      <c r="AH3" s="284" t="s">
+      <c r="AG3" s="283"/>
+      <c r="AH3" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="286" t="s">
+      <c r="AI3" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="AJ3" s="286"/>
-      <c r="AK3" s="286"/>
-      <c r="AL3" s="286"/>
-      <c r="AM3" s="286"/>
-      <c r="AN3" s="280" t="s">
+      <c r="AJ3" s="276"/>
+      <c r="AK3" s="276"/>
+      <c r="AL3" s="276"/>
+      <c r="AM3" s="276"/>
+      <c r="AN3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="AO3" s="281"/>
-      <c r="AP3" s="284" t="s">
+      <c r="AO3" s="283"/>
+      <c r="AP3" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AQ3" s="286" t="s">
+      <c r="AQ3" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="AR3" s="286"/>
-      <c r="AS3" s="286"/>
-      <c r="AT3" s="286"/>
-      <c r="AU3" s="286"/>
-      <c r="AV3" s="280" t="s">
+      <c r="AR3" s="276"/>
+      <c r="AS3" s="276"/>
+      <c r="AT3" s="276"/>
+      <c r="AU3" s="276"/>
+      <c r="AV3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="AW3" s="281"/>
-      <c r="AX3" s="284" t="s">
+      <c r="AW3" s="283"/>
+      <c r="AX3" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="AY3" s="292" t="s">
+      <c r="AY3" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="AZ3" s="281"/>
-      <c r="BA3" s="281"/>
-      <c r="BB3" s="281"/>
-      <c r="BC3" s="293"/>
-      <c r="BD3" s="280" t="s">
+      <c r="AZ3" s="283"/>
+      <c r="BA3" s="283"/>
+      <c r="BB3" s="283"/>
+      <c r="BC3" s="289"/>
+      <c r="BD3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="BE3" s="281"/>
-      <c r="BF3" s="284" t="s">
+      <c r="BE3" s="283"/>
+      <c r="BF3" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="BG3" s="286" t="s">
+      <c r="BG3" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="BH3" s="286"/>
-      <c r="BI3" s="286"/>
-      <c r="BJ3" s="286"/>
-      <c r="BK3" s="286"/>
-      <c r="BL3" s="280" t="s">
+      <c r="BH3" s="276"/>
+      <c r="BI3" s="276"/>
+      <c r="BJ3" s="276"/>
+      <c r="BK3" s="276"/>
+      <c r="BL3" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="BM3" s="281"/>
-      <c r="BN3" s="284" t="s">
+      <c r="BM3" s="283"/>
+      <c r="BN3" s="286" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="212"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="287"/>
-      <c r="E4" s="287"/>
-      <c r="F4" s="287"/>
-      <c r="G4" s="287"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="302"/>
-      <c r="M4" s="302"/>
-      <c r="N4" s="302"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="283"/>
-      <c r="R4" s="285"/>
-      <c r="S4" s="294"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="295"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="285"/>
-      <c r="AA4" s="287"/>
-      <c r="AB4" s="287"/>
-      <c r="AC4" s="287"/>
-      <c r="AD4" s="287"/>
-      <c r="AE4" s="287"/>
-      <c r="AF4" s="282"/>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="285"/>
-      <c r="AI4" s="287"/>
-      <c r="AJ4" s="287"/>
-      <c r="AK4" s="287"/>
-      <c r="AL4" s="287"/>
-      <c r="AM4" s="287"/>
-      <c r="AN4" s="282"/>
-      <c r="AO4" s="283"/>
-      <c r="AP4" s="285"/>
-      <c r="AQ4" s="287"/>
-      <c r="AR4" s="287"/>
-      <c r="AS4" s="287"/>
-      <c r="AT4" s="287"/>
-      <c r="AU4" s="287"/>
-      <c r="AV4" s="282"/>
-      <c r="AW4" s="283"/>
-      <c r="AX4" s="285"/>
-      <c r="AY4" s="294"/>
-      <c r="AZ4" s="283"/>
-      <c r="BA4" s="283"/>
-      <c r="BB4" s="283"/>
-      <c r="BC4" s="295"/>
-      <c r="BD4" s="282"/>
-      <c r="BE4" s="283"/>
-      <c r="BF4" s="285"/>
-      <c r="BG4" s="287"/>
-      <c r="BH4" s="287"/>
-      <c r="BI4" s="287"/>
-      <c r="BJ4" s="287"/>
-      <c r="BK4" s="287"/>
-      <c r="BL4" s="282"/>
-      <c r="BM4" s="283"/>
-      <c r="BN4" s="285"/>
-    </row>
-    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B5" s="213" t="s">
+    <row r="4" spans="2:66" ht="15.75" thickBot="1">
+      <c r="B4" s="258"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="291"/>
+      <c r="N4" s="291"/>
+      <c r="O4" s="292"/>
+      <c r="P4" s="284"/>
+      <c r="Q4" s="285"/>
+      <c r="R4" s="287"/>
+      <c r="S4" s="293"/>
+      <c r="T4" s="285"/>
+      <c r="U4" s="285"/>
+      <c r="V4" s="285"/>
+      <c r="W4" s="294"/>
+      <c r="X4" s="284"/>
+      <c r="Y4" s="285"/>
+      <c r="Z4" s="287"/>
+      <c r="AA4" s="281"/>
+      <c r="AB4" s="281"/>
+      <c r="AC4" s="281"/>
+      <c r="AD4" s="281"/>
+      <c r="AE4" s="281"/>
+      <c r="AF4" s="284"/>
+      <c r="AG4" s="285"/>
+      <c r="AH4" s="287"/>
+      <c r="AI4" s="281"/>
+      <c r="AJ4" s="281"/>
+      <c r="AK4" s="281"/>
+      <c r="AL4" s="281"/>
+      <c r="AM4" s="281"/>
+      <c r="AN4" s="284"/>
+      <c r="AO4" s="285"/>
+      <c r="AP4" s="287"/>
+      <c r="AQ4" s="281"/>
+      <c r="AR4" s="281"/>
+      <c r="AS4" s="281"/>
+      <c r="AT4" s="281"/>
+      <c r="AU4" s="281"/>
+      <c r="AV4" s="284"/>
+      <c r="AW4" s="285"/>
+      <c r="AX4" s="287"/>
+      <c r="AY4" s="293"/>
+      <c r="AZ4" s="285"/>
+      <c r="BA4" s="285"/>
+      <c r="BB4" s="285"/>
+      <c r="BC4" s="294"/>
+      <c r="BD4" s="284"/>
+      <c r="BE4" s="285"/>
+      <c r="BF4" s="287"/>
+      <c r="BG4" s="281"/>
+      <c r="BH4" s="281"/>
+      <c r="BI4" s="281"/>
+      <c r="BJ4" s="281"/>
+      <c r="BK4" s="281"/>
+      <c r="BL4" s="284"/>
+      <c r="BM4" s="285"/>
+      <c r="BN4" s="287"/>
+    </row>
+    <row r="5" spans="2:66">
+      <c r="B5" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="201" t="s">
+      <c r="C5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="200" t="s">
+      <c r="E5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="201" t="s">
+      <c r="F5" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="271" t="s">
+      <c r="G5" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="201" t="s">
+      <c r="H5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="285"/>
-      <c r="K5" s="274" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="276" t="s">
+      <c r="J5" s="287"/>
+      <c r="K5" s="306" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="276" t="s">
+      <c r="M5" s="307" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="277" t="s">
+      <c r="N5" s="308" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="278" t="s">
+      <c r="O5" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="201" t="s">
+      <c r="P5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="285"/>
-      <c r="S5" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="200" t="s">
+      <c r="R5" s="287"/>
+      <c r="S5" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="200" t="s">
+      <c r="U5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="201" t="s">
+      <c r="V5" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="271" t="s">
+      <c r="W5" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="201" t="s">
+      <c r="X5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="285"/>
-      <c r="AA5" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="200" t="s">
+      <c r="Z5" s="287"/>
+      <c r="AA5" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="200" t="s">
+      <c r="AC5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="201" t="s">
+      <c r="AD5" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="AE5" s="271" t="s">
+      <c r="AE5" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="201" t="s">
+      <c r="AF5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AH5" s="285"/>
-      <c r="AI5" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="200" t="s">
+      <c r="AH5" s="287"/>
+      <c r="AI5" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="AK5" s="200" t="s">
+      <c r="AK5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="201" t="s">
+      <c r="AL5" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="AM5" s="271" t="s">
+      <c r="AM5" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="AN5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="201" t="s">
+      <c r="AN5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AP5" s="285"/>
-      <c r="AQ5" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="200" t="s">
+      <c r="AP5" s="287"/>
+      <c r="AQ5" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="AS5" s="200" t="s">
+      <c r="AS5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AT5" s="285" t="s">
+      <c r="AT5" s="287" t="s">
         <v>36</v>
       </c>
-      <c r="AU5" s="271" t="s">
+      <c r="AU5" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="AV5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="201" t="s">
+      <c r="AV5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="AX5" s="285"/>
-      <c r="AY5" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="201" t="s">
+      <c r="AX5" s="287"/>
+      <c r="AY5" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="BA5" s="200" t="s">
+      <c r="BA5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="BB5" s="201" t="s">
+      <c r="BB5" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="BC5" s="271" t="s">
+      <c r="BC5" s="297" t="s">
         <v>83</v>
       </c>
-      <c r="BD5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="201" t="s">
+      <c r="BD5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="BF5" s="285"/>
-      <c r="BG5" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="200" t="s">
+      <c r="BF5" s="287"/>
+      <c r="BG5" s="299" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="BI5" s="200" t="s">
+      <c r="BI5" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="BJ5" s="285" t="s">
+      <c r="BJ5" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="BK5" s="289" t="s">
+      <c r="BK5" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="BL5" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="201" t="s">
+      <c r="BL5" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="BN5" s="285"/>
-    </row>
-    <row r="6" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="213"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="269"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="272"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="275"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="270"/>
-      <c r="O6" s="272"/>
-      <c r="P6" s="273"/>
-      <c r="Q6" s="201"/>
-      <c r="R6" s="285"/>
-      <c r="S6" s="275"/>
-      <c r="T6" s="269"/>
-      <c r="U6" s="269"/>
-      <c r="V6" s="270"/>
-      <c r="W6" s="272"/>
-      <c r="X6" s="273"/>
-      <c r="Y6" s="201"/>
-      <c r="Z6" s="285"/>
-      <c r="AA6" s="275"/>
-      <c r="AB6" s="269"/>
-      <c r="AC6" s="269"/>
-      <c r="AD6" s="270"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="273"/>
-      <c r="AG6" s="201"/>
-      <c r="AH6" s="285"/>
-      <c r="AI6" s="275"/>
-      <c r="AJ6" s="269"/>
-      <c r="AK6" s="269"/>
-      <c r="AL6" s="270"/>
-      <c r="AM6" s="272"/>
-      <c r="AN6" s="273"/>
-      <c r="AO6" s="201"/>
-      <c r="AP6" s="285"/>
-      <c r="AQ6" s="275"/>
-      <c r="AR6" s="269"/>
-      <c r="AS6" s="269"/>
-      <c r="AT6" s="288"/>
-      <c r="AU6" s="272"/>
-      <c r="AV6" s="273"/>
-      <c r="AW6" s="201"/>
-      <c r="AX6" s="285"/>
-      <c r="AY6" s="275"/>
-      <c r="AZ6" s="270"/>
-      <c r="BA6" s="269"/>
-      <c r="BB6" s="270"/>
-      <c r="BC6" s="272"/>
-      <c r="BD6" s="273"/>
-      <c r="BE6" s="201"/>
-      <c r="BF6" s="285"/>
-      <c r="BG6" s="275"/>
-      <c r="BH6" s="269"/>
-      <c r="BI6" s="269"/>
-      <c r="BJ6" s="288"/>
-      <c r="BK6" s="290"/>
-      <c r="BL6" s="273"/>
-      <c r="BM6" s="201"/>
-      <c r="BN6" s="285"/>
-    </row>
-    <row r="7" spans="2:66" ht="45" x14ac:dyDescent="0.25">
+      <c r="BN5" s="287"/>
+    </row>
+    <row r="6" spans="2:66" ht="15.75" thickBot="1">
+      <c r="B6" s="259"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="296"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="296"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="295"/>
+      <c r="M6" s="295"/>
+      <c r="N6" s="296"/>
+      <c r="O6" s="298"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="178"/>
+      <c r="R6" s="287"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="295"/>
+      <c r="U6" s="295"/>
+      <c r="V6" s="296"/>
+      <c r="W6" s="298"/>
+      <c r="X6" s="301"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="287"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="295"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="296"/>
+      <c r="AE6" s="298"/>
+      <c r="AF6" s="301"/>
+      <c r="AG6" s="178"/>
+      <c r="AH6" s="287"/>
+      <c r="AI6" s="300"/>
+      <c r="AJ6" s="295"/>
+      <c r="AK6" s="295"/>
+      <c r="AL6" s="296"/>
+      <c r="AM6" s="298"/>
+      <c r="AN6" s="301"/>
+      <c r="AO6" s="178"/>
+      <c r="AP6" s="287"/>
+      <c r="AQ6" s="300"/>
+      <c r="AR6" s="295"/>
+      <c r="AS6" s="295"/>
+      <c r="AT6" s="302"/>
+      <c r="AU6" s="298"/>
+      <c r="AV6" s="301"/>
+      <c r="AW6" s="178"/>
+      <c r="AX6" s="287"/>
+      <c r="AY6" s="300"/>
+      <c r="AZ6" s="296"/>
+      <c r="BA6" s="295"/>
+      <c r="BB6" s="296"/>
+      <c r="BC6" s="298"/>
+      <c r="BD6" s="301"/>
+      <c r="BE6" s="178"/>
+      <c r="BF6" s="287"/>
+      <c r="BG6" s="300"/>
+      <c r="BH6" s="295"/>
+      <c r="BI6" s="295"/>
+      <c r="BJ6" s="302"/>
+      <c r="BK6" s="305"/>
+      <c r="BL6" s="301"/>
+      <c r="BM6" s="178"/>
+      <c r="BN6" s="287"/>
+    </row>
+    <row r="7" spans="2:66" ht="45">
       <c r="B7" s="102">
         <v>45490</v>
       </c>
@@ -19470,7 +19464,7 @@
       <c r="BM7" s="18"/>
       <c r="BN7" s="15"/>
     </row>
-    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:66">
       <c r="B8" s="103">
         <v>45491</v>
       </c>
@@ -19633,7 +19627,7 @@
       </c>
       <c r="BN8" s="15"/>
     </row>
-    <row r="9" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:66" ht="15.75" thickBot="1">
       <c r="B9" s="104">
         <v>45492</v>
       </c>
@@ -19798,7 +19792,7 @@
       </c>
       <c r="BN9" s="15"/>
     </row>
-    <row r="10" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:66" ht="15.75" thickBot="1">
       <c r="B10" s="104">
         <v>45493</v>
       </c>
@@ -19867,7 +19861,7 @@
       <c r="BM10" s="18"/>
       <c r="BN10" s="15"/>
     </row>
-    <row r="11" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:66" ht="15.75" thickBot="1">
       <c r="B11" s="104">
         <v>45494</v>
       </c>
@@ -19936,7 +19930,7 @@
       <c r="BM11" s="18"/>
       <c r="BN11" s="15"/>
     </row>
-    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:66">
       <c r="B12" s="106">
         <v>45495</v>
       </c>
@@ -20101,7 +20095,7 @@
       </c>
       <c r="BN12" s="15"/>
     </row>
-    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:66">
       <c r="B13" s="106">
         <v>45496</v>
       </c>
@@ -20170,7 +20164,7 @@
       <c r="BM13" s="18"/>
       <c r="BN13" s="15"/>
     </row>
-    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:66">
       <c r="B14" s="103">
         <v>45497</v>
       </c>
@@ -20335,7 +20329,7 @@
       </c>
       <c r="BN14" s="15"/>
     </row>
-    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:66">
       <c r="B15" s="103">
         <v>45498</v>
       </c>
@@ -20516,7 +20510,7 @@
       </c>
       <c r="BN15" s="15"/>
     </row>
-    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:66">
       <c r="B16" s="103">
         <v>45499</v>
       </c>
@@ -20585,7 +20579,7 @@
       <c r="BM16" s="18"/>
       <c r="BN16" s="15"/>
     </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:66">
       <c r="B17" s="103">
         <v>45500</v>
       </c>
@@ -20654,7 +20648,7 @@
       <c r="BM17" s="18"/>
       <c r="BN17" s="15"/>
     </row>
-    <row r="18" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:66">
       <c r="B18" s="103">
         <v>45501</v>
       </c>
@@ -20723,7 +20717,7 @@
       <c r="BM18" s="18"/>
       <c r="BN18" s="15"/>
     </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:66">
       <c r="B19" s="103">
         <v>45502</v>
       </c>
@@ -20904,7 +20898,7 @@
       </c>
       <c r="BN19" s="15"/>
     </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:66">
       <c r="B20" s="103">
         <v>45503</v>
       </c>
@@ -20973,7 +20967,7 @@
       <c r="BM20" s="91"/>
       <c r="BN20" s="99"/>
     </row>
-    <row r="21" spans="2:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:66" ht="15.75" thickBot="1">
       <c r="B21" s="104">
         <v>45504</v>
       </c>
@@ -21148,7 +21142,7 @@
       </c>
       <c r="BN21" s="16"/>
     </row>
-    <row r="22" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:66">
       <c r="B22" s="44">
         <v>45505</v>
       </c>
@@ -21329,7 +21323,7 @@
       </c>
       <c r="BN22" s="108"/>
     </row>
-    <row r="23" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:66">
       <c r="B23" s="14">
         <v>45506</v>
       </c>
@@ -21512,7 +21506,7 @@
       </c>
       <c r="BN23" s="62"/>
     </row>
-    <row r="24" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:66">
       <c r="B24" s="14">
         <v>45507</v>
       </c>
@@ -21581,7 +21575,7 @@
       <c r="BM24" s="62"/>
       <c r="BN24" s="62"/>
     </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:66">
       <c r="B25" s="14">
         <v>45508</v>
       </c>
@@ -21650,7 +21644,7 @@
       <c r="BM25" s="62"/>
       <c r="BN25" s="62"/>
     </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:66">
       <c r="B26" s="14">
         <v>45509</v>
       </c>
@@ -21719,7 +21713,7 @@
       <c r="BM26" s="62"/>
       <c r="BN26" s="62"/>
     </row>
-    <row r="27" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:66">
       <c r="B27" s="56">
         <v>45510</v>
       </c>
@@ -21902,7 +21896,7 @@
       </c>
       <c r="BN27" s="18"/>
     </row>
-    <row r="28" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:66">
       <c r="B28" s="14">
         <v>45511</v>
       </c>
@@ -22085,7 +22079,7 @@
       </c>
       <c r="BN28" s="18"/>
     </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:66">
       <c r="B29" s="56">
         <v>45512</v>
       </c>
@@ -22268,7 +22262,7 @@
       </c>
       <c r="BN29" s="18"/>
     </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:66">
       <c r="B30" s="14">
         <v>45513</v>
       </c>
@@ -22449,7 +22443,7 @@
       </c>
       <c r="BN30" s="62"/>
     </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:66">
       <c r="B31" s="14">
         <v>45514</v>
       </c>
@@ -22534,7 +22528,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:66">
       <c r="B32" s="14">
         <v>45515</v>
       </c>
@@ -22619,7 +22613,7 @@
       <c r="BM32" s="62"/>
       <c r="BN32" s="62"/>
     </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:66">
       <c r="B33" s="14">
         <v>45516</v>
       </c>
@@ -22802,7 +22796,7 @@
       </c>
       <c r="BN33" s="18"/>
     </row>
-    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:66">
       <c r="B34" s="14">
         <v>45517</v>
       </c>
@@ -22983,7 +22977,7 @@
       </c>
       <c r="BN34" s="18"/>
     </row>
-    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:66">
       <c r="B35" s="14">
         <v>45518</v>
       </c>
@@ -23052,7 +23046,7 @@
       <c r="BM35" s="18"/>
       <c r="BN35" s="18"/>
     </row>
-    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:66">
       <c r="B36" s="14">
         <v>45519</v>
       </c>
@@ -23235,7 +23229,7 @@
       </c>
       <c r="BN36" s="18"/>
     </row>
-    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:66">
       <c r="B37" s="14">
         <v>45520</v>
       </c>
@@ -23416,7 +23410,7 @@
       </c>
       <c r="BN37" s="18"/>
     </row>
-    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:66">
       <c r="B38" s="14">
         <v>45521</v>
       </c>
@@ -23485,7 +23479,7 @@
       <c r="BM38" s="18"/>
       <c r="BN38" s="18"/>
     </row>
-    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:66">
       <c r="B39" s="14">
         <v>45522</v>
       </c>
@@ -23554,7 +23548,7 @@
       <c r="BM39" s="18"/>
       <c r="BN39" s="18"/>
     </row>
-    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:66">
       <c r="B40" s="14">
         <v>45523</v>
       </c>
@@ -23735,7 +23729,7 @@
       </c>
       <c r="BN40" s="18"/>
     </row>
-    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:66">
       <c r="B41" s="14">
         <v>45524</v>
       </c>
@@ -23804,7 +23798,7 @@
       <c r="BM41" s="62"/>
       <c r="BN41" s="62"/>
     </row>
-    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:66">
       <c r="B42" s="14">
         <v>45525</v>
       </c>
@@ -23873,7 +23867,7 @@
       <c r="BM42" s="18"/>
       <c r="BN42" s="18"/>
     </row>
-    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:66">
       <c r="B43" s="14">
         <v>45526</v>
       </c>
@@ -24054,7 +24048,7 @@
       </c>
       <c r="BN43" s="18"/>
     </row>
-    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:66">
       <c r="B44" s="14">
         <v>45527</v>
       </c>
@@ -24237,7 +24231,7 @@
       </c>
       <c r="BN44" s="18"/>
     </row>
-    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:66">
       <c r="B45" s="14">
         <v>45528</v>
       </c>
@@ -24306,7 +24300,7 @@
       <c r="BM45" s="18"/>
       <c r="BN45" s="18"/>
     </row>
-    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:66">
       <c r="B46" s="14">
         <v>45529</v>
       </c>
@@ -24375,7 +24369,7 @@
       <c r="BM46" s="18"/>
       <c r="BN46" s="18"/>
     </row>
-    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:66">
       <c r="B47" s="14">
         <v>45530</v>
       </c>
@@ -24556,7 +24550,7 @@
       </c>
       <c r="BN47" s="18"/>
     </row>
-    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:66">
       <c r="B48" s="14">
         <v>45531</v>
       </c>
@@ -24731,7 +24725,7 @@
       </c>
       <c r="BN48" s="18"/>
     </row>
-    <row r="49" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:66">
       <c r="B49" s="14">
         <v>45532</v>
       </c>
@@ -24901,7 +24895,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:66">
       <c r="B50" s="14">
         <v>45533</v>
       </c>
@@ -25078,7 +25072,7 @@
       </c>
       <c r="BN50" s="18"/>
     </row>
-    <row r="51" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:66">
       <c r="B51" s="14">
         <v>45534</v>
       </c>
@@ -25257,7 +25251,7 @@
       </c>
       <c r="BN51" s="18"/>
     </row>
-    <row r="52" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:66">
       <c r="B52" s="14">
         <v>45535</v>
       </c>
@@ -25342,7 +25336,7 @@
       <c r="BM52" s="18"/>
       <c r="BN52" s="18"/>
     </row>
-    <row r="53" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:66">
       <c r="B53" s="14">
         <v>45536</v>
       </c>
@@ -25427,7 +25421,7 @@
       <c r="BM53" s="18"/>
       <c r="BN53" s="18"/>
     </row>
-    <row r="54" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:66">
       <c r="B54" s="14">
         <v>45537</v>
       </c>
@@ -25606,7 +25600,7 @@
       </c>
       <c r="BN54" s="18"/>
     </row>
-    <row r="55" spans="2:66" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:66" ht="23.25">
       <c r="B55" s="14">
         <v>45538</v>
       </c>
@@ -25791,7 +25785,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="2:66" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:66" ht="22.5">
       <c r="B56" s="14">
         <v>45539</v>
       </c>
@@ -25970,7 +25964,7 @@
       </c>
       <c r="BN56" s="18"/>
     </row>
-    <row r="57" spans="2:66" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:66" ht="22.5">
       <c r="B57" s="14">
         <v>45540</v>
       </c>
@@ -26149,7 +26143,7 @@
       </c>
       <c r="BN57" s="18"/>
     </row>
-    <row r="58" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:66">
       <c r="B58" s="14">
         <v>45541</v>
       </c>
@@ -26326,7 +26320,7 @@
       </c>
       <c r="BN58" s="18"/>
     </row>
-    <row r="59" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:66">
       <c r="B59" s="14">
         <v>45542</v>
       </c>
@@ -26395,7 +26389,7 @@
       <c r="BM59" s="18"/>
       <c r="BN59" s="18"/>
     </row>
-    <row r="60" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:66">
       <c r="B60" s="14">
         <v>45543</v>
       </c>
@@ -26464,7 +26458,7 @@
       <c r="BM60" s="18"/>
       <c r="BN60" s="18"/>
     </row>
-    <row r="61" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:66">
       <c r="B61" s="14">
         <v>45544</v>
       </c>
@@ -26643,6 +26637,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="BD3:BE4"/>
+    <mergeCell ref="BF3:BF6"/>
+    <mergeCell ref="BG3:BK4"/>
+    <mergeCell ref="BL3:BM4"/>
+    <mergeCell ref="BN3:BN6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="AN3:AO4"/>
+    <mergeCell ref="AP3:AP6"/>
+    <mergeCell ref="AQ3:AU4"/>
+    <mergeCell ref="AV3:AW4"/>
+    <mergeCell ref="AX3:AX6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AY3:BC4"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="AH3:AH6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AI3:AM4"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AM5:AM6"/>
     <mergeCell ref="AY2:BF2"/>
     <mergeCell ref="BG2:BN2"/>
     <mergeCell ref="B3:B4"/>
@@ -26659,80 +26727,6 @@
     <mergeCell ref="AA2:AH2"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="AQ2:AX2"/>
-    <mergeCell ref="AI3:AM4"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="AH3:AH6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AY3:BC4"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="AN3:AO4"/>
-    <mergeCell ref="AP3:AP6"/>
-    <mergeCell ref="AQ3:AU4"/>
-    <mergeCell ref="AV3:AW4"/>
-    <mergeCell ref="AX3:AX6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="BD3:BE4"/>
-    <mergeCell ref="BF3:BF6"/>
-    <mergeCell ref="BG3:BK4"/>
-    <mergeCell ref="BL3:BM4"/>
-    <mergeCell ref="BN3:BN6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -26741,17 +26735,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.7109375" customWidth="1"/>
@@ -26780,149 +26774,149 @@
     <col min="31" max="31" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="178" t="s">
+    <row r="1" spans="2:31" ht="14.25" customHeight="1"/>
+    <row r="2" spans="2:31" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:31" ht="15.75" customHeight="1">
+      <c r="B3" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="247" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="229" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="313"/>
+      <c r="L3" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="230"/>
-      <c r="N3" s="230"/>
-      <c r="O3" s="231"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="249"/>
       <c r="P3" s="239" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="229" t="s">
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="234"/>
+      <c r="V3" s="317"/>
+      <c r="W3" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="230"/>
-      <c r="AB3" s="230"/>
-      <c r="AC3" s="231"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="248"/>
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="249"/>
       <c r="AD3" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="218"/>
-    </row>
-    <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="212"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="233"/>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233"/>
-      <c r="J4" s="233"/>
-      <c r="K4" s="308"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="233"/>
-      <c r="N4" s="233"/>
-      <c r="O4" s="234"/>
+      <c r="AE3" s="235"/>
+    </row>
+    <row r="4" spans="2:31" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="258"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="250"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="251"/>
+      <c r="O4" s="252"/>
       <c r="P4" s="240"/>
-      <c r="Q4" s="220"/>
-      <c r="R4" s="220"/>
-      <c r="S4" s="220"/>
-      <c r="T4" s="220"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="312"/>
-      <c r="W4" s="232"/>
-      <c r="X4" s="233"/>
-      <c r="Y4" s="233"/>
-      <c r="Z4" s="233"/>
-      <c r="AA4" s="233"/>
-      <c r="AB4" s="233"/>
-      <c r="AC4" s="234"/>
+      <c r="Q4" s="237"/>
+      <c r="R4" s="237"/>
+      <c r="S4" s="237"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="237"/>
+      <c r="V4" s="318"/>
+      <c r="W4" s="250"/>
+      <c r="X4" s="251"/>
+      <c r="Y4" s="251"/>
+      <c r="Z4" s="251"/>
+      <c r="AA4" s="251"/>
+      <c r="AB4" s="251"/>
+      <c r="AC4" s="252"/>
       <c r="AD4" s="240"/>
-      <c r="AE4" s="221"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE4" s="238"/>
+    </row>
+    <row r="5" spans="2:31">
       <c r="B5" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="309" t="s">
+      <c r="C5" s="315" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
-      <c r="H5" s="314" t="s">
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="315"/>
-      <c r="J5" s="305" t="s">
+      <c r="I5" s="321"/>
+      <c r="J5" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="306" t="s">
+      <c r="K5" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="304" t="s">
+      <c r="L5" s="311" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="304"/>
-      <c r="N5" s="305" t="s">
+      <c r="M5" s="311"/>
+      <c r="N5" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="305" t="s">
+      <c r="O5" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="313" t="s">
+      <c r="P5" s="319" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="313"/>
-      <c r="R5" s="313"/>
-      <c r="S5" s="313"/>
-      <c r="T5" s="313"/>
-      <c r="U5" s="305" t="s">
+      <c r="Q5" s="319"/>
+      <c r="R5" s="319"/>
+      <c r="S5" s="319"/>
+      <c r="T5" s="319"/>
+      <c r="U5" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="304" t="s">
+      <c r="V5" s="311" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="304" t="s">
+      <c r="W5" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="304"/>
-      <c r="Y5" s="304"/>
-      <c r="Z5" s="304"/>
-      <c r="AA5" s="304"/>
-      <c r="AB5" s="305" t="s">
+      <c r="X5" s="311"/>
+      <c r="Y5" s="311"/>
+      <c r="Z5" s="311"/>
+      <c r="AA5" s="311"/>
+      <c r="AB5" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="305" t="s">
+      <c r="AC5" s="310" t="s">
         <v>5</v>
       </c>
-      <c r="AD5" s="305" t="s">
+      <c r="AD5" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="304" t="s">
+      <c r="AE5" s="311" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" ht="15.75" thickBot="1">
       <c r="B6" s="54"/>
       <c r="C6" s="66" t="s">
         <v>69</v>
@@ -26945,16 +26939,16 @@
       <c r="I6" s="65">
         <v>2</v>
       </c>
-      <c r="J6" s="305"/>
-      <c r="K6" s="306"/>
+      <c r="J6" s="310"/>
+      <c r="K6" s="312"/>
       <c r="L6" s="64" t="s">
         <v>69</v>
       </c>
       <c r="M6" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="305"/>
-      <c r="O6" s="305"/>
+      <c r="N6" s="310"/>
+      <c r="O6" s="310"/>
       <c r="P6" s="72" t="s">
         <v>69</v>
       </c>
@@ -26970,8 +26964,8 @@
       <c r="T6" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="U6" s="305"/>
-      <c r="V6" s="304"/>
+      <c r="U6" s="310"/>
+      <c r="V6" s="311"/>
       <c r="W6" s="64" t="s">
         <v>69</v>
       </c>
@@ -26987,12 +26981,12 @@
       <c r="AA6" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="AB6" s="305"/>
-      <c r="AC6" s="305"/>
-      <c r="AD6" s="305"/>
-      <c r="AE6" s="304"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AB6" s="310"/>
+      <c r="AC6" s="310"/>
+      <c r="AD6" s="310"/>
+      <c r="AE6" s="311"/>
+    </row>
+    <row r="7" spans="2:31">
       <c r="B7" s="27">
         <v>45490</v>
       </c>
@@ -27072,7 +27066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:31" ht="25.5">
       <c r="B8" s="28">
         <v>45491</v>
       </c>
@@ -27156,7 +27150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31">
       <c r="B9" s="28">
         <v>45492</v>
       </c>
@@ -27240,7 +27234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31">
       <c r="B10" s="28">
         <v>45493</v>
       </c>
@@ -27274,7 +27268,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="63"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31">
       <c r="B11" s="28">
         <v>45494</v>
       </c>
@@ -27308,7 +27302,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="63"/>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31">
       <c r="B12" s="28">
         <v>45495</v>
       </c>
@@ -27392,7 +27386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31">
       <c r="B13" s="28">
         <v>45496</v>
       </c>
@@ -27426,7 +27420,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="63"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31">
       <c r="B14" s="28">
         <v>45497</v>
       </c>
@@ -27514,7 +27508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31">
       <c r="B15" s="28">
         <v>45498</v>
       </c>
@@ -27602,7 +27596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31">
       <c r="B16" s="28">
         <v>45499</v>
       </c>
@@ -27636,7 +27630,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="63"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31">
       <c r="B17" s="28">
         <v>45500</v>
       </c>
@@ -27670,7 +27664,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="63"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31">
       <c r="B18" s="28">
         <v>45501</v>
       </c>
@@ -27704,7 +27698,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="63"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31">
       <c r="B19" s="28">
         <v>45502</v>
       </c>
@@ -27792,7 +27786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31">
       <c r="B20" s="28">
         <v>45503</v>
       </c>
@@ -27826,7 +27820,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="63"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31">
       <c r="B21" s="28">
         <v>45504</v>
       </c>
@@ -27914,7 +27908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31">
       <c r="B22" s="28">
         <v>45505</v>
       </c>
@@ -28002,7 +27996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31">
       <c r="B23" s="28">
         <v>45506</v>
       </c>
@@ -28090,7 +28084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31">
       <c r="B24" s="28">
         <v>45507</v>
       </c>
@@ -28132,7 +28126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31">
       <c r="B25" s="28">
         <v>45508</v>
       </c>
@@ -28174,7 +28168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31">
       <c r="B26" s="28">
         <v>45509</v>
       </c>
@@ -28230,7 +28224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31">
       <c r="B27" s="28">
         <v>45510</v>
       </c>
@@ -28322,7 +28316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31">
       <c r="B28" s="28">
         <v>45511</v>
       </c>
@@ -28414,7 +28408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31">
       <c r="B29" s="56">
         <v>45512</v>
       </c>
@@ -28506,7 +28500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31">
       <c r="B30" s="56">
         <v>45513</v>
       </c>
@@ -28598,7 +28592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31">
       <c r="B31" s="56">
         <v>45514</v>
       </c>
@@ -28632,7 +28626,7 @@
       <c r="AD31" s="62"/>
       <c r="AE31" s="62"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31">
       <c r="B32" s="56">
         <v>45515</v>
       </c>
@@ -28666,7 +28660,7 @@
       <c r="AD32" s="62"/>
       <c r="AE32" s="62"/>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31">
       <c r="B33" s="56">
         <v>45516</v>
       </c>
@@ -28756,7 +28750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31">
       <c r="B34" s="56">
         <v>45517</v>
       </c>
@@ -28848,7 +28842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31">
       <c r="B35" s="56">
         <v>45518</v>
       </c>
@@ -28882,7 +28876,7 @@
       <c r="AD35" s="18"/>
       <c r="AE35" s="18"/>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31">
       <c r="B36" s="56">
         <v>45519</v>
       </c>
@@ -28974,7 +28968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31">
       <c r="B37" s="56">
         <v>45520</v>
       </c>
@@ -29062,7 +29056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31">
       <c r="B38" s="56">
         <v>45521</v>
       </c>
@@ -29096,7 +29090,7 @@
       <c r="AD38" s="62"/>
       <c r="AE38" s="62"/>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31">
       <c r="B39" s="56">
         <v>45522</v>
       </c>
@@ -29130,7 +29124,7 @@
       <c r="AD39" s="62"/>
       <c r="AE39" s="62"/>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31">
       <c r="B40" s="56">
         <v>45523</v>
       </c>
@@ -29222,7 +29216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31">
       <c r="B41" s="56">
         <v>45524</v>
       </c>
@@ -29256,7 +29250,7 @@
       <c r="AD41" s="18"/>
       <c r="AE41" s="18"/>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31">
       <c r="B42" s="56">
         <v>45525</v>
       </c>
@@ -29290,7 +29284,7 @@
       <c r="AD42" s="18"/>
       <c r="AE42" s="18"/>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31">
       <c r="B43" s="56">
         <v>45526</v>
       </c>
@@ -29382,7 +29376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31">
       <c r="B44" s="56">
         <v>45527</v>
       </c>
@@ -29474,7 +29468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31">
       <c r="B45" s="56">
         <v>45528</v>
       </c>
@@ -29508,7 +29502,7 @@
       <c r="AD45" s="4"/>
       <c r="AE45" s="63"/>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31">
       <c r="B46" s="56">
         <v>45529</v>
       </c>
@@ -29542,7 +29536,7 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="63"/>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31">
       <c r="B47" s="56">
         <v>45530</v>
       </c>
@@ -29634,7 +29628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31">
       <c r="B48" s="56">
         <v>45531</v>
       </c>
@@ -29726,7 +29720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31">
       <c r="B49" s="56">
         <v>45532</v>
       </c>
@@ -29818,7 +29812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:31">
       <c r="B50" s="56">
         <v>45533</v>
       </c>
@@ -29910,7 +29904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:31">
       <c r="B51" s="56">
         <v>45534</v>
       </c>
@@ -30002,7 +29996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:31">
       <c r="B52" s="56">
         <v>45535</v>
       </c>
@@ -30036,7 +30030,7 @@
       <c r="AD52" s="18"/>
       <c r="AE52" s="18"/>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:31">
       <c r="B53" s="56">
         <v>45536</v>
       </c>
@@ -30070,7 +30064,7 @@
       <c r="AD53" s="18"/>
       <c r="AE53" s="18"/>
     </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:31">
       <c r="B54" s="56">
         <v>45537</v>
       </c>
@@ -30162,7 +30156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:31">
       <c r="B55" s="56">
         <v>45538</v>
       </c>
@@ -30254,7 +30248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:31">
       <c r="B56" s="56">
         <v>45539</v>
       </c>
@@ -30346,7 +30340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:31">
       <c r="B57" s="56">
         <v>45540</v>
       </c>
@@ -30438,7 +30432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:31">
       <c r="B58" s="56">
         <v>45541</v>
       </c>
@@ -30530,75 +30524,75 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:31">
       <c r="B59" s="56">
         <v>45542</v>
       </c>
-      <c r="C59" s="316"/>
-      <c r="D59" s="316"/>
-      <c r="E59" s="316"/>
-      <c r="F59" s="316"/>
-      <c r="G59" s="316"/>
-      <c r="H59" s="316"/>
-      <c r="I59" s="316"/>
-      <c r="J59" s="316"/>
-      <c r="K59" s="317"/>
-      <c r="L59" s="316"/>
-      <c r="M59" s="316"/>
-      <c r="N59" s="316"/>
-      <c r="O59" s="318"/>
-      <c r="P59" s="316"/>
-      <c r="Q59" s="316"/>
-      <c r="R59" s="316"/>
-      <c r="S59" s="316"/>
-      <c r="T59" s="316"/>
-      <c r="U59" s="316"/>
-      <c r="V59" s="317"/>
-      <c r="W59" s="316"/>
-      <c r="X59" s="316"/>
-      <c r="Y59" s="316"/>
-      <c r="Z59" s="319"/>
-      <c r="AA59" s="316"/>
-      <c r="AB59" s="316"/>
-      <c r="AC59" s="320"/>
-      <c r="AD59" s="321"/>
-      <c r="AE59" s="319"/>
-    </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="168"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="167"/>
+      <c r="N59" s="167"/>
+      <c r="O59" s="169"/>
+      <c r="P59" s="167"/>
+      <c r="Q59" s="167"/>
+      <c r="R59" s="167"/>
+      <c r="S59" s="167"/>
+      <c r="T59" s="167"/>
+      <c r="U59" s="167"/>
+      <c r="V59" s="168"/>
+      <c r="W59" s="167"/>
+      <c r="X59" s="167"/>
+      <c r="Y59" s="167"/>
+      <c r="Z59" s="170"/>
+      <c r="AA59" s="167"/>
+      <c r="AB59" s="167"/>
+      <c r="AC59" s="171"/>
+      <c r="AD59" s="172"/>
+      <c r="AE59" s="170"/>
+    </row>
+    <row r="60" spans="2:31">
       <c r="B60" s="56">
         <v>45543</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="316"/>
-      <c r="I60" s="316"/>
-      <c r="J60" s="316"/>
-      <c r="K60" s="316"/>
-      <c r="L60" s="316"/>
-      <c r="M60" s="316"/>
-      <c r="N60" s="316"/>
-      <c r="O60" s="316"/>
-      <c r="P60" s="316"/>
-      <c r="Q60" s="316"/>
-      <c r="R60" s="316"/>
-      <c r="S60" s="316"/>
-      <c r="T60" s="316"/>
-      <c r="U60" s="316"/>
-      <c r="V60" s="316"/>
-      <c r="W60" s="316"/>
-      <c r="X60" s="316"/>
-      <c r="Y60" s="316"/>
-      <c r="Z60" s="316"/>
-      <c r="AA60" s="316"/>
-      <c r="AB60" s="316"/>
-      <c r="AC60" s="316"/>
-      <c r="AD60" s="316"/>
-      <c r="AE60" s="316"/>
-    </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
+      <c r="M60" s="167"/>
+      <c r="N60" s="167"/>
+      <c r="O60" s="167"/>
+      <c r="P60" s="167"/>
+      <c r="Q60" s="167"/>
+      <c r="R60" s="167"/>
+      <c r="S60" s="167"/>
+      <c r="T60" s="167"/>
+      <c r="U60" s="167"/>
+      <c r="V60" s="167"/>
+      <c r="W60" s="167"/>
+      <c r="X60" s="167"/>
+      <c r="Y60" s="167"/>
+      <c r="Z60" s="167"/>
+      <c r="AA60" s="167"/>
+      <c r="AB60" s="167"/>
+      <c r="AC60" s="167"/>
+      <c r="AD60" s="167"/>
+      <c r="AE60" s="167"/>
+    </row>
+    <row r="61" spans="2:31">
       <c r="B61" s="56">
         <v>45544</v>
       </c>
@@ -30692,6 +30686,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
     <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="AD3:AE4"/>
@@ -30708,11 +30707,6 @@
     <mergeCell ref="L3:O4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30722,20 +30716,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:R56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="157" t="s">
         <v>161</v>
       </c>
@@ -30791,7 +30785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="155">
         <v>45490</v>
       </c>
@@ -30864,7 +30858,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="155">
         <v>45491</v>
       </c>
@@ -30937,7 +30931,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="155">
         <v>45492</v>
       </c>
@@ -31010,7 +31004,7 @@
         <v>1682.1200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="155">
         <v>45493</v>
       </c>
@@ -31083,7 +31077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="155">
         <v>45494</v>
       </c>
@@ -31156,7 +31150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="155">
         <v>45495</v>
       </c>
@@ -31229,7 +31223,7 @@
         <v>1698.98</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="155">
         <v>45496</v>
       </c>
@@ -31302,7 +31296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="155">
         <v>45497</v>
       </c>
@@ -31375,7 +31369,7 @@
         <v>12.479999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="155">
         <v>45498</v>
       </c>
@@ -31448,7 +31442,7 @@
         <v>845.46</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="155">
         <v>45499</v>
       </c>
@@ -31521,7 +31515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="155">
         <v>45500</v>
       </c>
@@ -31594,7 +31588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="155">
         <v>45501</v>
       </c>
@@ -31667,7 +31661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="155">
         <v>45502</v>
       </c>
@@ -31740,7 +31734,7 @@
         <v>1570.1200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="155">
         <v>45503</v>
       </c>
@@ -31813,7 +31807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="155">
         <v>45504</v>
       </c>
@@ -31886,7 +31880,7 @@
         <v>1315.23</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="155">
         <v>45505</v>
       </c>
@@ -31959,7 +31953,7 @@
         <v>1308.26</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="155">
         <v>45506</v>
       </c>
@@ -32032,7 +32026,7 @@
         <v>2342.5299999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="155">
         <v>45507</v>
       </c>
@@ -32105,7 +32099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="155">
         <v>45508</v>
       </c>
@@ -32178,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="155">
         <v>45509</v>
       </c>
@@ -32251,7 +32245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="155">
         <v>45510</v>
       </c>
@@ -32324,7 +32318,7 @@
         <v>2280.41</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="155">
         <v>45511</v>
       </c>
@@ -32397,7 +32391,7 @@
         <v>2272.2799999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="155">
         <v>45512</v>
       </c>
@@ -32470,7 +32464,7 @@
         <v>2221.4499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="155">
         <v>45513</v>
       </c>
@@ -32543,7 +32537,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="155">
         <v>45514</v>
       </c>
@@ -32616,7 +32610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="155">
         <v>45515</v>
       </c>
@@ -32689,7 +32683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="155">
         <v>45516</v>
       </c>
@@ -32762,7 +32756,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="155">
         <v>45517</v>
       </c>
@@ -32835,7 +32829,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="155">
         <v>45518</v>
       </c>
@@ -32908,7 +32902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="155">
         <v>45519</v>
       </c>
@@ -32981,7 +32975,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="155">
         <v>45520</v>
       </c>
@@ -33054,7 +33048,7 @@
         <v>1549.3</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="155">
         <v>45521</v>
       </c>
@@ -33127,7 +33121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="155">
         <v>45522</v>
       </c>
@@ -33200,7 +33194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="155">
         <v>45523</v>
       </c>
@@ -33273,7 +33267,7 @@
         <v>2026.7300000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="155">
         <v>45524</v>
       </c>
@@ -33346,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="155">
         <v>45525</v>
       </c>
@@ -33419,7 +33413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="155">
         <v>45526</v>
       </c>
@@ -33492,7 +33486,7 @@
         <v>2349.94</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="155">
         <v>45527</v>
       </c>
@@ -33565,7 +33559,7 @@
         <v>2092.9300000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="155">
         <v>45528</v>
       </c>
@@ -33638,7 +33632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="155">
         <v>45529</v>
       </c>
@@ -33711,7 +33705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="155">
         <v>45530</v>
       </c>
@@ -33784,7 +33778,7 @@
         <v>2078.17</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="155">
         <v>45531</v>
       </c>
@@ -33857,7 +33851,7 @@
         <v>1782.1000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="155">
         <v>45532</v>
       </c>
@@ -33930,7 +33924,7 @@
         <v>1883.1499999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="155">
         <v>45533</v>
       </c>
@@ -34003,7 +33997,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="155">
         <v>45534</v>
       </c>
@@ -34076,7 +34070,7 @@
         <v>1890.97</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="155">
         <v>45535</v>
       </c>
@@ -34149,7 +34143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="155">
         <v>45536</v>
       </c>
@@ -34222,7 +34216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="155">
         <v>45537</v>
       </c>
@@ -34295,7 +34289,7 @@
         <v>1841.83</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="155">
         <v>45538</v>
       </c>
@@ -34368,7 +34362,7 @@
         <v>1959.4199999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="155">
         <v>45539</v>
       </c>
@@ -34441,7 +34435,7 @@
         <v>1776.77</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="155">
         <v>45540</v>
       </c>
@@ -34512,6 +34506,298 @@
       <c r="R52" s="156">
         <f t="shared" ref="R52" si="4">SUM(B52,D52,F52,H52,J52,L52,N52,P52)</f>
         <v>1783.93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="155">
+        <v>45541</v>
+      </c>
+      <c r="B53" s="156">
+        <f>'ULTRA FILTRATION'!J58</f>
+        <v>236</v>
+      </c>
+      <c r="C53">
+        <f>'ULTRA FILTRATION'!N58</f>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="D53" s="156">
+        <f>'ULTRA FILTRATION'!V58</f>
+        <v>227</v>
+      </c>
+      <c r="E53">
+        <f>'ULTRA FILTRATION'!Z58</f>
+        <v>1.18</v>
+      </c>
+      <c r="F53" s="156">
+        <f>'ULTRA FILTRATION'!AH58</f>
+        <v>159</v>
+      </c>
+      <c r="G53">
+        <f>'ULTRA FILTRATION'!AL58</f>
+        <v>1.3</v>
+      </c>
+      <c r="H53" s="156">
+        <f>'ULTRA FILTRATION'!AT58</f>
+        <v>203.8</v>
+      </c>
+      <c r="I53">
+        <f>'ULTRA FILTRATION'!AX58</f>
+        <v>1.26</v>
+      </c>
+      <c r="J53" s="156">
+        <f>'ULTRA FILTRATION'!BF58</f>
+        <v>267.89999999999998</v>
+      </c>
+      <c r="K53">
+        <f>'ULTRA FILTRATION'!BJ58</f>
+        <v>1.03</v>
+      </c>
+      <c r="L53" s="156">
+        <f>'ULTRA FILTRATION'!BR58</f>
+        <v>212.5</v>
+      </c>
+      <c r="M53">
+        <f>'ULTRA FILTRATION'!BV58</f>
+        <v>1.17</v>
+      </c>
+      <c r="N53" s="156">
+        <f>'ULTRA FILTRATION'!CD58</f>
+        <v>263.7</v>
+      </c>
+      <c r="O53">
+        <f>'ULTRA FILTRATION'!CH58</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P53" s="156">
+        <f>'ULTRA FILTRATION'!CP58</f>
+        <v>162.9</v>
+      </c>
+      <c r="Q53">
+        <f>'ULTRA FILTRATION'!CT58</f>
+        <v>1.5</v>
+      </c>
+      <c r="R53" s="156">
+        <f t="shared" ref="R53:R56" si="5">SUM(B53,D53,F53,H53,J53,L53,N53,P53)</f>
+        <v>1732.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="155">
+        <v>45542</v>
+      </c>
+      <c r="B54" s="156">
+        <f>'ULTRA FILTRATION'!J59</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>'ULTRA FILTRATION'!N59</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="156">
+        <f>'ULTRA FILTRATION'!V59</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>'ULTRA FILTRATION'!Z59</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="156">
+        <f>'ULTRA FILTRATION'!AH59</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>'ULTRA FILTRATION'!AL59</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="156">
+        <f>'ULTRA FILTRATION'!AT59</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>'ULTRA FILTRATION'!AX59</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="156">
+        <f>'ULTRA FILTRATION'!BF59</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>'ULTRA FILTRATION'!BJ59</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="156">
+        <f>'ULTRA FILTRATION'!BR59</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f>'ULTRA FILTRATION'!BV59</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="156">
+        <f>'ULTRA FILTRATION'!CD59</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>'ULTRA FILTRATION'!CH59</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="156">
+        <f>'ULTRA FILTRATION'!CP59</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>'ULTRA FILTRATION'!CT59</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="155">
+        <v>45543</v>
+      </c>
+      <c r="B55" s="156">
+        <f>'ULTRA FILTRATION'!J60</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>'ULTRA FILTRATION'!N60</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="156">
+        <f>'ULTRA FILTRATION'!V60</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>'ULTRA FILTRATION'!Z60</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="156">
+        <f>'ULTRA FILTRATION'!AH60</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>'ULTRA FILTRATION'!AL60</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="156">
+        <f>'ULTRA FILTRATION'!AT60</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>'ULTRA FILTRATION'!AX60</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="156">
+        <f>'ULTRA FILTRATION'!BF60</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>'ULTRA FILTRATION'!BJ60</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="156">
+        <f>'ULTRA FILTRATION'!BR60</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>'ULTRA FILTRATION'!BV60</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="156">
+        <f>'ULTRA FILTRATION'!CD60</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>'ULTRA FILTRATION'!CH60</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="156">
+        <f>'ULTRA FILTRATION'!CP60</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>'ULTRA FILTRATION'!CT60</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="155">
+        <v>45544</v>
+      </c>
+      <c r="B56" s="156">
+        <f>'ULTRA FILTRATION'!J61</f>
+        <v>228</v>
+      </c>
+      <c r="C56">
+        <f>'ULTRA FILTRATION'!N61</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="D56" s="156">
+        <f>'ULTRA FILTRATION'!V61</f>
+        <v>237.36</v>
+      </c>
+      <c r="E56">
+        <f>'ULTRA FILTRATION'!Z61</f>
+        <v>1.02</v>
+      </c>
+      <c r="F56" s="156">
+        <f>'ULTRA FILTRATION'!AH61</f>
+        <v>152.9</v>
+      </c>
+      <c r="G56">
+        <f>'ULTRA FILTRATION'!AL61</f>
+        <v>1.18</v>
+      </c>
+      <c r="H56" s="156">
+        <f>'ULTRA FILTRATION'!AT61</f>
+        <v>215.57</v>
+      </c>
+      <c r="I56">
+        <f>'ULTRA FILTRATION'!AX61</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J56" s="156">
+        <f>'ULTRA FILTRATION'!BF61</f>
+        <v>267.7</v>
+      </c>
+      <c r="K56">
+        <f>'ULTRA FILTRATION'!BJ61</f>
+        <v>0.99</v>
+      </c>
+      <c r="L56" s="156">
+        <f>'ULTRA FILTRATION'!BR61</f>
+        <v>209.6</v>
+      </c>
+      <c r="M56">
+        <f>'ULTRA FILTRATION'!BV61</f>
+        <v>1.07</v>
+      </c>
+      <c r="N56" s="156">
+        <f>'ULTRA FILTRATION'!CD61</f>
+        <v>263.3</v>
+      </c>
+      <c r="O56">
+        <f>'ULTRA FILTRATION'!CH61</f>
+        <v>1.08</v>
+      </c>
+      <c r="P56" s="156">
+        <f>'ULTRA FILTRATION'!CP61</f>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="Q56">
+        <f>'ULTRA FILTRATION'!CT61</f>
+        <v>1.34</v>
+      </c>
+      <c r="R56" s="156">
+        <f t="shared" si="5"/>
+        <v>1723.2299999999998</v>
       </c>
     </row>
   </sheetData>
@@ -34520,16 +34806,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="157" t="s">
         <v>161</v>
       </c>
@@ -34537,7 +34823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="155">
         <v>45490</v>
       </c>
@@ -34546,7 +34832,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="155">
         <v>45491</v>
       </c>
@@ -34555,7 +34841,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="155">
         <v>45492</v>
       </c>
@@ -34564,7 +34850,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="155">
         <v>45493</v>
       </c>
@@ -34573,7 +34859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="155">
         <v>45494</v>
       </c>
@@ -34582,7 +34868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="155">
         <v>45495</v>
       </c>
@@ -34591,7 +34877,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="155">
         <v>45496</v>
       </c>
@@ -34600,7 +34886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="155">
         <v>45497</v>
       </c>
@@ -34609,7 +34895,7 @@
         <v>0.71999999999999975</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="155">
         <v>45498</v>
       </c>
@@ -34618,7 +34904,7 @@
         <v>0.71000000000000041</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="155">
         <v>45499</v>
       </c>
@@ -34627,7 +34913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="155">
         <v>45500</v>
       </c>
@@ -34636,7 +34922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="155">
         <v>45501</v>
       </c>
@@ -34645,7 +34931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="155">
         <v>45502</v>
       </c>
@@ -34654,7 +34940,7 @@
         <v>0.76000000000000023</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="155">
         <v>45503</v>
       </c>
@@ -34663,7 +34949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="155">
         <v>45504</v>
       </c>
@@ -34672,7 +34958,7 @@
         <v>0.69999999999999973</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="155">
         <v>45505</v>
       </c>
@@ -34681,7 +34967,7 @@
         <v>0.87000000000000011</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="155">
         <v>45506</v>
       </c>
@@ -34690,7 +34976,7 @@
         <v>0.75999999999999979</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="155">
         <v>45507</v>
       </c>
@@ -34699,7 +34985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="155">
         <v>45508</v>
       </c>
@@ -34708,7 +34994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="155">
         <v>45509</v>
       </c>
@@ -34717,7 +35003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="155">
         <v>45510</v>
       </c>
@@ -34726,7 +35012,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="155">
         <v>45511</v>
       </c>
@@ -34735,7 +35021,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="155">
         <v>45512</v>
       </c>
@@ -34744,7 +35030,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="155">
         <v>45513</v>
       </c>
@@ -34753,7 +35039,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="155">
         <v>45514</v>
       </c>
@@ -34762,7 +35048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="155">
         <v>45515</v>
       </c>
@@ -34771,7 +35057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="155">
         <v>45516</v>
       </c>
@@ -34780,7 +35066,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="155">
         <v>45517</v>
       </c>
@@ -34789,7 +35075,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="155">
         <v>45518</v>
       </c>
@@ -34798,7 +35084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="155">
         <v>45519</v>
       </c>
@@ -34807,7 +35093,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="155">
         <v>45520</v>
       </c>
@@ -34816,7 +35102,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="155">
         <v>45521</v>
       </c>
@@ -34825,7 +35111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="155">
         <v>45522</v>
       </c>
@@ -34834,7 +35120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="155">
         <v>45523</v>
       </c>
@@ -34843,7 +35129,7 @@
         <v>0.71000000000000041</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="155">
         <v>45524</v>
       </c>
@@ -34852,7 +35138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="155">
         <v>45525</v>
       </c>
@@ -34861,7 +35147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="155">
         <v>45526</v>
       </c>
@@ -34870,7 +35156,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="155">
         <v>45527</v>
       </c>
@@ -34879,7 +35165,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="155">
         <v>45528</v>
       </c>
@@ -34888,7 +35174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="155">
         <v>45529</v>
       </c>
@@ -34897,7 +35183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="155">
         <v>45530</v>
       </c>
@@ -34906,7 +35192,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="155">
         <v>45531</v>
       </c>
@@ -34915,7 +35201,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="155">
         <v>45532</v>
       </c>
@@ -34924,7 +35210,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="155">
         <v>45533</v>
       </c>
@@ -34933,7 +35219,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="155">
         <v>45534</v>
       </c>
@@ -34942,7 +35228,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="155">
         <v>45535</v>
       </c>
@@ -34951,7 +35237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="155">
         <v>45536</v>
       </c>
@@ -34960,7 +35246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="155">
         <v>45537</v>
       </c>
@@ -34969,7 +35255,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="155">
         <v>45538</v>
       </c>
@@ -34978,7 +35264,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="155">
         <v>45539</v>
       </c>
@@ -34987,13 +35273,49 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="155">
         <v>45540</v>
       </c>
       <c r="B52">
         <f>'Filtre à cartouche'!L59</f>
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="155">
+        <v>45541</v>
+      </c>
+      <c r="B53">
+        <f>'Filtre à cartouche'!L60</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="155">
+        <v>45542</v>
+      </c>
+      <c r="B54">
+        <f>'Filtre à cartouche'!L61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="155">
+        <v>45543</v>
+      </c>
+      <c r="B55">
+        <f>'Filtre à cartouche'!L62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="155">
+        <v>45544</v>
+      </c>
+      <c r="B56">
+        <f>'Filtre à cartouche'!L63</f>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -35002,16 +35324,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:R52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:R56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="157" t="s">
         <v>161</v>
       </c>
@@ -35067,7 +35389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="155">
         <v>45490</v>
       </c>
@@ -35140,7 +35462,7 @@
         <v>773.86</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="155">
         <v>45491</v>
       </c>
@@ -35213,7 +35535,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="155">
         <v>45492</v>
       </c>
@@ -35286,7 +35608,7 @@
         <v>766.76</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="155">
         <v>45493</v>
       </c>
@@ -35359,7 +35681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="155">
         <v>45494</v>
       </c>
@@ -35432,7 +35754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="155">
         <v>45495</v>
       </c>
@@ -35505,7 +35827,7 @@
         <v>636.48</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="155">
         <v>45496</v>
       </c>
@@ -35578,7 +35900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="155">
         <v>45497</v>
       </c>
@@ -35651,7 +35973,7 @@
         <v>737.06999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="155">
         <v>45498</v>
       </c>
@@ -35724,7 +36046,7 @@
         <v>726.31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="155">
         <v>45499</v>
       </c>
@@ -35797,7 +36119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="155">
         <v>45500</v>
       </c>
@@ -35870,7 +36192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="155">
         <v>45501</v>
       </c>
@@ -35943,7 +36265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="155">
         <v>45502</v>
       </c>
@@ -36016,7 +36338,7 @@
         <v>697.9</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="155">
         <v>45503</v>
       </c>
@@ -36089,7 +36411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="155">
         <v>45504</v>
       </c>
@@ -36162,7 +36484,7 @@
         <v>543.6</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="155">
         <v>45505</v>
       </c>
@@ -36235,7 +36557,7 @@
         <v>721.62999999999988</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="155">
         <v>45506</v>
       </c>
@@ -36308,7 +36630,7 @@
         <v>707.99</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" s="155">
         <v>45507</v>
       </c>
@@ -36381,7 +36703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20" s="155">
         <v>45508</v>
       </c>
@@ -36454,7 +36776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21" s="155">
         <v>45509</v>
       </c>
@@ -36527,7 +36849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22" s="155">
         <v>45510</v>
       </c>
@@ -36600,7 +36922,7 @@
         <v>602.81999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23" s="155">
         <v>45511</v>
       </c>
@@ -36673,7 +36995,7 @@
         <v>612.51</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24" s="155">
         <v>45512</v>
       </c>
@@ -36746,7 +37068,7 @@
         <v>626.88</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25" s="155">
         <v>45513</v>
       </c>
@@ -36819,7 +37141,7 @@
         <v>643.05999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26" s="155">
         <v>45514</v>
       </c>
@@ -36892,7 +37214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27" s="155">
         <v>45515</v>
       </c>
@@ -36965,7 +37287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28" s="155">
         <v>45516</v>
       </c>
@@ -37038,7 +37360,7 @@
         <v>684.7</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29" s="155">
         <v>45517</v>
       </c>
@@ -37111,7 +37433,7 @@
         <v>779.35</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30" s="155">
         <v>45518</v>
       </c>
@@ -37184,7 +37506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31" s="155">
         <v>45519</v>
       </c>
@@ -37257,7 +37579,7 @@
         <v>767.67</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32" s="155">
         <v>45520</v>
       </c>
@@ -37330,7 +37652,7 @@
         <v>755.14999999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="155">
         <v>45521</v>
       </c>
@@ -37403,7 +37725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="155">
         <v>45522</v>
       </c>
@@ -37476,7 +37798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35" s="155">
         <v>45523</v>
       </c>
@@ -37549,7 +37871,7 @@
         <v>644.79</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="155">
         <v>45524</v>
       </c>
@@ -37622,7 +37944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="155">
         <v>45525</v>
       </c>
@@ -37695,7 +38017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="155">
         <v>45526</v>
       </c>
@@ -37768,7 +38090,7 @@
         <v>636.4799999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="155">
         <v>45527</v>
       </c>
@@ -37841,7 +38163,7 @@
         <v>655.45</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="155">
         <v>45528</v>
       </c>
@@ -37914,7 +38236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="155">
         <v>45529</v>
       </c>
@@ -37987,7 +38309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="155">
         <v>45530</v>
       </c>
@@ -38060,7 +38382,7 @@
         <v>659.66000000000008</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="155">
         <v>45531</v>
       </c>
@@ -38133,7 +38455,7 @@
         <v>630.83000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="155">
         <v>45532</v>
       </c>
@@ -38206,7 +38528,7 @@
         <v>646.9799999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45" s="155">
         <v>45533</v>
       </c>
@@ -38279,7 +38601,7 @@
         <v>614.21</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="155">
         <v>45534</v>
       </c>
@@ -38352,7 +38674,7 @@
         <v>708.77</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="155">
         <v>45535</v>
       </c>
@@ -38425,7 +38747,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="155">
         <v>45536</v>
       </c>
@@ -38498,7 +38820,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49" s="155">
         <v>45537</v>
       </c>
@@ -38571,7 +38893,7 @@
         <v>715.61000000000013</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" s="155">
         <v>45538</v>
       </c>
@@ -38644,7 +38966,7 @@
         <v>616.09</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51" s="155">
         <v>45539</v>
       </c>
@@ -38717,7 +39039,7 @@
         <v>699.36999999999989</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52" s="155">
         <v>45540</v>
       </c>
@@ -38788,6 +39110,298 @@
       <c r="R52" s="156">
         <f t="shared" ref="R52" si="4">SUM(B52,D52,F52,H52,J52,L52,N52,P52)</f>
         <v>696.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="155">
+        <v>45541</v>
+      </c>
+      <c r="B53" s="156">
+        <f>'TRAIN RO'!E58</f>
+        <v>84.3</v>
+      </c>
+      <c r="C53" s="156">
+        <f>'TRAIN RO'!G58</f>
+        <v>2.95</v>
+      </c>
+      <c r="D53">
+        <f>'TRAIN RO'!M58</f>
+        <v>83.69</v>
+      </c>
+      <c r="E53">
+        <f>'TRAIN RO'!O58</f>
+        <v>2.44</v>
+      </c>
+      <c r="F53">
+        <f>'TRAIN RO'!U58</f>
+        <v>83.52</v>
+      </c>
+      <c r="G53">
+        <f>'TRAIN RO'!W58</f>
+        <v>2.64</v>
+      </c>
+      <c r="H53">
+        <f>'TRAIN RO'!AC58</f>
+        <v>86.5</v>
+      </c>
+      <c r="I53">
+        <f>'TRAIN RO'!AE58</f>
+        <v>2.57</v>
+      </c>
+      <c r="J53">
+        <f>'TRAIN RO'!AK58</f>
+        <v>85.22</v>
+      </c>
+      <c r="K53">
+        <f>'TRAIN RO'!AM58</f>
+        <v>2.69</v>
+      </c>
+      <c r="L53">
+        <f>'TRAIN RO'!AS58</f>
+        <v>81.77</v>
+      </c>
+      <c r="M53">
+        <f>'TRAIN RO'!AU58</f>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>'TRAIN RO'!BA58</f>
+        <v>80.989999999999995</v>
+      </c>
+      <c r="O53">
+        <f>'TRAIN RO'!BC58</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>'TRAIN RO'!BI58</f>
+        <v>78.38</v>
+      </c>
+      <c r="Q53">
+        <f>'TRAIN RO'!BK58</f>
+        <v>2.83</v>
+      </c>
+      <c r="R53" s="156">
+        <f t="shared" ref="R53:R56" si="5">SUM(B53,D53,F53,H53,J53,L53,N53,P53)</f>
+        <v>664.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="155">
+        <v>45542</v>
+      </c>
+      <c r="B54" s="156">
+        <f>'TRAIN RO'!E59</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="156">
+        <f>'TRAIN RO'!G59</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>'TRAIN RO'!M59</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>'TRAIN RO'!O59</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>'TRAIN RO'!U59</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>'TRAIN RO'!W59</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>'TRAIN RO'!AC59</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>'TRAIN RO'!AE59</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>'TRAIN RO'!AK59</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>'TRAIN RO'!AM59</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>'TRAIN RO'!AS59</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f>'TRAIN RO'!AU59</f>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f>'TRAIN RO'!BA59</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>'TRAIN RO'!BC59</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>'TRAIN RO'!BI59</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>'TRAIN RO'!BK59</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="155">
+        <v>45543</v>
+      </c>
+      <c r="B55" s="156">
+        <f>'TRAIN RO'!E60</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="156">
+        <f>'TRAIN RO'!G60</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>'TRAIN RO'!M60</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>'TRAIN RO'!O60</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>'TRAIN RO'!U60</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>'TRAIN RO'!W60</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>'TRAIN RO'!AC60</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>'TRAIN RO'!AE60</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>'TRAIN RO'!AK60</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>'TRAIN RO'!AM60</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>'TRAIN RO'!AS60</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>'TRAIN RO'!AU60</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>'TRAIN RO'!BA60</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>'TRAIN RO'!BC60</f>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f>'TRAIN RO'!BI60</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>'TRAIN RO'!BK60</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="155">
+        <v>45544</v>
+      </c>
+      <c r="B56" s="156">
+        <f>'TRAIN RO'!E61</f>
+        <v>80.540000000000006</v>
+      </c>
+      <c r="C56" s="156">
+        <f>'TRAIN RO'!G61</f>
+        <v>2.79</v>
+      </c>
+      <c r="D56">
+        <f>'TRAIN RO'!M61</f>
+        <v>94.28</v>
+      </c>
+      <c r="E56">
+        <f>'TRAIN RO'!O61</f>
+        <v>2.65</v>
+      </c>
+      <c r="F56">
+        <f>'TRAIN RO'!U61</f>
+        <v>88.22</v>
+      </c>
+      <c r="G56">
+        <f>'TRAIN RO'!W61</f>
+        <v>2.63</v>
+      </c>
+      <c r="H56">
+        <f>'TRAIN RO'!AC61</f>
+        <v>92.02</v>
+      </c>
+      <c r="I56">
+        <f>'TRAIN RO'!AE61</f>
+        <v>2.6</v>
+      </c>
+      <c r="J56">
+        <f>'TRAIN RO'!AK61</f>
+        <v>87.1</v>
+      </c>
+      <c r="K56">
+        <f>'TRAIN RO'!AM61</f>
+        <v>2.67</v>
+      </c>
+      <c r="L56">
+        <f>'TRAIN RO'!AS61</f>
+        <v>86.31</v>
+      </c>
+      <c r="M56">
+        <f>'TRAIN RO'!AU61</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f>'TRAIN RO'!BA61</f>
+        <v>83.06</v>
+      </c>
+      <c r="O56">
+        <f>'TRAIN RO'!BC61</f>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f>'TRAIN RO'!BI61</f>
+        <v>84</v>
+      </c>
+      <c r="Q56">
+        <f>'TRAIN RO'!BK61</f>
+        <v>2.39</v>
+      </c>
+      <c r="R56" s="156">
+        <f t="shared" si="5"/>
+        <v>695.53</v>
       </c>
     </row>
   </sheetData>
